--- a/data/hotels_by_city/Houston/Houston_shard_228.xlsx
+++ b/data/hotels_by_city/Houston/Houston_shard_228.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
-    <workbookView activeTab="0"/>
+    <workbookView activeTab="0" autoFilterDateGrouping="1" firstSheet="0" minimized="0" showHorizontalScroll="1" showSheetTabs="1" showVerticalScroll="1" tabRatio="600" visibility="visible"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="hotel_info" sheetId="1" state="visible" r:id="rId1"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="review_info" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet name="hotel_info" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="review_info" sheetId="2" state="visible" r:id="rId2"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="41">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="704">
   <si>
     <t xml:space="preserve">STR# </t>
   </si>
@@ -63,6 +63,12 @@
     <t>https://www.tripadvisor.com/Hotel_Review-g56723-d223191-Reviews-Extended_Stay_America_Houston_Sugar_Land-Sugar_Land_Texas.html</t>
   </si>
   <si>
+    <t>138</t>
+  </si>
+  <si>
+    <t>9</t>
+  </si>
+  <si>
     <t>https://www.orbitz.com/Houston-Hotels-Extended-Stay-America-Houston-Sugar-Land.h662666.Hotel-Information</t>
   </si>
   <si>
@@ -139,6 +145,2017 @@
   </si>
   <si>
     <t>response_text</t>
+  </si>
+  <si>
+    <t>08/09/2018</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56723-d223191-r604059549-Extended_Stay_America_Houston_Sugar_Land-Sugar_Land_Texas.html</t>
+  </si>
+  <si>
+    <t>56723</t>
+  </si>
+  <si>
+    <t>223191</t>
+  </si>
+  <si>
+    <t>604059549</t>
+  </si>
+  <si>
+    <t>08/07/2018</t>
+  </si>
+  <si>
+    <t>Mr. Micheal</t>
+  </si>
+  <si>
+    <t>The service was great it has tremendously improved with the new staff. I highly this hotel to everyone. Not only is the staff friendly but they are very welcoming its definitely one of the better hotels in Houston</t>
+  </si>
+  <si>
+    <t>August 2018</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> traveled solo</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56723-d223191-r598211838-Extended_Stay_America_Houston_Sugar_Land-Sugar_Land_Texas.html</t>
+  </si>
+  <si>
+    <t>598211838</t>
+  </si>
+  <si>
+    <t>07/21/2018</t>
+  </si>
+  <si>
+    <t>Highly Recommended</t>
+  </si>
+  <si>
+    <t>My AC went out and we need a place to stay for the weekend. Pleasantly surprise.  Never stayed there before, it was clean and the AC felt so good we had everything  we needed for the weekend stove, fridge were very clean. If we need to stay here again we will.MoreShow less</t>
+  </si>
+  <si>
+    <t>July 2018</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> traveled with family</t>
+  </si>
+  <si>
+    <t>00esa, Manager at Extended Stay America - Houston - Sugar Land, responded to this reviewResponded 2 weeks ago</t>
+  </si>
+  <si>
+    <t>Responded 2 weeks ago</t>
+  </si>
+  <si>
+    <t>My AC went out and we need a place to stay for the weekend. Pleasantly surprise.  Never stayed there before, it was clean and the AC felt so good we had everything  we needed for the weekend stove, fridge were very clean. If we need to stay here again we will.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56723-d223191-r591065337-Extended_Stay_America_Houston_Sugar_Land-Sugar_Land_Texas.html</t>
+  </si>
+  <si>
+    <t>591065337</t>
+  </si>
+  <si>
+    <t>06/26/2018</t>
+  </si>
+  <si>
+    <t>Exceptional Customer Service</t>
+  </si>
+  <si>
+    <t>I  highly recommend  staying at Extended Stay America Sugar Land. To  be a leader you must know where you going and how to lead. Starting with  management down to employees.  Everyone was warming and help. The hotel was clean and  we'll managed. This  staff goes above to make sure your comfortable and have what you  need.MoreShow less</t>
+  </si>
+  <si>
+    <t>June 2018</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> traveled on business</t>
+  </si>
+  <si>
+    <t>00esa, Manager at Extended Stay America - Houston - Sugar Land, responded to this reviewResponded June 27, 2018</t>
+  </si>
+  <si>
+    <t>Responded June 27, 2018</t>
+  </si>
+  <si>
+    <t>I  highly recommend  staying at Extended Stay America Sugar Land. To  be a leader you must know where you going and how to lead. Starting with  management down to employees.  Everyone was warming and help. The hotel was clean and  we'll managed. This  staff goes above to make sure your comfortable and have what you  need.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56723-d223191-r587717052-Extended_Stay_America_Houston_Sugar_Land-Sugar_Land_Texas.html</t>
+  </si>
+  <si>
+    <t>587717052</t>
+  </si>
+  <si>
+    <t>06/15/2018</t>
+  </si>
+  <si>
+    <t>Improvements Are Happening...</t>
+  </si>
+  <si>
+    <t>The new manager Terriko has been busy gettin' this property together. I have seen a lot of new staff faces taking their tasks seriously, and working late into the evening to make much-needed improvements. I look forward to a new level of sustained excellence and hospitality-service.MoreShow less</t>
+  </si>
+  <si>
+    <t>00esa, Manager at Extended Stay America - Houston - Sugar Land, responded to this reviewResponded June 15, 2018</t>
+  </si>
+  <si>
+    <t>Responded June 15, 2018</t>
+  </si>
+  <si>
+    <t>The new manager Terriko has been busy gettin' this property together. I have seen a lot of new staff faces taking their tasks seriously, and working late into the evening to make much-needed improvements. I look forward to a new level of sustained excellence and hospitality-service.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56723-d223191-r582110246-Extended_Stay_America_Houston_Sugar_Land-Sugar_Land_Texas.html</t>
+  </si>
+  <si>
+    <t>582110246</t>
+  </si>
+  <si>
+    <t>05/22/2018</t>
+  </si>
+  <si>
+    <t>Deplorable conditions</t>
+  </si>
+  <si>
+    <t>One of the most disgusting room conditions I've encountered. The refrigerator looked like it had been run over by a truck, dented, rusted, etc. The floor grossly sticky. Cabinets had disgusting junk everywhere your fingers would touch to open the doors. Carpeting was dirty, stained, smelly. No trash can anywhere in room. Wall fixtures turned sideways, loose. Toilet stained grossly. TV not working. Elevator was out of service. Lots of iffy looking people hanging around,  half dressed, probably living there I'd guess. I would not have stayed they is I was not alone.MoreShow less</t>
+  </si>
+  <si>
+    <t>May 2018</t>
+  </si>
+  <si>
+    <t>00esa, Manager at Extended Stay America - Houston - Sugar Land, responded to this reviewResponded May 23, 2018</t>
+  </si>
+  <si>
+    <t>Responded May 23, 2018</t>
+  </si>
+  <si>
+    <t>One of the most disgusting room conditions I've encountered. The refrigerator looked like it had been run over by a truck, dented, rusted, etc. The floor grossly sticky. Cabinets had disgusting junk everywhere your fingers would touch to open the doors. Carpeting was dirty, stained, smelly. No trash can anywhere in room. Wall fixtures turned sideways, loose. Toilet stained grossly. TV not working. Elevator was out of service. Lots of iffy looking people hanging around,  half dressed, probably living there I'd guess. I would not have stayed they is I was not alone.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56723-d223191-r576294511-Extended_Stay_America_Houston_Sugar_Land-Sugar_Land_Texas.html</t>
+  </si>
+  <si>
+    <t>576294511</t>
+  </si>
+  <si>
+    <t>04/28/2018</t>
+  </si>
+  <si>
+    <t>Great place to stay</t>
+  </si>
+  <si>
+    <t>Ronnie treated us great! Will come back here to stay! Very nice and willing to meet our every need. Rooms are clean and it’s a quiet place to stay. My family has enjoyed staying here and the prices are reasonable.MoreShow less</t>
+  </si>
+  <si>
+    <t>April 2018</t>
+  </si>
+  <si>
+    <t>00esa, Manager at Extended Stay America - Houston - Sugar Land, responded to this reviewResponded April 28, 2018</t>
+  </si>
+  <si>
+    <t>Responded April 28, 2018</t>
+  </si>
+  <si>
+    <t>Ronnie treated us great! Will come back here to stay! Very nice and willing to meet our every need. Rooms are clean and it’s a quiet place to stay. My family has enjoyed staying here and the prices are reasonable.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56723-d223191-r574206358-Extended_Stay_America_Houston_Sugar_Land-Sugar_Land_Texas.html</t>
+  </si>
+  <si>
+    <t>574206358</t>
+  </si>
+  <si>
+    <t>04/18/2018</t>
+  </si>
+  <si>
+    <t>Alexis is the best</t>
+  </si>
+  <si>
+    <t>I recently became a visitor to Extended Stay in Sugarland because of job situations I was evicted out of my home nowhere to really go that was really affordable but I know I needed a place comfortable nice clean and suitable because of a Alexis she has made my stay here very comfortable her greeting is very inviting sincere and professional and she makes you feel like she's your best friend she has really help me through my stress problems with her professionalism great smile and hospitality and that is what's needed most in every part of our life dealing with businesses is hospitality and because of Alexis she makes me feel very comfortable in at home outside of home it makes me feel that my situation is okay that it won't last always unless it's is a great staff leader from what I can see because none of the staff here is rude nor do they look depressed and upset so that goes a long way to say that Alexis is a great leader and I'm so happy that I met her thank you for choosing a wonderful employee.     ☺THANK YOU ALEXIS FOR BEING HEAVEN SENT AND POLITE.THATS GOES A LONG WAY YOU TRULY HAVE BEEN A BLESSING TO ME JUST BY WORDS AND POLITENESS.MoreShow less</t>
+  </si>
+  <si>
+    <t>00esa, Manager at Extended Stay America - Houston - Sugar Land, responded to this reviewResponded April 18, 2018</t>
+  </si>
+  <si>
+    <t>Responded April 18, 2018</t>
+  </si>
+  <si>
+    <t>I recently became a visitor to Extended Stay in Sugarland because of job situations I was evicted out of my home nowhere to really go that was really affordable but I know I needed a place comfortable nice clean and suitable because of a Alexis she has made my stay here very comfortable her greeting is very inviting sincere and professional and she makes you feel like she's your best friend she has really help me through my stress problems with her professionalism great smile and hospitality and that is what's needed most in every part of our life dealing with businesses is hospitality and because of Alexis she makes me feel very comfortable in at home outside of home it makes me feel that my situation is okay that it won't last always unless it's is a great staff leader from what I can see because none of the staff here is rude nor do they look depressed and upset so that goes a long way to say that Alexis is a great leader and I'm so happy that I met her thank you for choosing a wonderful employee.     ☺THANK YOU ALEXIS FOR BEING HEAVEN SENT AND POLITE.THATS GOES A LONG WAY YOU TRULY HAVE BEEN A BLESSING TO ME JUST BY WORDS AND POLITENESS.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56723-d223191-r570006113-Extended_Stay_America_Houston_Sugar_Land-Sugar_Land_Texas.html</t>
+  </si>
+  <si>
+    <t>570006113</t>
+  </si>
+  <si>
+    <t>03/31/2018</t>
+  </si>
+  <si>
+    <t>The worst hotel stay ever</t>
+  </si>
+  <si>
+    <t>Good Evening,
+I don't want to select a specific hotel because your corporate office needs to hear this.  On the evening of March 25th we checkering to the Sugarland American extended stay.  Our booking was for 7 days but we could not stay any longer under the extreme awful circumstances.  Night 1 we waited 30 minutes at the front desk as security looked for the agent to check us in.  (It was late but 30 minutes is crazy).  We were exhausted and just wanted to put our heads down Room 218 was the room we were given.  OMG is all I can say, there was hair on the toilet, a used bar of soap in the tub and a garbage bag over the smoke detector, the room smelled of cigarette smoke.  We were to tired to care and slept there until the next day.  Monday night we went to bed in room 142, a little cleaner so we thought.....  I awoke the next morning and my sleep shirt was damp, my first thought was wow I sweated that night oh no it could not be that simple.  We left for work got back around 4pm I went to sit down on the edge of the bed and put my hand back.  At that point the bed felt damp, we stripped the bed to find a huge urine stain and it was still wet.  I wanted to puke and my sleep...Good Evening,I don't want to select a specific hotel because your corporate office needs to hear this.  On the evening of March 25th we checkering to the Sugarland American extended stay.  Our booking was for 7 days but we could not stay any longer under the extreme awful circumstances.  Night 1 we waited 30 minutes at the front desk as security looked for the agent to check us in.  (It was late but 30 minutes is crazy).  We were exhausted and just wanted to put our heads down Room 218 was the room we were given.  OMG is all I can say, there was hair on the toilet, a used bar of soap in the tub and a garbage bag over the smoke detector, the room smelled of cigarette smoke.  We were to tired to care and slept there until the next day.  Monday night we went to bed in room 142, a little cleaner so we thought.....  I awoke the next morning and my sleep shirt was damp, my first thought was wow I sweated that night oh no it could not be that simple.  We left for work got back around 4pm I went to sit down on the edge of the bed and put my hand back.  At that point the bed felt damp, we stripped the bed to find a huge urine stain and it was still wet.  I wanted to puke and my sleep shirt went in the garbage.  Down to the front desk I went..... we were given a 3rd room moved all our belongings over went to bed because we again were tired.  Neither of us slept as the air did not work we notified the front desk told them we would stay if they could get it fixed in the morning.  We returned from work only to find out the maintenance person had called in sick a forth room change took place.  As we were walking down the hall to our 4th room we watched the housekeeper and her CHILD going into rooms to clean them.  You can rest assured we will never visit this hotel again!!!MoreShow less</t>
+  </si>
+  <si>
+    <t>March 2018</t>
+  </si>
+  <si>
+    <t>00esa, Manager at Extended Stay America - Houston - Sugar Land, responded to this reviewResponded April 2, 2018</t>
+  </si>
+  <si>
+    <t>Responded April 2, 2018</t>
+  </si>
+  <si>
+    <t>Good Evening,
+I don't want to select a specific hotel because your corporate office needs to hear this.  On the evening of March 25th we checkering to the Sugarland American extended stay.  Our booking was for 7 days but we could not stay any longer under the extreme awful circumstances.  Night 1 we waited 30 minutes at the front desk as security looked for the agent to check us in.  (It was late but 30 minutes is crazy).  We were exhausted and just wanted to put our heads down Room 218 was the room we were given.  OMG is all I can say, there was hair on the toilet, a used bar of soap in the tub and a garbage bag over the smoke detector, the room smelled of cigarette smoke.  We were to tired to care and slept there until the next day.  Monday night we went to bed in room 142, a little cleaner so we thought.....  I awoke the next morning and my sleep shirt was damp, my first thought was wow I sweated that night oh no it could not be that simple.  We left for work got back around 4pm I went to sit down on the edge of the bed and put my hand back.  At that point the bed felt damp, we stripped the bed to find a huge urine stain and it was still wet.  I wanted to puke and my sleep...Good Evening,I don't want to select a specific hotel because your corporate office needs to hear this.  On the evening of March 25th we checkering to the Sugarland American extended stay.  Our booking was for 7 days but we could not stay any longer under the extreme awful circumstances.  Night 1 we waited 30 minutes at the front desk as security looked for the agent to check us in.  (It was late but 30 minutes is crazy).  We were exhausted and just wanted to put our heads down Room 218 was the room we were given.  OMG is all I can say, there was hair on the toilet, a used bar of soap in the tub and a garbage bag over the smoke detector, the room smelled of cigarette smoke.  We were to tired to care and slept there until the next day.  Monday night we went to bed in room 142, a little cleaner so we thought.....  I awoke the next morning and my sleep shirt was damp, my first thought was wow I sweated that night oh no it could not be that simple.  We left for work got back around 4pm I went to sit down on the edge of the bed and put my hand back.  At that point the bed felt damp, we stripped the bed to find a huge urine stain and it was still wet.  I wanted to puke and my sleep shirt went in the garbage.  Down to the front desk I went..... we were given a 3rd room moved all our belongings over went to bed because we again were tired.  Neither of us slept as the air did not work we notified the front desk told them we would stay if they could get it fixed in the morning.  We returned from work only to find out the maintenance person had called in sick a forth room change took place.  As we were walking down the hall to our 4th room we watched the housekeeper and her CHILD going into rooms to clean them.  You can rest assured we will never visit this hotel again!!!More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56723-d223191-r567614158-Extended_Stay_America_Houston_Sugar_Land-Sugar_Land_Texas.html</t>
+  </si>
+  <si>
+    <t>567614158</t>
+  </si>
+  <si>
+    <t>03/20/2018</t>
+  </si>
+  <si>
+    <t>Worst hotel experience of my life!</t>
+  </si>
+  <si>
+    <t>ABSOLUTELY THE WORST HOTEL IN THE HOUSTON AREA!!
+I booked this hotel for a 5 night stay. After checking in, as soon as I opened the door to my room, the nightmare began. I knew it was not the room I booked and had requested. It smelled terrible! The carpet was disgusting. I immediately saw there were no amenities. No towels, no hairdryer, no coffee maker, no utensils, no dishes, no pots or pans and no TV remote. The toilet was filthy and obviously had not been cleaned. The shower had mold all around it, hair was in it as well as used Q tips. I immediately called the desk to complain. I was told, "the rodeo is in town, so it's first come, first serve on amenities ." I couldn't believe my ears. Had I known this, I would have booked a regular hotel room elsewhere. Unfortunately, the Houston Rodeo prevented me from finding another hotel, as everywhere was booked. She said she would have maintenance bring a remote and she would try to find us what she could for amenities. Maintenance never showed. She brought up a plastic tub with 2 towels, 1 plate, 2 dirty cups, 2 forks, 1 spoon and one frying pan. The only burner that worked was one small one for cooking. She is the only person at that hotel that tried to accommodate us. We were told they serve breakfast between 6:00 am...ABSOLUTELY THE WORST HOTEL IN THE HOUSTON AREA!!I booked this hotel for a 5 night stay. After checking in, as soon as I opened the door to my room, the nightmare began. I knew it was not the room I booked and had requested. It smelled terrible! The carpet was disgusting. I immediately saw there were no amenities. No towels, no hairdryer, no coffee maker, no utensils, no dishes, no pots or pans and no TV remote. The toilet was filthy and obviously had not been cleaned. The shower had mold all around it, hair was in it as well as used Q tips. I immediately called the desk to complain. I was told, "the rodeo is in town, so it's first come, first serve on amenities ." I couldn't believe my ears. Had I known this, I would have booked a regular hotel room elsewhere. Unfortunately, the Houston Rodeo prevented me from finding another hotel, as everywhere was booked. She said she would have maintenance bring a remote and she would try to find us what she could for amenities. Maintenance never showed. She brought up a plastic tub with 2 towels, 1 plate, 2 dirty cups, 2 forks, 1 spoon and one frying pan. The only burner that worked was one small one for cooking. She is the only person at that hotel that tried to accommodate us. We were told they serve breakfast between 6:00 am - 9:30 am in the dining area. On 2 different occasions, they were completely out of coffee by 8 am and breakfast was hot water for instant oatmeal or a Nature Valley granola bar. What a joke! I think Extended Stay of America's new CEO Jonathan S. Halkyard needs to spend a few nights there and see for himself. This hotel needs a total makeover or better yet, demolition. I wonder when the county health inspector was there last? DON'T WASTE YOUR MONEY ON FILTH!MoreShow less</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> traveled as a couple</t>
+  </si>
+  <si>
+    <t>00esa, Manager at Extended Stay America - Houston - Sugar Land, responded to this reviewResponded March 20, 2018</t>
+  </si>
+  <si>
+    <t>Responded March 20, 2018</t>
+  </si>
+  <si>
+    <t>ABSOLUTELY THE WORST HOTEL IN THE HOUSTON AREA!!
+I booked this hotel for a 5 night stay. After checking in, as soon as I opened the door to my room, the nightmare began. I knew it was not the room I booked and had requested. It smelled terrible! The carpet was disgusting. I immediately saw there were no amenities. No towels, no hairdryer, no coffee maker, no utensils, no dishes, no pots or pans and no TV remote. The toilet was filthy and obviously had not been cleaned. The shower had mold all around it, hair was in it as well as used Q tips. I immediately called the desk to complain. I was told, "the rodeo is in town, so it's first come, first serve on amenities ." I couldn't believe my ears. Had I known this, I would have booked a regular hotel room elsewhere. Unfortunately, the Houston Rodeo prevented me from finding another hotel, as everywhere was booked. She said she would have maintenance bring a remote and she would try to find us what she could for amenities. Maintenance never showed. She brought up a plastic tub with 2 towels, 1 plate, 2 dirty cups, 2 forks, 1 spoon and one frying pan. The only burner that worked was one small one for cooking. She is the only person at that hotel that tried to accommodate us. We were told they serve breakfast between 6:00 am...ABSOLUTELY THE WORST HOTEL IN THE HOUSTON AREA!!I booked this hotel for a 5 night stay. After checking in, as soon as I opened the door to my room, the nightmare began. I knew it was not the room I booked and had requested. It smelled terrible! The carpet was disgusting. I immediately saw there were no amenities. No towels, no hairdryer, no coffee maker, no utensils, no dishes, no pots or pans and no TV remote. The toilet was filthy and obviously had not been cleaned. The shower had mold all around it, hair was in it as well as used Q tips. I immediately called the desk to complain. I was told, "the rodeo is in town, so it's first come, first serve on amenities ." I couldn't believe my ears. Had I known this, I would have booked a regular hotel room elsewhere. Unfortunately, the Houston Rodeo prevented me from finding another hotel, as everywhere was booked. She said she would have maintenance bring a remote and she would try to find us what she could for amenities. Maintenance never showed. She brought up a plastic tub with 2 towels, 1 plate, 2 dirty cups, 2 forks, 1 spoon and one frying pan. The only burner that worked was one small one for cooking. She is the only person at that hotel that tried to accommodate us. We were told they serve breakfast between 6:00 am - 9:30 am in the dining area. On 2 different occasions, they were completely out of coffee by 8 am and breakfast was hot water for instant oatmeal or a Nature Valley granola bar. What a joke! I think Extended Stay of America's new CEO Jonathan S. Halkyard needs to spend a few nights there and see for himself. This hotel needs a total makeover or better yet, demolition. I wonder when the county health inspector was there last? DON'T WASTE YOUR MONEY ON FILTH!More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56723-d223191-r553840532-Extended_Stay_America_Houston_Sugar_Land-Sugar_Land_Texas.html</t>
+  </si>
+  <si>
+    <t>553840532</t>
+  </si>
+  <si>
+    <t>01/14/2018</t>
+  </si>
+  <si>
+    <t>Just checked in, not impressed - 1/14-2018</t>
+  </si>
+  <si>
+    <t>Kind of disappointing.  Arrived at hotel about 2:30, was told could not check in until 3pm.  Desk clerk would not check on availability, just kept repeating, "check in at 3".  Saw the reason she did when her relief arrived at 3pm - gave the strong impression she just didn't feel like doing anything during the last half hour of her shift.
+Finally got checked in about 3:30, because by this time there was a line waiting, and realized my room's AC doesn't want to run.  Heater works:  AC doesn't.  
+Internet is Sloooooooooooow, even after paying for the upgraded, faster internet.  Had to finally tether to my phone to get any kind of signal.
+Extended stay hotel, zero dishes in the room.  Little placard says they are "available to make the most of your in-room kitchen."  Says just to call the front desk and ask:  when I did, was told "we have a shortage, we'll call if you if some become available."  
+Part of the reason we picked an extended stay hotel was the ability to cook our own dinners:  now I have to go purchase paper plates/cups and probably a pan/pot to cook this week.  Eats into the savings of cooking your own food when you have to do this.  Why not leave a set of dishes in each room?
+Little things - 2 flat pillows on the bed, thats it.  2 small towels in the bathroom, and they don't...Kind of disappointing.  Arrived at hotel about 2:30, was told could not check in until 3pm.  Desk clerk would not check on availability, just kept repeating, "check in at 3".  Saw the reason she did when her relief arrived at 3pm - gave the strong impression she just didn't feel like doing anything during the last half hour of her shift.Finally got checked in about 3:30, because by this time there was a line waiting, and realized my room's AC doesn't want to run.  Heater works:  AC doesn't.  Internet is Sloooooooooooow, even after paying for the upgraded, faster internet.  Had to finally tether to my phone to get any kind of signal.Extended stay hotel, zero dishes in the room.  Little placard says they are "available to make the most of your in-room kitchen."  Says just to call the front desk and ask:  when I did, was told "we have a shortage, we'll call if you if some become available."  Part of the reason we picked an extended stay hotel was the ability to cook our own dinners:  now I have to go purchase paper plates/cups and probably a pan/pot to cook this week.  Eats into the savings of cooking your own food when you have to do this.  Why not leave a set of dishes in each room?Little things - 2 flat pillows on the bed, thats it.  2 small towels in the bathroom, and they don't do services every day.  No icemaker in the freezer.  No dish soap to wash dishes with.  A bar of soap in the bathroom, but no complimentary shampoo/conditioner.  Overall, just seems extremely cheap and underwhelming.  Other extended stay hotels in this price point provide much better amenities and better service.  Doubt will stay here again.MoreShow less</t>
+  </si>
+  <si>
+    <t>January 2018</t>
+  </si>
+  <si>
+    <t>00esa, Manager at Extended Stay America - Houston - Sugar Land, responded to this reviewResponded January 15, 2018</t>
+  </si>
+  <si>
+    <t>Responded January 15, 2018</t>
+  </si>
+  <si>
+    <t>Kind of disappointing.  Arrived at hotel about 2:30, was told could not check in until 3pm.  Desk clerk would not check on availability, just kept repeating, "check in at 3".  Saw the reason she did when her relief arrived at 3pm - gave the strong impression she just didn't feel like doing anything during the last half hour of her shift.
+Finally got checked in about 3:30, because by this time there was a line waiting, and realized my room's AC doesn't want to run.  Heater works:  AC doesn't.  
+Internet is Sloooooooooooow, even after paying for the upgraded, faster internet.  Had to finally tether to my phone to get any kind of signal.
+Extended stay hotel, zero dishes in the room.  Little placard says they are "available to make the most of your in-room kitchen."  Says just to call the front desk and ask:  when I did, was told "we have a shortage, we'll call if you if some become available."  
+Part of the reason we picked an extended stay hotel was the ability to cook our own dinners:  now I have to go purchase paper plates/cups and probably a pan/pot to cook this week.  Eats into the savings of cooking your own food when you have to do this.  Why not leave a set of dishes in each room?
+Little things - 2 flat pillows on the bed, thats it.  2 small towels in the bathroom, and they don't...Kind of disappointing.  Arrived at hotel about 2:30, was told could not check in until 3pm.  Desk clerk would not check on availability, just kept repeating, "check in at 3".  Saw the reason she did when her relief arrived at 3pm - gave the strong impression she just didn't feel like doing anything during the last half hour of her shift.Finally got checked in about 3:30, because by this time there was a line waiting, and realized my room's AC doesn't want to run.  Heater works:  AC doesn't.  Internet is Sloooooooooooow, even after paying for the upgraded, faster internet.  Had to finally tether to my phone to get any kind of signal.Extended stay hotel, zero dishes in the room.  Little placard says they are "available to make the most of your in-room kitchen."  Says just to call the front desk and ask:  when I did, was told "we have a shortage, we'll call if you if some become available."  Part of the reason we picked an extended stay hotel was the ability to cook our own dinners:  now I have to go purchase paper plates/cups and probably a pan/pot to cook this week.  Eats into the savings of cooking your own food when you have to do this.  Why not leave a set of dishes in each room?Little things - 2 flat pillows on the bed, thats it.  2 small towels in the bathroom, and they don't do services every day.  No icemaker in the freezer.  No dish soap to wash dishes with.  A bar of soap in the bathroom, but no complimentary shampoo/conditioner.  Overall, just seems extremely cheap and underwhelming.  Other extended stay hotels in this price point provide much better amenities and better service.  Doubt will stay here again.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56723-d223191-r550848267-Extended_Stay_America_Houston_Sugar_Land-Sugar_Land_Texas.html</t>
+  </si>
+  <si>
+    <t>550848267</t>
+  </si>
+  <si>
+    <t>01/02/2018</t>
+  </si>
+  <si>
+    <t>Worst EVER!</t>
+  </si>
+  <si>
+    <t>Stay at the hotel next door! My room was on the third floor, only going for one night. the elevator light was out and moved very slow. Once I stepped off the elevator, a rotten smell hit my nose. We finally get in the room. Not bad, till we pulled back the curtain and saw the window was duct taped. Went out to eat, come back and room keys would not work. Get those fixed. Wake up the next morning and see roaches. We were out of there in a matter of minutes!!! Do yourself a favor and stay at the Marriott next door! Zero Stars!MoreShow less</t>
+  </si>
+  <si>
+    <t>00esa, Manager at Extended Stay America - Houston - Sugar Land, responded to this reviewResponded January 2, 2018</t>
+  </si>
+  <si>
+    <t>Responded January 2, 2018</t>
+  </si>
+  <si>
+    <t>Stay at the hotel next door! My room was on the third floor, only going for one night. the elevator light was out and moved very slow. Once I stepped off the elevator, a rotten smell hit my nose. We finally get in the room. Not bad, till we pulled back the curtain and saw the window was duct taped. Went out to eat, come back and room keys would not work. Get those fixed. Wake up the next morning and see roaches. We were out of there in a matter of minutes!!! Do yourself a favor and stay at the Marriott next door! Zero Stars!More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56723-d223191-r550598000-Extended_Stay_America_Houston_Sugar_Land-Sugar_Land_Texas.html</t>
+  </si>
+  <si>
+    <t>550598000</t>
+  </si>
+  <si>
+    <t>01/01/2018</t>
+  </si>
+  <si>
+    <t>At least the bed was clean</t>
+  </si>
+  <si>
+    <t>I have never stayed at Extended Stay America. Well, the room was clean and that is the high point. The amount of debris inside and outside was remarkable. The hallways were littered with debris and bags of trash. When I arrived I thought well it is late and perhaps this is the result of the day and will get cleaned up. Not so. After several days it is the same inside and out with trash spilling out of the cans. As to the “breakfast” in the lobby; I can’t think of any situation where coffee and granola bars can be defined as “breakfast included”. If a cheap and a small clean room are all you are looking for than this would work for you. MoreShow less</t>
+  </si>
+  <si>
+    <t>00esa, Manager at Extended Stay America - Houston - Sugar Land, responded to this reviewResponded January 1, 2018</t>
+  </si>
+  <si>
+    <t>Responded January 1, 2018</t>
+  </si>
+  <si>
+    <t>I have never stayed at Extended Stay America. Well, the room was clean and that is the high point. The amount of debris inside and outside was remarkable. The hallways were littered with debris and bags of trash. When I arrived I thought well it is late and perhaps this is the result of the day and will get cleaned up. Not so. After several days it is the same inside and out with trash spilling out of the cans. As to the “breakfast” in the lobby; I can’t think of any situation where coffee and granola bars can be defined as “breakfast included”. If a cheap and a small clean room are all you are looking for than this would work for you. More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56723-d223191-r544686194-Extended_Stay_America_Houston_Sugar_Land-Sugar_Land_Texas.html</t>
+  </si>
+  <si>
+    <t>544686194</t>
+  </si>
+  <si>
+    <t>12/02/2017</t>
+  </si>
+  <si>
+    <t>Bday celebration !!</t>
+  </si>
+  <si>
+    <t>I booked the studio room for my boyfriends bday. We were pleased with the space. The only bad thing is that they no longer have complimentary breakfast. I enjoyed the free wifi as always. This was my 3rd stay and I’m sure I’ll be back . I like the area.MoreShow less</t>
+  </si>
+  <si>
+    <t>November 2017</t>
+  </si>
+  <si>
+    <t>00esa, Manager at Extended Stay America - Houston - Sugar Land, responded to this reviewResponded December 3, 2017</t>
+  </si>
+  <si>
+    <t>Responded December 3, 2017</t>
+  </si>
+  <si>
+    <t>I booked the studio room for my boyfriends bday. We were pleased with the space. The only bad thing is that they no longer have complimentary breakfast. I enjoyed the free wifi as always. This was my 3rd stay and I’m sure I’ll be back . I like the area.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56723-d223191-r541400888-Extended_Stay_America_Houston_Sugar_Land-Sugar_Land_Texas.html</t>
+  </si>
+  <si>
+    <t>541400888</t>
+  </si>
+  <si>
+    <t>11/16/2017</t>
+  </si>
+  <si>
+    <t>DO NOT STAY HERE, Your car is better!!!</t>
+  </si>
+  <si>
+    <t>Dirty sticky filthy counters, peeling tub, missing light bulb, broken cabinet door, trash not emptied from previous 'guest', Staff Alexis &amp; Clarise were awesome! This place is absolutely awful and not worth your money!!! Housekeeping should be fired along with location manager as well.MoreShow less</t>
+  </si>
+  <si>
+    <t>00esa, Manager at Extended Stay America - Houston - Sugar Land, responded to this reviewResponded November 17, 2017</t>
+  </si>
+  <si>
+    <t>Responded November 17, 2017</t>
+  </si>
+  <si>
+    <t>Dirty sticky filthy counters, peeling tub, missing light bulb, broken cabinet door, trash not emptied from previous 'guest', Staff Alexis &amp; Clarise were awesome! This place is absolutely awful and not worth your money!!! Housekeeping should be fired along with location manager as well.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56723-d223191-r540748759-Extended_Stay_America_Houston_Sugar_Land-Sugar_Land_Texas.html</t>
+  </si>
+  <si>
+    <t>540748759</t>
+  </si>
+  <si>
+    <t>11/13/2017</t>
+  </si>
+  <si>
+    <t>Unsafe kitchen  with no accessories or utensil. There was trash bags in the hall way</t>
+  </si>
+  <si>
+    <t>I was afraid to the kitchen stove. There were not utensils or accessories to cook or even heat up any food. The hall way was full of trash bags, I had my children stay somewhere else safe. I did not use stove because I was worried it might start a fire. There was not even a coffee pot !!MoreShow less</t>
+  </si>
+  <si>
+    <t>00esa, Manager at Extended Stay America - Houston - Sugar Land, responded to this reviewResponded November 14, 2017</t>
+  </si>
+  <si>
+    <t>Responded November 14, 2017</t>
+  </si>
+  <si>
+    <t>I was afraid to the kitchen stove. There were not utensils or accessories to cook or even heat up any food. The hall way was full of trash bags, I had my children stay somewhere else safe. I did not use stove because I was worried it might start a fire. There was not even a coffee pot !!More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56723-d223191-r506641247-Extended_Stay_America_Houston_Sugar_Land-Sugar_Land_Texas.html</t>
+  </si>
+  <si>
+    <t>506641247</t>
+  </si>
+  <si>
+    <t>07/28/2017</t>
+  </si>
+  <si>
+    <t>Ok at best</t>
+  </si>
+  <si>
+    <t>No breakfast (has just a few grab and go items),  teribile wireless, beds ok, has pool but kind of dirty, location ok as it is close to sugar land business Park, laundry ok,  room clean but old furniture, bathroom with small issues,  some bugs,  has kitchen and that is good and works fine. MoreShow less</t>
+  </si>
+  <si>
+    <t>July 2017</t>
+  </si>
+  <si>
+    <t>00esa, General Manager at Extended Stay America - Houston - Sugar Land, responded to this reviewResponded July 29, 2017</t>
+  </si>
+  <si>
+    <t>Responded July 29, 2017</t>
+  </si>
+  <si>
+    <t>No breakfast (has just a few grab and go items),  teribile wireless, beds ok, has pool but kind of dirty, location ok as it is close to sugar land business Park, laundry ok,  room clean but old furniture, bathroom with small issues,  some bugs,  has kitchen and that is good and works fine. More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56723-d223191-r505527536-Extended_Stay_America_Houston_Sugar_Land-Sugar_Land_Texas.html</t>
+  </si>
+  <si>
+    <t>505527536</t>
+  </si>
+  <si>
+    <t>07/25/2017</t>
+  </si>
+  <si>
+    <t>Great Bargain</t>
+  </si>
+  <si>
+    <t>The overall stay was nice, despite having to transfer into a different room due to issues with cleanliness. The staff is accommodating and friendly! If I were to compare this extended stay hotel to others, I would consider it above average! The executive suites are spacious and usually quite clean. MoreShow less</t>
+  </si>
+  <si>
+    <t>00esa, General Manager at Extended Stay America - Houston - Sugar Land, responded to this reviewResponded July 26, 2017</t>
+  </si>
+  <si>
+    <t>Responded July 26, 2017</t>
+  </si>
+  <si>
+    <t>The overall stay was nice, despite having to transfer into a different room due to issues with cleanliness. The staff is accommodating and friendly! If I were to compare this extended stay hotel to others, I would consider it above average! The executive suites are spacious and usually quite clean. More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56723-d223191-r505239052-Extended_Stay_America_Houston_Sugar_Land-Sugar_Land_Texas.html</t>
+  </si>
+  <si>
+    <t>505239052</t>
+  </si>
+  <si>
+    <t>07/24/2017</t>
+  </si>
+  <si>
+    <t>Worst Place Ever - Dirty</t>
+  </si>
+  <si>
+    <t>This hotel has a Trip Advisor sign by the front door and I found it online based upon the trip advisory rating.  This hotel is nothing like what it says such as being recently renovated.  All the furniture in the room has stains, large scuff marks, dents in the appliances, sheets were dirty, floor and tile in the bathroom broken, toilet stained in the bowl, very old furnishings except for the television.  However, the remote was missing the back and so the batteries kept falling out.  It was just disgusting and just when I thought it couldn't get any worse, a roach crawled across my foot.  I was done and left.  It may be cheap but the picture of the pool is the only good thing.  It is very dated, musty and dirty.MoreShow less</t>
+  </si>
+  <si>
+    <t>00esa, General Manager at Extended Stay America - Houston - Sugar Land, responded to this reviewResponded July 25, 2017</t>
+  </si>
+  <si>
+    <t>Responded July 25, 2017</t>
+  </si>
+  <si>
+    <t>This hotel has a Trip Advisor sign by the front door and I found it online based upon the trip advisory rating.  This hotel is nothing like what it says such as being recently renovated.  All the furniture in the room has stains, large scuff marks, dents in the appliances, sheets were dirty, floor and tile in the bathroom broken, toilet stained in the bowl, very old furnishings except for the television.  However, the remote was missing the back and so the batteries kept falling out.  It was just disgusting and just when I thought it couldn't get any worse, a roach crawled across my foot.  I was done and left.  It may be cheap but the picture of the pool is the only good thing.  It is very dated, musty and dirty.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56723-d223191-r497304512-Extended_Stay_America_Houston_Sugar_Land-Sugar_Land_Texas.html</t>
+  </si>
+  <si>
+    <t>497304512</t>
+  </si>
+  <si>
+    <t>06/29/2017</t>
+  </si>
+  <si>
+    <t>great location</t>
+  </si>
+  <si>
+    <t>the location was great but thats where it ended. the hotel was old and dated. the breakfast was usually cold coffee and stale muffins. the elevator by my room broke the first night so i had to use the stairs and with a bum hip, not so fun. i tried to buy water the first night and went to EVERY machine but nope all empty, although my card was charged 3 timesMoreShow less</t>
+  </si>
+  <si>
+    <t>June 2017</t>
+  </si>
+  <si>
+    <t>00esa, General Manager at Extended Stay America - Houston - Sugar Land, responded to this reviewResponded July 1, 2017</t>
+  </si>
+  <si>
+    <t>Responded July 1, 2017</t>
+  </si>
+  <si>
+    <t>the location was great but thats where it ended. the hotel was old and dated. the breakfast was usually cold coffee and stale muffins. the elevator by my room broke the first night so i had to use the stairs and with a bum hip, not so fun. i tried to buy water the first night and went to EVERY machine but nope all empty, although my card was charged 3 timesMore</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56723-d223191-r497246002-Extended_Stay_America_Houston_Sugar_Land-Sugar_Land_Texas.html</t>
+  </si>
+  <si>
+    <t>497246002</t>
+  </si>
+  <si>
+    <t>Never Again</t>
+  </si>
+  <si>
+    <t>This property needs to be cleaned. There were roaches in every room but one that we were switched to. In the You bd, bathroom,  kitchen, etc.Front desk personnel tried to accommodate but the problem got worse (put us in a room with roches and no air). Asked for a manager that never called me back.MoreShow less</t>
+  </si>
+  <si>
+    <t>This property needs to be cleaned. There were roaches in every room but one that we were switched to. In the You bd, bathroom,  kitchen, etc.Front desk personnel tried to accommodate but the problem got worse (put us in a room with roches and no air). Asked for a manager that never called me back.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56723-d223191-r494276794-Extended_Stay_America_Houston_Sugar_Land-Sugar_Land_Texas.html</t>
+  </si>
+  <si>
+    <t>494276794</t>
+  </si>
+  <si>
+    <t>06/19/2017</t>
+  </si>
+  <si>
+    <t>The room smelled like an ashtray! The toilet was gross! I could never find someone at the front desk.</t>
+  </si>
+  <si>
+    <t>The room smelled like an ashtray! The toilet was gross! I could never find someone at the front desk. I will never stay at one of these hotels again, and I am actively telling everyone I know to avoid them as well.MoreShow less</t>
+  </si>
+  <si>
+    <t>00esa, General Manager at Extended Stay America - Houston - Sugar Land, responded to this reviewResponded June 19, 2017</t>
+  </si>
+  <si>
+    <t>Responded June 19, 2017</t>
+  </si>
+  <si>
+    <t>The room smelled like an ashtray! The toilet was gross! I could never find someone at the front desk. I will never stay at one of these hotels again, and I am actively telling everyone I know to avoid them as well.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56723-d223191-r490537391-Extended_Stay_America_Houston_Sugar_Land-Sugar_Land_Texas.html</t>
+  </si>
+  <si>
+    <t>490537391</t>
+  </si>
+  <si>
+    <t>06/04/2017</t>
+  </si>
+  <si>
+    <t>no breakfast  no boiler no vending</t>
+  </si>
+  <si>
+    <t>this is not acceptable when you continental breakfast then serve only coffee and hot water in the morning. no a boiler kettle for people to drink some clean water if not at least provide a vending machine.MoreShow less</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> traveled with friends</t>
+  </si>
+  <si>
+    <t>00esa, General Manager at Extended Stay America - Houston - Sugar Land, responded to this reviewResponded June 5, 2017</t>
+  </si>
+  <si>
+    <t>Responded June 5, 2017</t>
+  </si>
+  <si>
+    <t>this is not acceptable when you continental breakfast then serve only coffee and hot water in the morning. no a boiler kettle for people to drink some clean water if not at least provide a vending machine.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56723-d223191-r485463712-Extended_Stay_America_Houston_Sugar_Land-Sugar_Land_Texas.html</t>
+  </si>
+  <si>
+    <t>485463712</t>
+  </si>
+  <si>
+    <t>05/18/2017</t>
+  </si>
+  <si>
+    <t>Poor quality hotel</t>
+  </si>
+  <si>
+    <t>During the 9 days that I stayed there my room was not cleaned once. I had killed 5-6 cock roaches in the room, and complained to the front desk many time. The hotel rooms look very dated overall on the inside. Very small breakfast selection, coffee, oatmeal, cereal bars and muffins. There is a small pool outside that which looks like it hasn't been maintained.MoreShow less</t>
+  </si>
+  <si>
+    <t>May 2017</t>
+  </si>
+  <si>
+    <t>00esa, General Manager at Extended Stay America - Houston - Sugar Land, responded to this reviewResponded May 20, 2017</t>
+  </si>
+  <si>
+    <t>Responded May 20, 2017</t>
+  </si>
+  <si>
+    <t>During the 9 days that I stayed there my room was not cleaned once. I had killed 5-6 cock roaches in the room, and complained to the front desk many time. The hotel rooms look very dated overall on the inside. Very small breakfast selection, coffee, oatmeal, cereal bars and muffins. There is a small pool outside that which looks like it hasn't been maintained.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56723-d223191-r481913471-Extended_Stay_America_Houston_Sugar_Land-Sugar_Land_Texas.html</t>
+  </si>
+  <si>
+    <t>481913471</t>
+  </si>
+  <si>
+    <t>05/05/2017</t>
+  </si>
+  <si>
+    <t>Everything was very deceiving!</t>
+  </si>
+  <si>
+    <t>Checked in. Went up to the 3rd floor towards my room &amp; the hallways smelt like smoke even though all the rooms said non smoking. Got to the room &amp; it was the biggest disappointment lights were on in the bathroom, no toilet paper on the roll, TV was on, used toilet paper roll on the dresser, cabinets &amp; refrigerator looked beat up, and the craziest thing of all is that the window was open and the screen was bent open (I have a video of all of this). I immediately called down to the front desk &amp; was told i would get another room. Received the other room which was WAY better than the previous one, to the point were i felt disrespected to have been given the first room. I accepted the room until i went into the bathroom &amp; saw the toilet was disgusting. The bed spread had burn wholes in it. I left for the day and came back &amp; my room had Not been cleaned, when i called to ask "why" I was informed that house keeping only come "once" a week. When I asked about fresh towels I was informed that I had to take my dirty towels (mind you there were no laundry bags available) to the front, only then will i receive clean towels. I have never Heard of anything like that EVER! &amp; breakfast was NOT breakfast, its coffee, tea, and...Checked in. Went up to the 3rd floor towards my room &amp; the hallways smelt like smoke even though all the rooms said non smoking. Got to the room &amp; it was the biggest disappointment lights were on in the bathroom, no toilet paper on the roll, TV was on, used toilet paper roll on the dresser, cabinets &amp; refrigerator looked beat up, and the craziest thing of all is that the window was open and the screen was bent open (I have a video of all of this). I immediately called down to the front desk &amp; was told i would get another room. Received the other room which was WAY better than the previous one, to the point were i felt disrespected to have been given the first room. I accepted the room until i went into the bathroom &amp; saw the toilet was disgusting. The bed spread had burn wholes in it. I left for the day and came back &amp; my room had Not been cleaned, when i called to ask "why" I was informed that house keeping only come "once" a week. When I asked about fresh towels I was informed that I had to take my dirty towels (mind you there were no laundry bags available) to the front, only then will i receive clean towels. I have never Heard of anything like that EVER! &amp; breakfast was NOT breakfast, its coffee, tea, and granola bars! Overall I was disturbed by this experience!MoreShow less</t>
+  </si>
+  <si>
+    <t>00esa, General Manager at Extended Stay America - Houston - Sugar Land, responded to this reviewResponded May 6, 2017</t>
+  </si>
+  <si>
+    <t>Responded May 6, 2017</t>
+  </si>
+  <si>
+    <t>Checked in. Went up to the 3rd floor towards my room &amp; the hallways smelt like smoke even though all the rooms said non smoking. Got to the room &amp; it was the biggest disappointment lights were on in the bathroom, no toilet paper on the roll, TV was on, used toilet paper roll on the dresser, cabinets &amp; refrigerator looked beat up, and the craziest thing of all is that the window was open and the screen was bent open (I have a video of all of this). I immediately called down to the front desk &amp; was told i would get another room. Received the other room which was WAY better than the previous one, to the point were i felt disrespected to have been given the first room. I accepted the room until i went into the bathroom &amp; saw the toilet was disgusting. The bed spread had burn wholes in it. I left for the day and came back &amp; my room had Not been cleaned, when i called to ask "why" I was informed that house keeping only come "once" a week. When I asked about fresh towels I was informed that I had to take my dirty towels (mind you there were no laundry bags available) to the front, only then will i receive clean towels. I have never Heard of anything like that EVER! &amp; breakfast was NOT breakfast, its coffee, tea, and...Checked in. Went up to the 3rd floor towards my room &amp; the hallways smelt like smoke even though all the rooms said non smoking. Got to the room &amp; it was the biggest disappointment lights were on in the bathroom, no toilet paper on the roll, TV was on, used toilet paper roll on the dresser, cabinets &amp; refrigerator looked beat up, and the craziest thing of all is that the window was open and the screen was bent open (I have a video of all of this). I immediately called down to the front desk &amp; was told i would get another room. Received the other room which was WAY better than the previous one, to the point were i felt disrespected to have been given the first room. I accepted the room until i went into the bathroom &amp; saw the toilet was disgusting. The bed spread had burn wholes in it. I left for the day and came back &amp; my room had Not been cleaned, when i called to ask "why" I was informed that house keeping only come "once" a week. When I asked about fresh towels I was informed that I had to take my dirty towels (mind you there were no laundry bags available) to the front, only then will i receive clean towels. I have never Heard of anything like that EVER! &amp; breakfast was NOT breakfast, its coffee, tea, and granola bars! Overall I was disturbed by this experience!More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56723-d223191-r446679056-Extended_Stay_America_Houston_Sugar_Land-Sugar_Land_Texas.html</t>
+  </si>
+  <si>
+    <t>446679056</t>
+  </si>
+  <si>
+    <t>12/26/2016</t>
+  </si>
+  <si>
+    <t>Homeless</t>
+  </si>
+  <si>
+    <t>Renting two rooms and by now I would have expected the weekly rate to have gone WAY down. Also, I still have not been notified about the return of my 1st months' taxes. Whether they've been credited to my account with the hotel or if a check has been mailed out to me (that's another thing I find inconvenient when dealing with yall; the 'mailing of the check', because the 'cash on the spot' thing is so much better and EXTREMELY convenient. All the info needed in order to confirm ones' stay should be readily available to the host.) But now, back to my point, either way it goes, I have yet notice their return. I can go on &amp; on but who wants to keep texting ....?? Let alone be the one on the other end! Yikes!!MoreShow less</t>
+  </si>
+  <si>
+    <t>December 2016</t>
+  </si>
+  <si>
+    <t>Manager_11525, Manager at Extended Stay America - Houston - Sugar Land, responded to this reviewResponded January 5, 2017</t>
+  </si>
+  <si>
+    <t>Responded January 5, 2017</t>
+  </si>
+  <si>
+    <t>Renting two rooms and by now I would have expected the weekly rate to have gone WAY down. Also, I still have not been notified about the return of my 1st months' taxes. Whether they've been credited to my account with the hotel or if a check has been mailed out to me (that's another thing I find inconvenient when dealing with yall; the 'mailing of the check', because the 'cash on the spot' thing is so much better and EXTREMELY convenient. All the info needed in order to confirm ones' stay should be readily available to the host.) But now, back to my point, either way it goes, I have yet notice their return. I can go on &amp; on but who wants to keep texting ....?? Let alone be the one on the other end! Yikes!!More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56723-d223191-r445242011-Extended_Stay_America_Houston_Sugar_Land-Sugar_Land_Texas.html</t>
+  </si>
+  <si>
+    <t>445242011</t>
+  </si>
+  <si>
+    <t>12/19/2016</t>
+  </si>
+  <si>
+    <t>So Sad it Was To Bad!!!</t>
+  </si>
+  <si>
+    <t>Pictures can be deceiving. Even though the price is right.  The location is great, yet it seems to be on the "wrong side of the tracks".  Breakfast is granola bars, small muffins and instant oatmeal, so don't expect fresh fruit! You pick up your own fresh towels at the Front Desk and make your own bed each day-UNLESS you're staying more than 7 days. So "NO Room Service" for you. It is nice being able to bring your own food to cook or snack on, yet check your room-we had some unexpected "visitors" with antenna's and had to throw our's away.  With that said-Enjoy your Stay?MoreShow less</t>
+  </si>
+  <si>
+    <t>Pictures can be deceiving. Even though the price is right.  The location is great, yet it seems to be on the "wrong side of the tracks".  Breakfast is granola bars, small muffins and instant oatmeal, so don't expect fresh fruit! You pick up your own fresh towels at the Front Desk and make your own bed each day-UNLESS you're staying more than 7 days. So "NO Room Service" for you. It is nice being able to bring your own food to cook or snack on, yet check your room-we had some unexpected "visitors" with antenna's and had to throw our's away.  With that said-Enjoy your Stay?More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56723-d223191-r431067426-Extended_Stay_America_Houston_Sugar_Land-Sugar_Land_Texas.html</t>
+  </si>
+  <si>
+    <t>431067426</t>
+  </si>
+  <si>
+    <t>10/23/2016</t>
+  </si>
+  <si>
+    <t>A very good experience Loved it....</t>
+  </si>
+  <si>
+    <t>My room was clean and the service was excellent. The staff was very friendly and understanding. The whole staff met my needs in a timely manner.I stayed there for three weeks and the whole time was a good experience. I felt comfortable. I strongly recommend this hotel to family and friends.MoreShow less</t>
+  </si>
+  <si>
+    <t>October 2016</t>
+  </si>
+  <si>
+    <t>Manager_11525, Manager at Extended Stay America - Houston - Sugar Land, responded to this reviewResponded November 11, 2016</t>
+  </si>
+  <si>
+    <t>Responded November 11, 2016</t>
+  </si>
+  <si>
+    <t>My room was clean and the service was excellent. The staff was very friendly and understanding. The whole staff met my needs in a timely manner.I stayed there for three weeks and the whole time was a good experience. I felt comfortable. I strongly recommend this hotel to family and friends.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56723-d223191-r416526927-Extended_Stay_America_Houston_Sugar_Land-Sugar_Land_Texas.html</t>
+  </si>
+  <si>
+    <t>416526927</t>
+  </si>
+  <si>
+    <t>09/09/2016</t>
+  </si>
+  <si>
+    <t>Awesome stay</t>
+  </si>
+  <si>
+    <t>We Enjoyed our stay at this hotel.  Loved the kitchens and the fact we can make our own food and don't have to eat out every night!  Staff always said our name when we got back and made my son feel appreciated!  Thank youMoreShow less</t>
+  </si>
+  <si>
+    <t>September 2016</t>
+  </si>
+  <si>
+    <t>Manager_11525, Manager at Extended Stay America - Houston - Sugar Land, responded to this reviewResponded September 19, 2016</t>
+  </si>
+  <si>
+    <t>Responded September 19, 2016</t>
+  </si>
+  <si>
+    <t>We Enjoyed our stay at this hotel.  Loved the kitchens and the fact we can make our own food and don't have to eat out every night!  Staff always said our name when we got back and made my son feel appreciated!  Thank youMore</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56723-d223191-r395961217-Extended_Stay_America_Houston_Sugar_Land-Sugar_Land_Texas.html</t>
+  </si>
+  <si>
+    <t>395961217</t>
+  </si>
+  <si>
+    <t>07/23/2016</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Nice stay </t>
+  </si>
+  <si>
+    <t>Front desk staff was very nice. There was a manager Rachel and Aarie made sure we were happy. I appreciate the customer service, you don't find that much anymore. . We liked pool area, good clean area. Felt safe in the hotel. Very much appreciate MoreShow less</t>
+  </si>
+  <si>
+    <t>June 2016</t>
+  </si>
+  <si>
+    <t>Manager_11525, Manager at Extended Stay America - Houston - Sugar Land, responded to this reviewResponded July 27, 2016</t>
+  </si>
+  <si>
+    <t>Responded July 27, 2016</t>
+  </si>
+  <si>
+    <t>Front desk staff was very nice. There was a manager Rachel and Aarie made sure we were happy. I appreciate the customer service, you don't find that much anymore. . We liked pool area, good clean area. Felt safe in the hotel. Very much appreciate More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56723-d223191-r392893755-Extended_Stay_America_Houston_Sugar_Land-Sugar_Land_Texas.html</t>
+  </si>
+  <si>
+    <t>392893755</t>
+  </si>
+  <si>
+    <t>07/15/2016</t>
+  </si>
+  <si>
+    <t>"Nice place to stay"</t>
+  </si>
+  <si>
+    <t>I stayed here for three nights and was very pleased with my stay.  The front desk staff and manager were very friendly and welcoming.  My room was nice and the maids did a good job cleaning my room. Enjoyed the pool area, small but nice.  Will stay here again.MoreShow less</t>
+  </si>
+  <si>
+    <t>July 2016</t>
+  </si>
+  <si>
+    <t>Manager_11525, Manager at Extended Stay America - Houston - Sugar Land, responded to this reviewResponded July 20, 2016</t>
+  </si>
+  <si>
+    <t>Responded July 20, 2016</t>
+  </si>
+  <si>
+    <t>I stayed here for three nights and was very pleased with my stay.  The front desk staff and manager were very friendly and welcoming.  My room was nice and the maids did a good job cleaning my room. Enjoyed the pool area, small but nice.  Will stay here again.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56723-d223191-r361316532-Extended_Stay_America_Houston_Sugar_Land-Sugar_Land_Texas.html</t>
+  </si>
+  <si>
+    <t>361316532</t>
+  </si>
+  <si>
+    <t>04/03/2016</t>
+  </si>
+  <si>
+    <t>Great manager</t>
+  </si>
+  <si>
+    <t>We have been at this hotel a month. Rachel, the general manager has been fantastic, and so accommodating to all our needs. I appreciate the cleaning staff, and I will absolutely stay here next time we are here. Would definitely recommend this place to anyone needing a great place to stay!!</t>
+  </si>
+  <si>
+    <t>April 2016</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56723-d223191-r347956586-Extended_Stay_America_Houston_Sugar_Land-Sugar_Land_Texas.html</t>
+  </si>
+  <si>
+    <t>347956586</t>
+  </si>
+  <si>
+    <t>02/15/2016</t>
+  </si>
+  <si>
+    <t>Nice, clean and professional...</t>
+  </si>
+  <si>
+    <t>I stayed here for one night on 12/13. I must say that their front office closes at 11:00 p.m. however there was  a gentleman that was working around the property and managed to check us in. From what  I could tell he was doing other chores around the property. Despite what he was doing he was very polite and attentive to our needs at the moment. After a long day of driving he managed to check us in pretty fast, which made it a whole lot better. This property was very clean and the room was spotless I was rather impressed with the room in comparison to what I paid. Overall I would recommend this property to anyone, this coming from someone who also happens to work in hospitality industry. I would definitely come back and visit again.MoreShow less</t>
+  </si>
+  <si>
+    <t>February 2016</t>
+  </si>
+  <si>
+    <t>I stayed here for one night on 12/13. I must say that their front office closes at 11:00 p.m. however there was  a gentleman that was working around the property and managed to check us in. From what  I could tell he was doing other chores around the property. Despite what he was doing he was very polite and attentive to our needs at the moment. After a long day of driving he managed to check us in pretty fast, which made it a whole lot better. This property was very clean and the room was spotless I was rather impressed with the room in comparison to what I paid. Overall I would recommend this property to anyone, this coming from someone who also happens to work in hospitality industry. I would definitely come back and visit again.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56723-d223191-r321988837-Extended_Stay_America_Houston_Sugar_Land-Sugar_Land_Texas.html</t>
+  </si>
+  <si>
+    <t>321988837</t>
+  </si>
+  <si>
+    <t>10/26/2015</t>
+  </si>
+  <si>
+    <t>Not the Greatest Motel</t>
+  </si>
+  <si>
+    <t>The rooms are okay probably having been recently renovated but the breakfast is about the poorest I have ever seen the food being a choice of a small muffin or a oat and honey bar. The only liquid in the room was coffee. Not even water was offered much less juice. The bike in the fitness room seems to be permanently broken with the seat at the lowest level and not movable.MoreShow less</t>
+  </si>
+  <si>
+    <t>October 2015</t>
+  </si>
+  <si>
+    <t>Manager_11525, General Manager at Extended Stay America - Houston - Sugar Land, responded to this reviewResponded November 3, 2015</t>
+  </si>
+  <si>
+    <t>Responded November 3, 2015</t>
+  </si>
+  <si>
+    <t>The rooms are okay probably having been recently renovated but the breakfast is about the poorest I have ever seen the food being a choice of a small muffin or a oat and honey bar. The only liquid in the room was coffee. Not even water was offered much less juice. The bike in the fitness room seems to be permanently broken with the seat at the lowest level and not movable.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56723-d223191-r262736816-Extended_Stay_America_Houston_Sugar_Land-Sugar_Land_Texas.html</t>
+  </si>
+  <si>
+    <t>262736816</t>
+  </si>
+  <si>
+    <t>03/30/2015</t>
+  </si>
+  <si>
+    <t>2 weeks stay went great!</t>
+  </si>
+  <si>
+    <t>Hotel has recently been renovated and everything is in great condition. The value you get here is great! I spent two weeks here with a friend for a training course and was very well taken care of. The staff were very helpful and always asking us if there was anything they could help us with. We hadn't brought any cooking utensils or dishware and they were able to provide it all for us...limited quantities but enough that we were able to cook all our meals for the duration of our stay. Breakfast in continental style in the lobby so not great, but we were more than capable of making our own in our room so not an issue. We shared a room which worked out great because it cut down on the cost even more. There's plenty of space in the rooms with 2 double beds which were quite comfortable...couch, tv, desk, kitchenette. I can definitely say that I've spent more on a hotel and received way less than I did here. Also, I read other reviews mentioning bugs, I did NOT see a SINGLE one! Again I can't say anything bad about this place...overall great experience.MoreShow less</t>
+  </si>
+  <si>
+    <t>March 2015</t>
+  </si>
+  <si>
+    <t>Manager_11525, General Manager at Extended Stay America - Houston - Sugar Land, responded to this reviewResponded April 14, 2015</t>
+  </si>
+  <si>
+    <t>Responded April 14, 2015</t>
+  </si>
+  <si>
+    <t>Hotel has recently been renovated and everything is in great condition. The value you get here is great! I spent two weeks here with a friend for a training course and was very well taken care of. The staff were very helpful and always asking us if there was anything they could help us with. We hadn't brought any cooking utensils or dishware and they were able to provide it all for us...limited quantities but enough that we were able to cook all our meals for the duration of our stay. Breakfast in continental style in the lobby so not great, but we were more than capable of making our own in our room so not an issue. We shared a room which worked out great because it cut down on the cost even more. There's plenty of space in the rooms with 2 double beds which were quite comfortable...couch, tv, desk, kitchenette. I can definitely say that I've spent more on a hotel and received way less than I did here. Also, I read other reviews mentioning bugs, I did NOT see a SINGLE one! Again I can't say anything bad about this place...overall great experience.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56723-d223191-r255529494-Extended_Stay_America_Houston_Sugar_Land-Sugar_Land_Texas.html</t>
+  </si>
+  <si>
+    <t>255529494</t>
+  </si>
+  <si>
+    <t>02/20/2015</t>
+  </si>
+  <si>
+    <t>Hotel did not honor reservation</t>
+  </si>
+  <si>
+    <t>I booked a 2 bedroom unit for my parents by calling Extended Stay America and received a confirmation number which confirmed a 2 bedroom unit and my parents also called the hotel directly to later confirm, but upon arrival we were told the 2 bedroom is under construction and is not available.  The 1 bedroom they tried to put us in looked dated with chipped paint and an overall tired, dark and dirty look. We were fortunate enough to find another hotel to accommodate my parents after not feeling comfortable to stay at this property since they were not able to honor our reservation.  My parents have stayed at other Extended Stay America's in the past and have enjoyed their stay, but we have never seen a hotel not able to honor a reservation or at least attempt to rectify the situation.MoreShow less</t>
+  </si>
+  <si>
+    <t>February 2015</t>
+  </si>
+  <si>
+    <t>I booked a 2 bedroom unit for my parents by calling Extended Stay America and received a confirmation number which confirmed a 2 bedroom unit and my parents also called the hotel directly to later confirm, but upon arrival we were told the 2 bedroom is under construction and is not available.  The 1 bedroom they tried to put us in looked dated with chipped paint and an overall tired, dark and dirty look. We were fortunate enough to find another hotel to accommodate my parents after not feeling comfortable to stay at this property since they were not able to honor our reservation.  My parents have stayed at other Extended Stay America's in the past and have enjoyed their stay, but we have never seen a hotel not able to honor a reservation or at least attempt to rectify the situation.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56723-d223191-r249456988-Extended_Stay_America_Houston_Sugar_Land-Sugar_Land_Texas.html</t>
+  </si>
+  <si>
+    <t>249456988</t>
+  </si>
+  <si>
+    <t>01/15/2015</t>
+  </si>
+  <si>
+    <t>OK Hotel for short stays</t>
+  </si>
+  <si>
+    <t>When we checked in the hotel seemed nice, little dated, but not too bad. After staying there for a  month, we weren't getting the weekly house keeping, turned out those little tags saying "Do Not Disturb" even if the house keeping staff see you they will not disturb. Nice in a way. All we had to do is ask for supplies and they promptly filled our request. This location is in a better side of town then the other one is that is 4 miles away. Manager was polite and worked with me on our last day and credited me one night.MoreShow less</t>
+  </si>
+  <si>
+    <t>October 2014</t>
+  </si>
+  <si>
+    <t>Manager_11525, General Manager at Extended Stay America - Houston - Sugar Land, responded to this reviewResponded January 26, 2015</t>
+  </si>
+  <si>
+    <t>Responded January 26, 2015</t>
+  </si>
+  <si>
+    <t>When we checked in the hotel seemed nice, little dated, but not too bad. After staying there for a  month, we weren't getting the weekly house keeping, turned out those little tags saying "Do Not Disturb" even if the house keeping staff see you they will not disturb. Nice in a way. All we had to do is ask for supplies and they promptly filled our request. This location is in a better side of town then the other one is that is 4 miles away. Manager was polite and worked with me on our last day and credited me one night.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56723-d223191-r230863069-Extended_Stay_America_Houston_Sugar_Land-Sugar_Land_Texas.html</t>
+  </si>
+  <si>
+    <t>230863069</t>
+  </si>
+  <si>
+    <t>09/25/2014</t>
+  </si>
+  <si>
+    <t>Very Disappointed</t>
+  </si>
+  <si>
+    <t>I’d recently relocated to the Houston area but was unable to move into my new apartment as the maintenance team needed to finish up a few things. I worked in Sugar Land so I reserved a room at the Extended Stay - Sugar Land  down the road from my office for two nights in June. The room was reserved through an express deal on Priceline.
+1.	The hotel is listed as non-smoking on Priceline (pic attached). This is not correct. When I walked in to my room on the third floor, I was very disappointed to learn that the room was indeed a smoking room. Not just a hint of smoke, it had permeated the linens, air and walls. I called the front desk and was advised by the representative that the hotel is NOT a non-smoking hotel. I requested a non-smoking room and was told that the room I was given was the only room available. I asked for a refund so I could try to find a room elsewhere and was told that wasn’t an option. The only “option” was to call down in the morning to see if another room was available.
+2.	The light in the bathroom didn’t work.
+3.	The toilet was not bolted down properly.
+4.	There was not a DVD player in the room as advertised on the site.
+5.	The molding and borders on the desk were ripped/missing.
+6.	The desk chair...I’d recently relocated to the Houston area but was unable to move into my new apartment as the maintenance team needed to finish up a few things. I worked in Sugar Land so I reserved a room at the Extended Stay - Sugar Land  down the road from my office for two nights in June. The room was reserved through an express deal on Priceline.1.	The hotel is listed as non-smoking on Priceline (pic attached). This is not correct. When I walked in to my room on the third floor, I was very disappointed to learn that the room was indeed a smoking room. Not just a hint of smoke, it had permeated the linens, air and walls. I called the front desk and was advised by the representative that the hotel is NOT a non-smoking hotel. I requested a non-smoking room and was told that the room I was given was the only room available. I asked for a refund so I could try to find a room elsewhere and was told that wasn’t an option. The only “option” was to call down in the morning to see if another room was available.2.	The light in the bathroom didn’t work.3.	The toilet was not bolted down properly.4.	There was not a DVD player in the room as advertised on the site.5.	The molding and borders on the desk were ripped/missing.6.	The desk chair was heavily soiled.7.	The phone on the nightstand was broken.The next morning I stopped at the front desk and spoke with Monique regarding my concerns. Monique is a doll and speaking with her was the only highlight of my stay. (Thank you, Monique, for showing empathy and compassion!) She moved me to a non-smoking room on the second floor for the second/final night of my stay. The room was better, but still lacking. The room smelled better and the light in the bathroom worked but the room was rundown, the plate in the microwave was missing and there was something wrong with the faucet in the kitchenette. Once you turned on the water you had to jiggle the handle just right to turn it off. I don’t understand how management has allowed this property to become so rundown.  I’m not sure if there are some rooms that are better than others or if guests who book through third party vendors are placed wherever there’s an available room. Either way, I was extremely disappointed with my experience at this hotel.MoreShow less</t>
+  </si>
+  <si>
+    <t>June 2014</t>
+  </si>
+  <si>
+    <t>I’d recently relocated to the Houston area but was unable to move into my new apartment as the maintenance team needed to finish up a few things. I worked in Sugar Land so I reserved a room at the Extended Stay - Sugar Land  down the road from my office for two nights in June. The room was reserved through an express deal on Priceline.
+1.	The hotel is listed as non-smoking on Priceline (pic attached). This is not correct. When I walked in to my room on the third floor, I was very disappointed to learn that the room was indeed a smoking room. Not just a hint of smoke, it had permeated the linens, air and walls. I called the front desk and was advised by the representative that the hotel is NOT a non-smoking hotel. I requested a non-smoking room and was told that the room I was given was the only room available. I asked for a refund so I could try to find a room elsewhere and was told that wasn’t an option. The only “option” was to call down in the morning to see if another room was available.
+2.	The light in the bathroom didn’t work.
+3.	The toilet was not bolted down properly.
+4.	There was not a DVD player in the room as advertised on the site.
+5.	The molding and borders on the desk were ripped/missing.
+6.	The desk chair...I’d recently relocated to the Houston area but was unable to move into my new apartment as the maintenance team needed to finish up a few things. I worked in Sugar Land so I reserved a room at the Extended Stay - Sugar Land  down the road from my office for two nights in June. The room was reserved through an express deal on Priceline.1.	The hotel is listed as non-smoking on Priceline (pic attached). This is not correct. When I walked in to my room on the third floor, I was very disappointed to learn that the room was indeed a smoking room. Not just a hint of smoke, it had permeated the linens, air and walls. I called the front desk and was advised by the representative that the hotel is NOT a non-smoking hotel. I requested a non-smoking room and was told that the room I was given was the only room available. I asked for a refund so I could try to find a room elsewhere and was told that wasn’t an option. The only “option” was to call down in the morning to see if another room was available.2.	The light in the bathroom didn’t work.3.	The toilet was not bolted down properly.4.	There was not a DVD player in the room as advertised on the site.5.	The molding and borders on the desk were ripped/missing.6.	The desk chair was heavily soiled.7.	The phone on the nightstand was broken.The next morning I stopped at the front desk and spoke with Monique regarding my concerns. Monique is a doll and speaking with her was the only highlight of my stay. (Thank you, Monique, for showing empathy and compassion!) She moved me to a non-smoking room on the second floor for the second/final night of my stay. The room was better, but still lacking. The room smelled better and the light in the bathroom worked but the room was rundown, the plate in the microwave was missing and there was something wrong with the faucet in the kitchenette. Once you turned on the water you had to jiggle the handle just right to turn it off. I don’t understand how management has allowed this property to become so rundown.  I’m not sure if there are some rooms that are better than others or if guests who book through third party vendors are placed wherever there’s an available room. Either way, I was extremely disappointed with my experience at this hotel.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56723-d223191-r222974927-Extended_Stay_America_Houston_Sugar_Land-Sugar_Land_Texas.html</t>
+  </si>
+  <si>
+    <t>222974927</t>
+  </si>
+  <si>
+    <t>08/19/2014</t>
+  </si>
+  <si>
+    <t>My business trip at Extenday stay.</t>
+  </si>
+  <si>
+    <t>Very comfortable good service very clean and nice pepople.I recomend staying  here. The front desk are nice persons, day and nigth also they have coffe every morning, also all tables are cleani like this place.</t>
+  </si>
+  <si>
+    <t>August 2014</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56723-d223191-r221627816-Extended_Stay_America_Houston_Sugar_Land-Sugar_Land_Texas.html</t>
+  </si>
+  <si>
+    <t>221627816</t>
+  </si>
+  <si>
+    <t>08/13/2014</t>
+  </si>
+  <si>
+    <t>Excellent staffing and curtious sevice</t>
+  </si>
+  <si>
+    <t>The staff at extended stay inn are more than professional and, thier like family away from home. The staff creates an air of congeniality, and love. They go above and beyond the call of duty for the customer, they give an extra piece of themselves to make your stay unforgetible.MoreShow less</t>
+  </si>
+  <si>
+    <t>Manager_11525, General Manager at Extended Stay America - Houston - Sugar Land, responded to this reviewResponded August 14, 2014</t>
+  </si>
+  <si>
+    <t>Responded August 14, 2014</t>
+  </si>
+  <si>
+    <t>The staff at extended stay inn are more than professional and, thier like family away from home. The staff creates an air of congeniality, and love. They go above and beyond the call of duty for the customer, they give an extra piece of themselves to make your stay unforgetible.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56723-d223191-r220659410-Extended_Stay_America_Houston_Sugar_Land-Sugar_Land_Texas.html</t>
+  </si>
+  <si>
+    <t>220659410</t>
+  </si>
+  <si>
+    <t>08/09/2014</t>
+  </si>
+  <si>
+    <t>Best Hotel Ever</t>
+  </si>
+  <si>
+    <t>Loved my stay at extended stay...great cleanliness and service. Only thing is getting utensils for immediate use! I enjoyed the fitness center and pool very much. I couldn't make this more of a home to me. Thank you Extended Stay!MoreShow less</t>
+  </si>
+  <si>
+    <t>Loved my stay at extended stay...great cleanliness and service. Only thing is getting utensils for immediate use! I enjoyed the fitness center and pool very much. I couldn't make this more of a home to me. Thank you Extended Stay!More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56723-d223191-r218677831-Extended_Stay_America_Houston_Sugar_Land-Sugar_Land_Texas.html</t>
+  </si>
+  <si>
+    <t>218677831</t>
+  </si>
+  <si>
+    <t>07/31/2014</t>
+  </si>
+  <si>
+    <t>good stay/good price</t>
+  </si>
+  <si>
+    <t>everything I needed. close to highway yet secluded from the day to day traffic.  no one bothered me. no loud patrons. easy access to parking. breakfast wasn't a copious amount but was satisfactory. will stay again if needed.MoreShow less</t>
+  </si>
+  <si>
+    <t>July 2014</t>
+  </si>
+  <si>
+    <t>Manager_11525, General Manager at Extended Stay America - Houston - Sugar Land, responded to this reviewResponded August 1, 2014</t>
+  </si>
+  <si>
+    <t>Responded August 1, 2014</t>
+  </si>
+  <si>
+    <t>everything I needed. close to highway yet secluded from the day to day traffic.  no one bothered me. no loud patrons. easy access to parking. breakfast wasn't a copious amount but was satisfactory. will stay again if needed.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56723-d223191-r214332113-Extended_Stay_America_Houston_Sugar_Land-Sugar_Land_Texas.html</t>
+  </si>
+  <si>
+    <t>214332113</t>
+  </si>
+  <si>
+    <t>07/08/2014</t>
+  </si>
+  <si>
+    <t>Disgusting and they don't care!!</t>
+  </si>
+  <si>
+    <t>This was the worst hotel experience I have ever had! The first room we were placed in smelt like mildew bad. We found that there was  an ac unit in the hall that had water pouring down the wall which was causing the mildew smell! There was also a plug on the wall across from it that was burnt and looked like the whole place would catch fire. We asked for another room but had to wait until the next night. Then they moved us down 6 rooms into a room that smelt like body odor! Weasked for extra blankets and were yelled at by the host saying it would be a couple hours because she was busy! Then the people above us seemed to be jumping from bed to bed all day &amp; night! We complained twice about the noise and it was never solved. When we said we wanted to check out early and go ssomewhere else they told us they wouldn't refund the last night due to cancelation rules! So we stayed since we really couldn't afford to spend another $100. The noise above us continued throughout the night keeping us up until about 3am. When we complained at check out the girl acted like it wasn't her problem at all! There was another customer complaining before us and she was treated the same way. When we talked to her outside she told us her toilet had...This was the worst hotel experience I have ever had! The first room we were placed in smelt like mildew bad. We found that there was  an ac unit in the hall that had water pouring down the wall which was causing the mildew smell! There was also a plug on the wall across from it that was burnt and looked like the whole place would catch fire. We asked for another room but had to wait until the next night. Then they moved us down 6 rooms into a room that smelt like body odor! Weasked for extra blankets and were yelled at by the host saying it would be a couple hours because she was busy! Then the people above us seemed to be jumping from bed to bed all day &amp; night! We complained twice about the noise and it was never solved. When we said we wanted to check out early and go ssomewhere else they told us they wouldn't refund the last night due to cancelation rules! So we stayed since we really couldn't afford to spend another $100. The noise above us continued throughout the night keeping us up until about 3am. When we complained at check out the girl acted like it wasn't her problem at all! There was another customer complaining before us and she was treated the same way. When we talked to her outside she told us her toilet had clogged up and stopped working on her second night and they never fixed it. Instead they had her using the toilet in the room we had been in the first night!! They never cleaned the room, they just left the door open and had her &amp; her family walking down the hall for 2 days to use the bathroom in a dirty room!! I wish I had seen some reviews before we booked this stay! We will never stay here again &amp; wouldn't recommend it to our worst enemy!  Its nasty &amp; the staff doesn't seem to care at all!!MoreShow less</t>
+  </si>
+  <si>
+    <t>This was the worst hotel experience I have ever had! The first room we were placed in smelt like mildew bad. We found that there was  an ac unit in the hall that had water pouring down the wall which was causing the mildew smell! There was also a plug on the wall across from it that was burnt and looked like the whole place would catch fire. We asked for another room but had to wait until the next night. Then they moved us down 6 rooms into a room that smelt like body odor! Weasked for extra blankets and were yelled at by the host saying it would be a couple hours because she was busy! Then the people above us seemed to be jumping from bed to bed all day &amp; night! We complained twice about the noise and it was never solved. When we said we wanted to check out early and go ssomewhere else they told us they wouldn't refund the last night due to cancelation rules! So we stayed since we really couldn't afford to spend another $100. The noise above us continued throughout the night keeping us up until about 3am. When we complained at check out the girl acted like it wasn't her problem at all! There was another customer complaining before us and she was treated the same way. When we talked to her outside she told us her toilet had...This was the worst hotel experience I have ever had! The first room we were placed in smelt like mildew bad. We found that there was  an ac unit in the hall that had water pouring down the wall which was causing the mildew smell! There was also a plug on the wall across from it that was burnt and looked like the whole place would catch fire. We asked for another room but had to wait until the next night. Then they moved us down 6 rooms into a room that smelt like body odor! Weasked for extra blankets and were yelled at by the host saying it would be a couple hours because she was busy! Then the people above us seemed to be jumping from bed to bed all day &amp; night! We complained twice about the noise and it was never solved. When we said we wanted to check out early and go ssomewhere else they told us they wouldn't refund the last night due to cancelation rules! So we stayed since we really couldn't afford to spend another $100. The noise above us continued throughout the night keeping us up until about 3am. When we complained at check out the girl acted like it wasn't her problem at all! There was another customer complaining before us and she was treated the same way. When we talked to her outside she told us her toilet had clogged up and stopped working on her second night and they never fixed it. Instead they had her using the toilet in the room we had been in the first night!! They never cleaned the room, they just left the door open and had her &amp; her family walking down the hall for 2 days to use the bathroom in a dirty room!! I wish I had seen some reviews before we booked this stay! We will never stay here again &amp; wouldn't recommend it to our worst enemy!  Its nasty &amp; the staff doesn't seem to care at all!!More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56723-d223191-r210494883-Extended_Stay_America_Houston_Sugar_Land-Sugar_Land_Texas.html</t>
+  </si>
+  <si>
+    <t>210494883</t>
+  </si>
+  <si>
+    <t>06/15/2014</t>
+  </si>
+  <si>
+    <t>JUST STAY AWAY</t>
+  </si>
+  <si>
+    <t>I had no choice but to stay here, as my company sent me here, but I'm here for 3 months. I have been here about 1 week now and i CANNOT wait to go home. The staff is nice, but the whole quality of this place blows. Also, I had to disinfect the place myself because it is dirty. The staircase smells like carpet mold. I honestly believe management is not trying hard enough to make this place nice, this place needs to be updated, there needs to be more towels, more quarters for laundry, and I honestly can't wait to get the hell out of here. PLEASE PLEASE PLEASE do something to make this place suck a little less so I don't have to deal with this for 3 more months thanks.MoreShow less</t>
+  </si>
+  <si>
+    <t>Manager_11525, General Manager at Extended Stay America - Houston - Sugar Land, responded to this reviewResponded July 1, 2014</t>
+  </si>
+  <si>
+    <t>Responded July 1, 2014</t>
+  </si>
+  <si>
+    <t>I had no choice but to stay here, as my company sent me here, but I'm here for 3 months. I have been here about 1 week now and i CANNOT wait to go home. The staff is nice, but the whole quality of this place blows. Also, I had to disinfect the place myself because it is dirty. The staircase smells like carpet mold. I honestly believe management is not trying hard enough to make this place nice, this place needs to be updated, there needs to be more towels, more quarters for laundry, and I honestly can't wait to get the hell out of here. PLEASE PLEASE PLEASE do something to make this place suck a little less so I don't have to deal with this for 3 more months thanks.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56723-d223191-r203479065-Extended_Stay_America_Houston_Sugar_Land-Sugar_Land_Texas.html</t>
+  </si>
+  <si>
+    <t>203479065</t>
+  </si>
+  <si>
+    <t>04/30/2014</t>
+  </si>
+  <si>
+    <t>Thanks</t>
+  </si>
+  <si>
+    <t>The staff at this Extended stay is wonderful. The front desk personnel (Monique) was especially, friendly, professional, helpful and knowledgeable regarding everything you could need in their area. Thank You again Ms. Monique!!! The management was also friendly, professional, and helpful as well. The housekeeping staff did a fantastic job for me during my stay ay Extended Stay Sugar Land, TX.  Thanks Y'all !!!!!!!!!!! Hope to see you in the futureMoreShow less</t>
+  </si>
+  <si>
+    <t>March 2014</t>
+  </si>
+  <si>
+    <t>Manager_11525, Manager at Extended Stay America - Houston - Sugar Land, responded to this reviewResponded May 5, 2014</t>
+  </si>
+  <si>
+    <t>Responded May 5, 2014</t>
+  </si>
+  <si>
+    <t>The staff at this Extended stay is wonderful. The front desk personnel (Monique) was especially, friendly, professional, helpful and knowledgeable regarding everything you could need in their area. Thank You again Ms. Monique!!! The management was also friendly, professional, and helpful as well. The housekeeping staff did a fantastic job for me during my stay ay Extended Stay Sugar Land, TX.  Thanks Y'all !!!!!!!!!!! Hope to see you in the futureMore</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56723-d223191-r196796175-Extended_Stay_America_Houston_Sugar_Land-Sugar_Land_Texas.html</t>
+  </si>
+  <si>
+    <t>196796175</t>
+  </si>
+  <si>
+    <t>03/09/2014</t>
+  </si>
+  <si>
+    <t>roaches in room, trash in hallway, smells like a gymsock/dumpster</t>
+  </si>
+  <si>
+    <t>First, I'd like to say that the afternoon and evening staff are friendly and helpful. I can't fault the front desk employees for lack of support from management. How bad is this hotel? Let me count the ways. The first time that I stayed here, my room wreaked of stale cigarette smoke. All the bed linens were completely saturated with cigarette smoke. I began to become ill after two days, and had trouble sleeping due to the smell. Luckily, my stay was short and I left. During my second stay (note: my work puts me up here, so I don't have a choice about where I stay), my room didn't smell of smoke but it was more of the same from my first impression. The breakfast is poorly executed. The offerings are fine, but the staff is poor at putting the coffee out beginning at 6am. Sometimes its 6am, sometimes it is much later. Also, once the coffee runs out, it takes too long for the attendant to replace it. I'm not sure why management doesn't anticipate this and provide more containers to put coffee in. If you're not first in line for the coffee, then you have to wait until subsequent batches are brewed, which is annoying when you are staying there long term b/c you can't count on the coffee being there in the morning as you're trying to leave for work
+However, the breakfast is trivial compared...First, I'd like to say that the afternoon and evening staff are friendly and helpful. I can't fault the front desk employees for lack of support from management. How bad is this hotel? Let me count the ways. The first time that I stayed here, my room wreaked of stale cigarette smoke. All the bed linens were completely saturated with cigarette smoke. I began to become ill after two days, and had trouble sleeping due to the smell. Luckily, my stay was short and I left. During my second stay (note: my work puts me up here, so I don't have a choice about where I stay), my room didn't smell of smoke but it was more of the same from my first impression. The breakfast is poorly executed. The offerings are fine, but the staff is poor at putting the coffee out beginning at 6am. Sometimes its 6am, sometimes it is much later. Also, once the coffee runs out, it takes too long for the attendant to replace it. I'm not sure why management doesn't anticipate this and provide more containers to put coffee in. If you're not first in line for the coffee, then you have to wait until subsequent batches are brewed, which is annoying when you are staying there long term b/c you can't count on the coffee being there in the morning as you're trying to leave for workHowever, the breakfast is trivial compared to the lack of cleanliness throughout the hotel. There is old, moldy, stinky water in one of the washing machines in the laundry room. The exercise room is a joke with broken (I daresay dangerous) equipment and dirty floors. When I checked in, I found broken gel capsules on the floor around my room and the dishes in the cupboards were dirty. Clearly, the cleaning staff are lax on their efforts. What I found to be most worrisome is the tendency to leave the large garbage containers in the hall way overflowing for days. Since this is an extended stay, there is not daily service in the rooms, which is fine by me. As a result, guests empty their trash into the cans in the hallway. The staff do not empty this containers regularly enough, and often the hallways have the warm aroma of a leaky dumpster. Also, this amount of trash creates roach infestations. I had a large, approx 2 inch roach running through my bathroom one morning.MoreShow less</t>
+  </si>
+  <si>
+    <t>Manager_11525, General Manager at Extended Stay America - Houston - Sugar Land, responded to this reviewResponded March 14, 2014</t>
+  </si>
+  <si>
+    <t>Responded March 14, 2014</t>
+  </si>
+  <si>
+    <t>First, I'd like to say that the afternoon and evening staff are friendly and helpful. I can't fault the front desk employees for lack of support from management. How bad is this hotel? Let me count the ways. The first time that I stayed here, my room wreaked of stale cigarette smoke. All the bed linens were completely saturated with cigarette smoke. I began to become ill after two days, and had trouble sleeping due to the smell. Luckily, my stay was short and I left. During my second stay (note: my work puts me up here, so I don't have a choice about where I stay), my room didn't smell of smoke but it was more of the same from my first impression. The breakfast is poorly executed. The offerings are fine, but the staff is poor at putting the coffee out beginning at 6am. Sometimes its 6am, sometimes it is much later. Also, once the coffee runs out, it takes too long for the attendant to replace it. I'm not sure why management doesn't anticipate this and provide more containers to put coffee in. If you're not first in line for the coffee, then you have to wait until subsequent batches are brewed, which is annoying when you are staying there long term b/c you can't count on the coffee being there in the morning as you're trying to leave for work
+However, the breakfast is trivial compared...First, I'd like to say that the afternoon and evening staff are friendly and helpful. I can't fault the front desk employees for lack of support from management. How bad is this hotel? Let me count the ways. The first time that I stayed here, my room wreaked of stale cigarette smoke. All the bed linens were completely saturated with cigarette smoke. I began to become ill after two days, and had trouble sleeping due to the smell. Luckily, my stay was short and I left. During my second stay (note: my work puts me up here, so I don't have a choice about where I stay), my room didn't smell of smoke but it was more of the same from my first impression. The breakfast is poorly executed. The offerings are fine, but the staff is poor at putting the coffee out beginning at 6am. Sometimes its 6am, sometimes it is much later. Also, once the coffee runs out, it takes too long for the attendant to replace it. I'm not sure why management doesn't anticipate this and provide more containers to put coffee in. If you're not first in line for the coffee, then you have to wait until subsequent batches are brewed, which is annoying when you are staying there long term b/c you can't count on the coffee being there in the morning as you're trying to leave for workHowever, the breakfast is trivial compared to the lack of cleanliness throughout the hotel. There is old, moldy, stinky water in one of the washing machines in the laundry room. The exercise room is a joke with broken (I daresay dangerous) equipment and dirty floors. When I checked in, I found broken gel capsules on the floor around my room and the dishes in the cupboards were dirty. Clearly, the cleaning staff are lax on their efforts. What I found to be most worrisome is the tendency to leave the large garbage containers in the hall way overflowing for days. Since this is an extended stay, there is not daily service in the rooms, which is fine by me. As a result, guests empty their trash into the cans in the hallway. The staff do not empty this containers regularly enough, and often the hallways have the warm aroma of a leaky dumpster. Also, this amount of trash creates roach infestations. I had a large, approx 2 inch roach running through my bathroom one morning.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56723-d223191-r191925790-Extended_Stay_America_Houston_Sugar_Land-Sugar_Land_Texas.html</t>
+  </si>
+  <si>
+    <t>191925790</t>
+  </si>
+  <si>
+    <t>01/24/2014</t>
+  </si>
+  <si>
+    <t>Great Stay</t>
+  </si>
+  <si>
+    <t>The staff was great! The hotel is clean and spacious. House keeping comes every day regardless if you are staying or not. I felt very safe and comfortable here. I had company from some work friends and they were attended to with the same customer care.</t>
+  </si>
+  <si>
+    <t>January 2014</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56723-d223191-r191743241-Extended_Stay_America_Houston_Sugar_Land-Sugar_Land_Texas.html</t>
+  </si>
+  <si>
+    <t>191743241</t>
+  </si>
+  <si>
+    <t>01/22/2014</t>
+  </si>
+  <si>
+    <t>Home away from Home</t>
+  </si>
+  <si>
+    <t>I moved across country and stayed at the Comfort Inn and Suites (Texas must be known for big bugs - had the same issue in South Carolina). While exploring the area and wanted to change hotels, I found this great hotel (Extended Stay America - Sugar Land TX) to call home. The staff was EXCELLENT from the moment that I arrived (Thank you Nick, Monique, Dilan, Elan, Quentin and the rest). For a older hotel, the rooms were clean and well maintained. The location is perfect! Close to Sugar Land Town Center where activity is going on at all times as well as close to the City of Houston. Great restaurants surround the hotel (one minute away is the closest to 12 minutes away); Walmart and Sam's Club within 3 miles; First Colony Mall for all your shopping needs within 4 or 5 miles. I would recommend this hotel to all who are passing through this area for a day or a year.MoreShow less</t>
+  </si>
+  <si>
+    <t>Manager_11525, General Manager at Extended Stay America - Houston - Sugar Land, responded to this reviewResponded January 28, 2014</t>
+  </si>
+  <si>
+    <t>Responded January 28, 2014</t>
+  </si>
+  <si>
+    <t>I moved across country and stayed at the Comfort Inn and Suites (Texas must be known for big bugs - had the same issue in South Carolina). While exploring the area and wanted to change hotels, I found this great hotel (Extended Stay America - Sugar Land TX) to call home. The staff was EXCELLENT from the moment that I arrived (Thank you Nick, Monique, Dilan, Elan, Quentin and the rest). For a older hotel, the rooms were clean and well maintained. The location is perfect! Close to Sugar Land Town Center where activity is going on at all times as well as close to the City of Houston. Great restaurants surround the hotel (one minute away is the closest to 12 minutes away); Walmart and Sam's Club within 3 miles; First Colony Mall for all your shopping needs within 4 or 5 miles. I would recommend this hotel to all who are passing through this area for a day or a year.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56723-d223191-r191370454-Extended_Stay_America_Houston_Sugar_Land-Sugar_Land_Texas.html</t>
+  </si>
+  <si>
+    <t>191370454</t>
+  </si>
+  <si>
+    <t>01/19/2014</t>
+  </si>
+  <si>
+    <t>Worst Experience Ever!</t>
+  </si>
+  <si>
+    <t>First, ask specific driving instructions because the location is difficult to get to. I called the night before our reservation to confirm &amp; make sure they had a King size bed available since my husband &amp; I are not small people. I was told by the person on the phone, that they had a "special priceline only room" &amp; the bed was queen size. Upon arrival the next day at 2:45pm to check in, I waited at the desk for almost 20 minutes for the clerk to find my reservation &amp; room assignment. I offered my copy of the booking receipt, but she didn't want to see it. She also had difficulty programming the room key. We went to the room which ended up being in a very stuffy, stinky part of the hotel &amp; it was marked with a "Handicapped" symbol. Housekeeping hadn't even been there since the last occupants. The room smelled horrible! The room was a mess, bed linens obviously slept in, a wash rag next to the bed on the floor, along with a smelly, musty stench like the hallway. I called the front desk to let them know the condition of the room &amp; to give them time to find another one for us. We waited at the front desk while the "manager" went to go check visibly another room was ready for us. He never came back &amp; the lady left at the desk...First, ask specific driving instructions because the location is difficult to get to. I called the night before our reservation to confirm &amp; make sure they had a King size bed available since my husband &amp; I are not small people. I was told by the person on the phone, that they had a "special priceline only room" &amp; the bed was queen size. Upon arrival the next day at 2:45pm to check in, I waited at the desk for almost 20 minutes for the clerk to find my reservation &amp; room assignment. I offered my copy of the booking receipt, but she didn't want to see it. She also had difficulty programming the room key. We went to the room which ended up being in a very stuffy, stinky part of the hotel &amp; it was marked with a "Handicapped" symbol. Housekeeping hadn't even been there since the last occupants. The room smelled horrible! The room was a mess, bed linens obviously slept in, a wash rag next to the bed on the floor, along with a smelly, musty stench like the hallway. I called the front desk to let them know the condition of the room &amp; to give them time to find another one for us. We waited at the front desk while the "manager" went to go check visibly another room was ready for us. He never came back &amp; the lady left at the desk asked us if we needed help. My husband was pretty furious by this time but held his cool. He explained to her our situation &amp; her response was about the key card issues. Not very nice or professional or even helpful staff. After 45 minutes went by from our 1st attempt to check in, we finally got a room which we were "upgraded" to. The hallway smelled fresh. The room seemed clean but blew musty air out of the ac unit. I went to put my personal items in the small drawers. THEY WERE OCCUPIED by about 8 different things, including a prescription drug for asthma &amp; hair color for men, deodorant etc. We took a picture of them in the drawer &amp; my husband brought the items to the front desk. A customer checking in, innocently asked if every room got those products too? They hadn't vacuumed under the bed wither where we found beer bottle tops. By this time we only had 30 minutes to get ready &amp; drive to our evening commitment. Very stressful. If you took the time to read this review, please head my warning to NEVER STAY HERE! I gave this place a chance knowing the express booking was inexpensive, but never imagined the level of incompetence &amp; filth we experience. I also took the time to email corporate &amp; tell them about this much over looked, mismanaged location.MoreShow less</t>
+  </si>
+  <si>
+    <t>Manager_11525, Owner at Extended Stay America - Houston - Sugar Land, responded to this reviewResponded January 23, 2014</t>
+  </si>
+  <si>
+    <t>Responded January 23, 2014</t>
+  </si>
+  <si>
+    <t>First, ask specific driving instructions because the location is difficult to get to. I called the night before our reservation to confirm &amp; make sure they had a King size bed available since my husband &amp; I are not small people. I was told by the person on the phone, that they had a "special priceline only room" &amp; the bed was queen size. Upon arrival the next day at 2:45pm to check in, I waited at the desk for almost 20 minutes for the clerk to find my reservation &amp; room assignment. I offered my copy of the booking receipt, but she didn't want to see it. She also had difficulty programming the room key. We went to the room which ended up being in a very stuffy, stinky part of the hotel &amp; it was marked with a "Handicapped" symbol. Housekeeping hadn't even been there since the last occupants. The room smelled horrible! The room was a mess, bed linens obviously slept in, a wash rag next to the bed on the floor, along with a smelly, musty stench like the hallway. I called the front desk to let them know the condition of the room &amp; to give them time to find another one for us. We waited at the front desk while the "manager" went to go check visibly another room was ready for us. He never came back &amp; the lady left at the desk...First, ask specific driving instructions because the location is difficult to get to. I called the night before our reservation to confirm &amp; make sure they had a King size bed available since my husband &amp; I are not small people. I was told by the person on the phone, that they had a "special priceline only room" &amp; the bed was queen size. Upon arrival the next day at 2:45pm to check in, I waited at the desk for almost 20 minutes for the clerk to find my reservation &amp; room assignment. I offered my copy of the booking receipt, but she didn't want to see it. She also had difficulty programming the room key. We went to the room which ended up being in a very stuffy, stinky part of the hotel &amp; it was marked with a "Handicapped" symbol. Housekeeping hadn't even been there since the last occupants. The room smelled horrible! The room was a mess, bed linens obviously slept in, a wash rag next to the bed on the floor, along with a smelly, musty stench like the hallway. I called the front desk to let them know the condition of the room &amp; to give them time to find another one for us. We waited at the front desk while the "manager" went to go check visibly another room was ready for us. He never came back &amp; the lady left at the desk asked us if we needed help. My husband was pretty furious by this time but held his cool. He explained to her our situation &amp; her response was about the key card issues. Not very nice or professional or even helpful staff. After 45 minutes went by from our 1st attempt to check in, we finally got a room which we were "upgraded" to. The hallway smelled fresh. The room seemed clean but blew musty air out of the ac unit. I went to put my personal items in the small drawers. THEY WERE OCCUPIED by about 8 different things, including a prescription drug for asthma &amp; hair color for men, deodorant etc. We took a picture of them in the drawer &amp; my husband brought the items to the front desk. A customer checking in, innocently asked if every room got those products too? They hadn't vacuumed under the bed wither where we found beer bottle tops. By this time we only had 30 minutes to get ready &amp; drive to our evening commitment. Very stressful. If you took the time to read this review, please head my warning to NEVER STAY HERE! I gave this place a chance knowing the express booking was inexpensive, but never imagined the level of incompetence &amp; filth we experience. I also took the time to email corporate &amp; tell them about this much over looked, mismanaged location.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56723-d223191-r178998983-Extended_Stay_America_Houston_Sugar_Land-Sugar_Land_Texas.html</t>
+  </si>
+  <si>
+    <t>178998983</t>
+  </si>
+  <si>
+    <t>09/28/2013</t>
+  </si>
+  <si>
+    <t>Nice Plcae to stay.</t>
+  </si>
+  <si>
+    <t>Good place to stay. It’s very much near to Houston, Stafford.If you don't have car then Walmart, Sam's club, Indian restaurant and small lake side restaurant is very much near. Staff is really helpful.</t>
+  </si>
+  <si>
+    <t>September 2013</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56723-d223191-r175732022-Extended_Stay_America_Houston_Sugar_Land-Sugar_Land_Texas.html</t>
+  </si>
+  <si>
+    <t>175732022</t>
+  </si>
+  <si>
+    <t>09/04/2013</t>
+  </si>
+  <si>
+    <t>My time with Extended Stay America - Sugar Land</t>
+  </si>
+  <si>
+    <t>You have to experience the warm home greeting you get when coming home for the holidays and the feeling of genuine care from Monique Joseph.  She has gone over and beyond to make my time here at Extended Stay America (sugar land, tx) a memorable cone.  It's not very often that you meet a perfectly stranger that shows you that there are still some good people left who value other people. Now the customer service from the cleaning crew could use a little improvement but your needs will be met. Now I did have one bad experience with an injury, due to a drainage pipe located in the front of the lobby entry way.MoreShow less</t>
+  </si>
+  <si>
+    <t>August 2013</t>
+  </si>
+  <si>
+    <t>Manager_11525, General Manager at Extended Stay America - Houston - Sugar Land, responded to this reviewResponded September 6, 2013</t>
+  </si>
+  <si>
+    <t>Responded September 6, 2013</t>
+  </si>
+  <si>
+    <t>You have to experience the warm home greeting you get when coming home for the holidays and the feeling of genuine care from Monique Joseph.  She has gone over and beyond to make my time here at Extended Stay America (sugar land, tx) a memorable cone.  It's not very often that you meet a perfectly stranger that shows you that there are still some good people left who value other people. Now the customer service from the cleaning crew could use a little improvement but your needs will be met. Now I did have one bad experience with an injury, due to a drainage pipe located in the front of the lobby entry way.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56723-d223191-r175330278-Extended_Stay_America_Houston_Sugar_Land-Sugar_Land_Texas.html</t>
+  </si>
+  <si>
+    <t>175330278</t>
+  </si>
+  <si>
+    <t>09/02/2013</t>
+  </si>
+  <si>
+    <t>3 month stay</t>
+  </si>
+  <si>
+    <t>Rooms are out dated, appliances are in poor shape and a safety hazard. I had  to be relocated to 2 different rooms do to ceiling leaking in the bathroom and bad smelling. House cleaning was done once a week and did not vacuum the flooring. There was mold on the walls in the bathrooms, the fixture for the bathroom sink was not secure and very loose.MoreShow less</t>
+  </si>
+  <si>
+    <t>June 2013</t>
+  </si>
+  <si>
+    <t>Rooms are out dated, appliances are in poor shape and a safety hazard. I had  to be relocated to 2 different rooms do to ceiling leaking in the bathroom and bad smelling. House cleaning was done once a week and did not vacuum the flooring. There was mold on the walls in the bathrooms, the fixture for the bathroom sink was not secure and very loose.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56723-d223191-r168574765-Extended_Stay_America_Houston_Sugar_Land-Sugar_Land_Texas.html</t>
+  </si>
+  <si>
+    <t>168574765</t>
+  </si>
+  <si>
+    <t>07/22/2013</t>
+  </si>
+  <si>
+    <t>Cheap; but not cheap enough to stay again!</t>
+  </si>
+  <si>
+    <t>Hotel &amp; rooms smell!  Bed &amp; bedding is cheap &amp; uncomfortable!  Overall feeling of just not clean! Would not stay again. Soda machines broke; no signs even after I reported the incident. Front desk seems to either be missing or always has a line!MoreShow less</t>
+  </si>
+  <si>
+    <t>Manager_11525, General Manager at Extended Stay America - Houston - Sugar Land, responded to this reviewResponded July 26, 2013</t>
+  </si>
+  <si>
+    <t>Responded July 26, 2013</t>
+  </si>
+  <si>
+    <t>Hotel &amp; rooms smell!  Bed &amp; bedding is cheap &amp; uncomfortable!  Overall feeling of just not clean! Would not stay again. Soda machines broke; no signs even after I reported the incident. Front desk seems to either be missing or always has a line!More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56723-d223191-r166753711-Extended_Stay_America_Houston_Sugar_Land-Sugar_Land_Texas.html</t>
+  </si>
+  <si>
+    <t>166753711</t>
+  </si>
+  <si>
+    <t>07/08/2013</t>
+  </si>
+  <si>
+    <t>Dirty Property</t>
+  </si>
+  <si>
+    <t>Most every aspect of our room was dirty. There were dead bugs and dirt in the drawers and the carpet was filthy. Outside in the halls, trash was piled up and smelled bad. Pool was small and water was dirty also. Glad we only stayed for 3 days.Front desk staff was friendly and the place does have wi-fi.MoreShow less</t>
+  </si>
+  <si>
+    <t>July 2013</t>
+  </si>
+  <si>
+    <t>Manager_11525, General Manager at Extended Stay America - Houston - Sugar Land, responded to this reviewResponded July 11, 2013</t>
+  </si>
+  <si>
+    <t>Responded July 11, 2013</t>
+  </si>
+  <si>
+    <t>Most every aspect of our room was dirty. There were dead bugs and dirt in the drawers and the carpet was filthy. Outside in the halls, trash was piled up and smelled bad. Pool was small and water was dirty also. Glad we only stayed for 3 days.Front desk staff was friendly and the place does have wi-fi.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56723-d223191-r165710723-Extended_Stay_America_Houston_Sugar_Land-Sugar_Land_Texas.html</t>
+  </si>
+  <si>
+    <t>165710723</t>
+  </si>
+  <si>
+    <t>06/29/2013</t>
+  </si>
+  <si>
+    <t>Decent value for extended stay</t>
+  </si>
+  <si>
+    <t>Decent hotel to stay at for extended stay.  I have been here for a few months now and the staff has been very friendly and accommodating.  One person deserves to be called out by name as a shining star here at this hotel, Ekhlas is wonderful!MoreShow less</t>
+  </si>
+  <si>
+    <t>Manager_11525, General Manager at Extended Stay America - Houston - Sugar Land, responded to this reviewResponded July 2, 2013</t>
+  </si>
+  <si>
+    <t>Responded July 2, 2013</t>
+  </si>
+  <si>
+    <t>Decent hotel to stay at for extended stay.  I have been here for a few months now and the staff has been very friendly and accommodating.  One person deserves to be called out by name as a shining star here at this hotel, Ekhlas is wonderful!More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56723-d223191-r164022946-Extended_Stay_America_Houston_Sugar_Land-Sugar_Land_Texas.html</t>
+  </si>
+  <si>
+    <t>164022946</t>
+  </si>
+  <si>
+    <t>06/14/2013</t>
+  </si>
+  <si>
+    <t>The mayor of Sugar Land should be taken aback with this one....</t>
+  </si>
+  <si>
+    <t>After a long ride from Bush Airport, we arrived at this hotel earlier than check-in. The manager on duty seemed to have a problem with anyone who booked the hotel thru Priceline super saver...... Insisted that there was no early check-in and that we obviously were not looking for quality so Priceline booked us into a third floor smoking studio room that has trains chugging by nightly.. Never were offered an opportunity to upgrade .... after some extreme cleaning by ourselves we used the room the way they wanted us to- a stop-off.... The rest of the staff was pretty cordial... no maid service since we didn't stay a week....property was out of the way and you needed a car..... Not the best kept place in the world and they seem to cater to large contracts they have with offshore oil companies....... Believe me, there are plenty of Extended Stays in the Houston area....avoid this one........MoreShow less</t>
+  </si>
+  <si>
+    <t>May 2013</t>
+  </si>
+  <si>
+    <t>After a long ride from Bush Airport, we arrived at this hotel earlier than check-in. The manager on duty seemed to have a problem with anyone who booked the hotel thru Priceline super saver...... Insisted that there was no early check-in and that we obviously were not looking for quality so Priceline booked us into a third floor smoking studio room that has trains chugging by nightly.. Never were offered an opportunity to upgrade .... after some extreme cleaning by ourselves we used the room the way they wanted us to- a stop-off.... The rest of the staff was pretty cordial... no maid service since we didn't stay a week....property was out of the way and you needed a car..... Not the best kept place in the world and they seem to cater to large contracts they have with offshore oil companies....... Believe me, there are plenty of Extended Stays in the Houston area....avoid this one........More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56723-d223191-r161329356-Extended_Stay_America_Houston_Sugar_Land-Sugar_Land_Texas.html</t>
+  </si>
+  <si>
+    <t>161329356</t>
+  </si>
+  <si>
+    <t>05/20/2013</t>
+  </si>
+  <si>
+    <t>Bad rooms, bad staff</t>
+  </si>
+  <si>
+    <t>I stayed at the hotel over the weekend and couldn't get someone at the front desk to save my life. There is a black man with a shaved head that works over night that was helpful and got me the towels and amenities I needed and Debra did a fantastic job. She provided good customer service, was attentive, and got us everything we needed. Other than her, me and my sisters had to spend quite some time waiting for someone to show up at the front desk. We called the front desk from our rooms countless times and got no answer so we had to walk to the lobby and wait. My sister needed towels and after some time of waiting a man with long red hair appeared and was reluctant to help her...Very poor customer service minus those mentioned above and the rooms were in poor condition.I pulled out the pull out sofa bed and a blanket and fitted sheet were bundled up in the middle of the mattress and had long hairs stuck on them.MoreShow less</t>
+  </si>
+  <si>
+    <t>Manager_11525, General Manager at Extended Stay America - Houston - Sugar Land, responded to this reviewResponded June 5, 2013</t>
+  </si>
+  <si>
+    <t>Responded June 5, 2013</t>
+  </si>
+  <si>
+    <t>I stayed at the hotel over the weekend and couldn't get someone at the front desk to save my life. There is a black man with a shaved head that works over night that was helpful and got me the towels and amenities I needed and Debra did a fantastic job. She provided good customer service, was attentive, and got us everything we needed. Other than her, me and my sisters had to spend quite some time waiting for someone to show up at the front desk. We called the front desk from our rooms countless times and got no answer so we had to walk to the lobby and wait. My sister needed towels and after some time of waiting a man with long red hair appeared and was reluctant to help her...Very poor customer service minus those mentioned above and the rooms were in poor condition.I pulled out the pull out sofa bed and a blanket and fitted sheet were bundled up in the middle of the mattress and had long hairs stuck on them.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56723-d223191-r160476262-Extended_Stay_America_Houston_Sugar_Land-Sugar_Land_Texas.html</t>
+  </si>
+  <si>
+    <t>160476262</t>
+  </si>
+  <si>
+    <t>05/12/2013</t>
+  </si>
+  <si>
+    <t>Good for the price!</t>
+  </si>
+  <si>
+    <t>Good place to stay, easy to find. You will need a car to get around as it is not walking friendly. Staffs are kind and friendly! I found some small roaches, but you can expect that for such a place!Staffs we helpful and cleaned my room when I asked them to!MoreShow less</t>
+  </si>
+  <si>
+    <t>Manager_11525, General Manager at Extended Stay America - Houston - Sugar Land, responded to this reviewResponded June 19, 2013</t>
+  </si>
+  <si>
+    <t>Responded June 19, 2013</t>
+  </si>
+  <si>
+    <t>Good place to stay, easy to find. You will need a car to get around as it is not walking friendly. Staffs are kind and friendly! I found some small roaches, but you can expect that for such a place!Staffs we helpful and cleaned my room when I asked them to!More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56723-d223191-r157139667-Extended_Stay_America_Houston_Sugar_Land-Sugar_Land_Texas.html</t>
+  </si>
+  <si>
+    <t>157139667</t>
+  </si>
+  <si>
+    <t>04/08/2013</t>
+  </si>
+  <si>
+    <t>Disgusting... Not what you see on booking websites - Pictures</t>
+  </si>
+  <si>
+    <t>We got here on 03/15/2013 and at first they said they did not have. Booking for us and did not have rooms for us. We booked through Priceline and feel this was over rated by Priceline. They finally got us a roomed that smelt like curry and smoke and had dried up spaghetti and spaghetti sauce on the carpet and walls. The cabinets are badly finished. Bath tub walls was painted with loose hair trapped under the paint. We went down and asked for a change of room and were told they were fully booked and had only smoking rooms left. We ended up in one and found mod in the Air conditioning unit and under the carpet that was peeling off the walls around the ac. I took pictures of bothe rooms for proof and will load them as soon as I can. Breakfast was horrible....We have stayed at places less expensive than we paid for this place and had a decent clean room.If I could give them a zero Inwould.MoreShow less</t>
+  </si>
+  <si>
+    <t>March 2013</t>
+  </si>
+  <si>
+    <t>Saints01Houston, Manager at Extended Stay America - Houston - Sugar Land, responded to this reviewResponded April 10, 2013</t>
+  </si>
+  <si>
+    <t>Responded April 10, 2013</t>
+  </si>
+  <si>
+    <t>We got here on 03/15/2013 and at first they said they did not have. Booking for us and did not have rooms for us. We booked through Priceline and feel this was over rated by Priceline. They finally got us a roomed that smelt like curry and smoke and had dried up spaghetti and spaghetti sauce on the carpet and walls. The cabinets are badly finished. Bath tub walls was painted with loose hair trapped under the paint. We went down and asked for a change of room and were told they were fully booked and had only smoking rooms left. We ended up in one and found mod in the Air conditioning unit and under the carpet that was peeling off the walls around the ac. I took pictures of bothe rooms for proof and will load them as soon as I can. Breakfast was horrible....We have stayed at places less expensive than we paid for this place and had a decent clean room.If I could give them a zero Inwould.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56723-d223191-r155679277-Extended_Stay_America_Houston_Sugar_Land-Sugar_Land_Texas.html</t>
+  </si>
+  <si>
+    <t>155679277</t>
+  </si>
+  <si>
+    <t>03/26/2013</t>
+  </si>
+  <si>
+    <t>Nice staff but not so clean rooms</t>
+  </si>
+  <si>
+    <t>After reading the reviews I really really really wanted to like this place.  I still do.  But it was just too dirty.  Housekeeping needs to do a better job.  Pluses are big flat screen, well lit both inside and outside, reasonable prices, new blankets and pillows, plenty of towels (I had 4 sets as a solo traveler), really nice lady at front desk, good AC,  no bed bugs (mattress looked new and was wrapped in some white cloth material), big fridge, customers looked normal (not like pimps or prostitutes) and they gave me a free bag of popcorn at checking. The cons are my room smelled heavily of cat musk (like a cat had sprayed its territory), the floor was soooo sticky and dirty on both the tile and carpet (usually I can't wait to kick off my shoes but here I couldn't wait to put them back on; the bath towel wouldn't even move after I put it on the ground it was so sticky), utensils were still wet, coffee pot had not been washed, black grease marks on light switches, kitchen sink would only drain very very slow and had trash in it, curtain was worn, and sheets were dirty in places.MoreShow less</t>
+  </si>
+  <si>
+    <t>Saints01Houston, Manager at Extended Stay America - Houston - Sugar Land, responded to this reviewResponded March 27, 2013</t>
+  </si>
+  <si>
+    <t>Responded March 27, 2013</t>
+  </si>
+  <si>
+    <t>After reading the reviews I really really really wanted to like this place.  I still do.  But it was just too dirty.  Housekeeping needs to do a better job.  Pluses are big flat screen, well lit both inside and outside, reasonable prices, new blankets and pillows, plenty of towels (I had 4 sets as a solo traveler), really nice lady at front desk, good AC,  no bed bugs (mattress looked new and was wrapped in some white cloth material), big fridge, customers looked normal (not like pimps or prostitutes) and they gave me a free bag of popcorn at checking. The cons are my room smelled heavily of cat musk (like a cat had sprayed its territory), the floor was soooo sticky and dirty on both the tile and carpet (usually I can't wait to kick off my shoes but here I couldn't wait to put them back on; the bath towel wouldn't even move after I put it on the ground it was so sticky), utensils were still wet, coffee pot had not been washed, black grease marks on light switches, kitchen sink would only drain very very slow and had trash in it, curtain was worn, and sheets were dirty in places.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56723-d223191-r155647842-Extended_Stay_America_Houston_Sugar_Land-Sugar_Land_Texas.html</t>
+  </si>
+  <si>
+    <t>155647842</t>
+  </si>
+  <si>
+    <t>03/25/2013</t>
+  </si>
+  <si>
+    <t>Great place to stay- close to all</t>
+  </si>
+  <si>
+    <t>I stayed here for a week and two days, it was very pleasant and close to movie theater, restaurants, and most important nightlife. The staff was very nice and helpful ( Debra) with directions. I would highly recommend this hotel to anyone staying in Sugar-land TX.PS if you get lucky to meet Debra upfront, tell her Matt said hi!MoreShow less</t>
+  </si>
+  <si>
+    <t>Saints01Houston, Manager at Extended Stay America - Houston - Sugar Land, responded to this reviewResponded March 26, 2013</t>
+  </si>
+  <si>
+    <t>Responded March 26, 2013</t>
+  </si>
+  <si>
+    <t>I stayed here for a week and two days, it was very pleasant and close to movie theater, restaurants, and most important nightlife. The staff was very nice and helpful ( Debra) with directions. I would highly recommend this hotel to anyone staying in Sugar-land TX.PS if you get lucky to meet Debra upfront, tell her Matt said hi!More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56723-d223191-r152546485-Extended_Stay_America_Houston_Sugar_Land-Sugar_Land_Texas.html</t>
+  </si>
+  <si>
+    <t>152546485</t>
+  </si>
+  <si>
+    <t>02/19/2013</t>
+  </si>
+  <si>
+    <t>Love love love this place!!!!</t>
+  </si>
+  <si>
+    <t>I have stayed at multiple extended stays before and this one is by far the best! The staff here is amazing and you can tell they really do care about making the stay as good as possible. Monique at the front desk is the most amazing and sweet woman!! MoreShow less</t>
+  </si>
+  <si>
+    <t>Saints01Houston, Manager at Extended Stay America - Houston - Sugar Land, responded to this reviewResponded February 20, 2013</t>
+  </si>
+  <si>
+    <t>Responded February 20, 2013</t>
+  </si>
+  <si>
+    <t>I have stayed at multiple extended stays before and this one is by far the best! The staff here is amazing and you can tell they really do care about making the stay as good as possible. Monique at the front desk is the most amazing and sweet woman!! More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56723-d223191-r152227553-Extended_Stay_America_Houston_Sugar_Land-Sugar_Land_Texas.html</t>
+  </si>
+  <si>
+    <t>152227553</t>
+  </si>
+  <si>
+    <t>02/15/2013</t>
+  </si>
+  <si>
+    <t>Great place to stay! Excellent staff!</t>
+  </si>
+  <si>
+    <t>I love staying here. The prices are great. The rooms are huge and the staff is so friendly! I highly recommend this hotel for any extended stays. I am a regular customer. Flat screen TVs. Refrigerator and stove. Couch! Pool! For amazing price! MoreShow less</t>
+  </si>
+  <si>
+    <t>Saints01Houston, Manager at Extended Stay America - Houston - Sugar Land, responded to this reviewResponded February 18, 2013</t>
+  </si>
+  <si>
+    <t>Responded February 18, 2013</t>
+  </si>
+  <si>
+    <t>I love staying here. The prices are great. The rooms are huge and the staff is so friendly! I highly recommend this hotel for any extended stays. I am a regular customer. Flat screen TVs. Refrigerator and stove. Couch! Pool! For amazing price! More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56723-d223191-r152186758-Extended_Stay_America_Houston_Sugar_Land-Sugar_Land_Texas.html</t>
+  </si>
+  <si>
+    <t>152186758</t>
+  </si>
+  <si>
+    <t>excellent stay</t>
+  </si>
+  <si>
+    <t>I came for business to stay for a month at extended stay. The staff is very friendly and helpful.Thank you Nick and Monique for all of your help.The rooms are spacious and clean. You are not far from dining or shopping. I would recommend this place to anyone.MoreShow less</t>
+  </si>
+  <si>
+    <t>February 2013</t>
+  </si>
+  <si>
+    <t>I came for business to stay for a month at extended stay. The staff is very friendly and helpful.Thank you Nick and Monique for all of your help.The rooms are spacious and clean. You are not far from dining or shopping. I would recommend this place to anyone.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56723-d223191-r150299711-Extended_Stay_America_Houston_Sugar_Land-Sugar_Land_Texas.html</t>
+  </si>
+  <si>
+    <t>150299711</t>
+  </si>
+  <si>
+    <t>01/22/2013</t>
+  </si>
+  <si>
+    <t>Excellent stay</t>
+  </si>
+  <si>
+    <t>I've been here for a few months as I relocated from Dallas and I have to say I've had a great experience. The staff is very helpful and very nice. Monique and Nick are very helpful and just great. The location is perfect also as it's not too far from restaurants and shopping areas.MoreShow less</t>
+  </si>
+  <si>
+    <t>September 2012</t>
+  </si>
+  <si>
+    <t>Saints01Houston, Manager at Extended Stay America - Houston - Sugar Land, responded to this reviewResponded January 23, 2013</t>
+  </si>
+  <si>
+    <t>Responded January 23, 2013</t>
+  </si>
+  <si>
+    <t>I've been here for a few months as I relocated from Dallas and I have to say I've had a great experience. The staff is very helpful and very nice. Monique and Nick are very helpful and just great. The location is perfect also as it's not too far from restaurants and shopping areas.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56723-d223191-r150122789-Extended_Stay_America_Houston_Sugar_Land-Sugar_Land_Texas.html</t>
+  </si>
+  <si>
+    <t>150122789</t>
+  </si>
+  <si>
+    <t>01/20/2013</t>
+  </si>
+  <si>
+    <t>Extended stay</t>
+  </si>
+  <si>
+    <t>I was at this location for an extended period and Monique was extremely helpful in my stay. She was very helpful and professional when she helped me with whatever I needed.I will recommend this hotel to all my friends and Family. Thank You Monique.MoreShow less</t>
+  </si>
+  <si>
+    <t>January 2013</t>
+  </si>
+  <si>
+    <t>Saints01Houston, Manager at Extended Stay America - Houston - Sugar Land, responded to this reviewResponded January 22, 2013</t>
+  </si>
+  <si>
+    <t>Responded January 22, 2013</t>
+  </si>
+  <si>
+    <t>I was at this location for an extended period and Monique was extremely helpful in my stay. She was very helpful and professional when she helped me with whatever I needed.I will recommend this hotel to all my friends and Family. Thank You Monique.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56723-d223191-r149587671-Extended_Stay_America_Houston_Sugar_Land-Sugar_Land_Texas.html</t>
+  </si>
+  <si>
+    <t>149587671</t>
+  </si>
+  <si>
+    <t>01/13/2013</t>
+  </si>
+  <si>
+    <t>Excellant Value</t>
+  </si>
+  <si>
+    <t>Enjoyed my stay here. Originally scheduled for one week stay, actually stayed for three weeks.Large rooms enjoyed cooking breakfast lunch and dinner. Very friendly day/night staff. Very great business trip!MoreShow less</t>
+  </si>
+  <si>
+    <t>Saints01Houston, Manager at Extended Stay America - Houston - Sugar Land, responded to this reviewResponded January 14, 2013</t>
+  </si>
+  <si>
+    <t>Responded January 14, 2013</t>
+  </si>
+  <si>
+    <t>Enjoyed my stay here. Originally scheduled for one week stay, actually stayed for three weeks.Large rooms enjoyed cooking breakfast lunch and dinner. Very friendly day/night staff. Very great business trip!More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56723-d223191-r147322274-Extended_Stay_America_Houston_Sugar_Land-Sugar_Land_Texas.html</t>
+  </si>
+  <si>
+    <t>147322274</t>
+  </si>
+  <si>
+    <t>12/12/2012</t>
+  </si>
+  <si>
+    <t>great service</t>
+  </si>
+  <si>
+    <t>Great location, friendly staff, CLEAN!! There is not a high turnover which speaks in volumes. The location is big and roomy. Having breakfast in the morning is exceptional. There is an on hand cab which the driver is very friendly. The manager and desk manager are very professional. I would highly recommend this hotel to the public.MoreShow less</t>
+  </si>
+  <si>
+    <t>December 2012</t>
+  </si>
+  <si>
+    <t>Saints01Houston, Manager at Extended Stay America - Houston - Sugar Land, responded to this reviewResponded December 14, 2012</t>
+  </si>
+  <si>
+    <t>Responded December 14, 2012</t>
+  </si>
+  <si>
+    <t>Great location, friendly staff, CLEAN!! There is not a high turnover which speaks in volumes. The location is big and roomy. Having breakfast in the morning is exceptional. There is an on hand cab which the driver is very friendly. The manager and desk manager are very professional. I would highly recommend this hotel to the public.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56723-d223191-r146915925-Extended_Stay_America_Houston_Sugar_Land-Sugar_Land_Texas.html</t>
+  </si>
+  <si>
+    <t>146915925</t>
+  </si>
+  <si>
+    <t>12/06/2012</t>
+  </si>
+  <si>
+    <t>Quality service!</t>
+  </si>
+  <si>
+    <t>Had school made reservations for me to stay here for 3 weeks.  When I approached the front desk, I was greeted by Ms. Monique and Nick.  She acknowldeged me by my first name and my room was ready.  If I had a problem with my room or service, the staff was on top of it to correct the situation My room was clean and cozy.  The bed was comfortable and I did not have any problems with neighbors or hallway noise.  Also the quarters where breakfast is served was always clean and there was never a crowd.  This hotel is right off the freeway so you have a less than 5 minute trip to Sugarland if you need to go to the mall, have a nice dinner at a restaurant or a quick bite to eat.   .  Overall I enjoyed my home away from home.MoreShow less</t>
+  </si>
+  <si>
+    <t>November 2012</t>
+  </si>
+  <si>
+    <t>Saints01Houston, Manager at Extended Stay America - Houston - Sugar Land, responded to this reviewResponded December 8, 2012</t>
+  </si>
+  <si>
+    <t>Responded December 8, 2012</t>
+  </si>
+  <si>
+    <t>Had school made reservations for me to stay here for 3 weeks.  When I approached the front desk, I was greeted by Ms. Monique and Nick.  She acknowldeged me by my first name and my room was ready.  If I had a problem with my room or service, the staff was on top of it to correct the situation My room was clean and cozy.  The bed was comfortable and I did not have any problems with neighbors or hallway noise.  Also the quarters where breakfast is served was always clean and there was never a crowd.  This hotel is right off the freeway so you have a less than 5 minute trip to Sugarland if you need to go to the mall, have a nice dinner at a restaurant or a quick bite to eat.   .  Overall I enjoyed my home away from home.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56723-d223191-r146244043-Extended_Stay_America_Houston_Sugar_Land-Sugar_Land_Texas.html</t>
+  </si>
+  <si>
+    <t>146244043</t>
+  </si>
+  <si>
+    <t>11/26/2012</t>
+  </si>
+  <si>
+    <t>"Home while Waiting on Home"</t>
+  </si>
+  <si>
+    <t>We really have enjoyed our stay in Sugarland. When your in this type of atmosphere(smaller Quarters),it can get a little difficult when staying for an extra length of time. However , the staff, Especially Nick &amp; Monique, have been a real pleasure!. The breakfast is always fresh, and the coffee is much better than what i get @ work, Lol.!. I definately recommend this as Your place to stay in Sugarland!!. MarkMoreShow less</t>
+  </si>
+  <si>
+    <t>Saints01Houston, Manager at Extended Stay America - Houston - Sugar Land, responded to this reviewResponded November 27, 2012</t>
+  </si>
+  <si>
+    <t>Responded November 27, 2012</t>
+  </si>
+  <si>
+    <t>We really have enjoyed our stay in Sugarland. When your in this type of atmosphere(smaller Quarters),it can get a little difficult when staying for an extra length of time. However , the staff, Especially Nick &amp; Monique, have been a real pleasure!. The breakfast is always fresh, and the coffee is much better than what i get @ work, Lol.!. I definately recommend this as Your place to stay in Sugarland!!. MarkMore</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56723-d223191-r142481979-Extended_Stay_America_Houston_Sugar_Land-Sugar_Land_Texas.html</t>
+  </si>
+  <si>
+    <t>142481979</t>
+  </si>
+  <si>
+    <t>10/10/2012</t>
+  </si>
+  <si>
+    <t>Warm, friendly, clean - great stay</t>
+  </si>
+  <si>
+    <t>Great stay with my family....parents, wife and infant..the hotel staff is amazing, very friendly and accommodated to all of our requests ....Monique, you have been great. Thank you and next time we are back in Houston, this is where we stayMoreShow less</t>
+  </si>
+  <si>
+    <t>October 2012</t>
+  </si>
+  <si>
+    <t>Saints01Houston, Manager at Extended Stay America - Houston - Sugar Land, responded to this reviewResponded October 11, 2012</t>
+  </si>
+  <si>
+    <t>Responded October 11, 2012</t>
+  </si>
+  <si>
+    <t>Great stay with my family....parents, wife and infant..the hotel staff is amazing, very friendly and accommodated to all of our requests ....Monique, you have been great. Thank you and next time we are back in Houston, this is where we stayMore</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56723-d223191-r142471544-Extended_Stay_America_Houston_Sugar_Land-Sugar_Land_Texas.html</t>
+  </si>
+  <si>
+    <t>142471544</t>
+  </si>
+  <si>
+    <t>Staff is great! Clean rooms. Been here over two months and never has any issues. Love it here.</t>
+  </si>
+  <si>
+    <t>Me and my husband with 5 children moved from maryland to Houston. We found this hotel and love it. Kid friendly. Clean rooms, the staff always have big smiles on their face. Do anything that would make a better stay! Housekeeping staff are great! We love it here! LIKE HOME.MoreShow less</t>
+  </si>
+  <si>
+    <t>Me and my husband with 5 children moved from maryland to Houston. We found this hotel and love it. Kid friendly. Clean rooms, the staff always have big smiles on their face. Do anything that would make a better stay! Housekeeping staff are great! We love it here! LIKE HOME.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56723-d223191-r141369102-Extended_Stay_America_Houston_Sugar_Land-Sugar_Land_Texas.html</t>
+  </si>
+  <si>
+    <t>141369102</t>
+  </si>
+  <si>
+    <t>09/26/2012</t>
+  </si>
+  <si>
+    <t>The Way Hotels Should Be!</t>
+  </si>
+  <si>
+    <t>I came in on a business trip for just an overnight stay and ended up staying an extra day because I felt quite at home here and there was no reason to change locations. From the front desk people to the management, I was treated with respect and care. The room was setup nicely and very clean. Everyone here made the stay great! I recommend this place not only for the prime location to everything in SW Houston - Sugarland area, but for the outstanding service this facility provides. Thanks again! - BenMoreShow less</t>
+  </si>
+  <si>
+    <t>Manager_11525, General Manager at Extended Stay America - Houston - Sugar Land, responded to this reviewResponded September 27, 2012</t>
+  </si>
+  <si>
+    <t>Responded September 27, 2012</t>
+  </si>
+  <si>
+    <t>I came in on a business trip for just an overnight stay and ended up staying an extra day because I felt quite at home here and there was no reason to change locations. From the front desk people to the management, I was treated with respect and care. The room was setup nicely and very clean. Everyone here made the stay great! I recommend this place not only for the prime location to everything in SW Houston - Sugarland area, but for the outstanding service this facility provides. Thanks again! - BenMore</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56723-d223191-r139693301-Extended_Stay_America_Houston_Sugar_Land-Sugar_Land_Texas.html</t>
+  </si>
+  <si>
+    <t>139693301</t>
+  </si>
+  <si>
+    <t>09/07/2012</t>
+  </si>
+  <si>
+    <t>Great hotel and friendly staff</t>
+  </si>
+  <si>
+    <t>I spend a lot of time at Extended stay in 2011-12 during my visits to Sugarland, Texas. It is one of the best economical choice in the area. So well located close to 59 SW &amp; 90A highways. Worth to mention the friendly staff Monique and others offering the best suport at any time.MoreShow less</t>
+  </si>
+  <si>
+    <t>August 2012</t>
+  </si>
+  <si>
+    <t>Manager_11525, General Manager at Extended Stay America - Houston - Sugar Land, responded to this reviewResponded September 10, 2012</t>
+  </si>
+  <si>
+    <t>Responded September 10, 2012</t>
+  </si>
+  <si>
+    <t>I spend a lot of time at Extended stay in 2011-12 during my visits to Sugarland, Texas. It is one of the best economical choice in the area. So well located close to 59 SW &amp; 90A highways. Worth to mention the friendly staff Monique and others offering the best suport at any time.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56723-d223191-r136514958-Extended_Stay_America_Houston_Sugar_Land-Sugar_Land_Texas.html</t>
+  </si>
+  <si>
+    <t>136514958</t>
+  </si>
+  <si>
+    <t>08/07/2012</t>
+  </si>
+  <si>
+    <t>Spacious suite</t>
+  </si>
+  <si>
+    <t>Very nice and friendly staff. They made sure my stay was enjoyable. Full size fridge was great.  It made me want to cook and use the stove top.  It saved me money. They have a map of local restaurants if you don't feel like cooking.MoreShow less</t>
+  </si>
+  <si>
+    <t>Manager_11525, General Manager at Extended Stay America - Houston - Sugar Land, responded to this reviewResponded August 8, 2012</t>
+  </si>
+  <si>
+    <t>Responded August 8, 2012</t>
+  </si>
+  <si>
+    <t>Very nice and friendly staff. They made sure my stay was enjoyable. Full size fridge was great.  It made me want to cook and use the stove top.  It saved me money. They have a map of local restaurants if you don't feel like cooking.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56723-d223191-r134949247-Extended_Stay_America_Houston_Sugar_Land-Sugar_Land_Texas.html</t>
+  </si>
+  <si>
+    <t>134949247</t>
+  </si>
+  <si>
+    <t>07/20/2012</t>
+  </si>
+  <si>
+    <t>Great Stay and Great Hospitality!!!!!!!</t>
+  </si>
+  <si>
+    <t>Extended Stay is 20 minutes from downtown, minutes away from shopping and moments from serving you. My family and I have stayed here several times and always enjoy the treatment.  Nick and Monique are excellent at insuring you great hospitality and a great night's stay. continental breakfast, fitness room and swimming pool are just a few amenities available. A swift response to any issues with your service keeps travelers satisfied. Do yourself a favor and take advantage of a great night's stay at a great price!MoreShow less</t>
+  </si>
+  <si>
+    <t>July 2012</t>
+  </si>
+  <si>
+    <t>Manager_11525, General Manager at Extended Stay America - Houston - Sugar Land, responded to this reviewResponded August 6, 2012</t>
+  </si>
+  <si>
+    <t>Responded August 6, 2012</t>
+  </si>
+  <si>
+    <t>Extended Stay is 20 minutes from downtown, minutes away from shopping and moments from serving you. My family and I have stayed here several times and always enjoy the treatment.  Nick and Monique are excellent at insuring you great hospitality and a great night's stay. continental breakfast, fitness room and swimming pool are just a few amenities available. A swift response to any issues with your service keeps travelers satisfied. Do yourself a favor and take advantage of a great night's stay at a great price!More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56723-d223191-r134318056-Extended_Stay_America_Houston_Sugar_Land-Sugar_Land_Texas.html</t>
+  </si>
+  <si>
+    <t>134318056</t>
+  </si>
+  <si>
+    <t>07/13/2012</t>
+  </si>
+  <si>
+    <t>One the best hotel</t>
+  </si>
+  <si>
+    <t>I recommend this hotel as one of best hotels in sugar land to stay in. It is very clean and have good location ,Nice employee treatment .MoreShow less</t>
+  </si>
+  <si>
+    <t>ChristopherTM, Manager at Extended Stay America - Houston - Sugar Land, responded to this reviewResponded July 18, 2012</t>
+  </si>
+  <si>
+    <t>Responded July 18, 2012</t>
+  </si>
+  <si>
+    <t>I recommend this hotel as one of best hotels in sugar land to stay in. It is very clean and have good location ,Nice employee treatment .More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56723-d223191-r133262620-Extended_Stay_America_Houston_Sugar_Land-Sugar_Land_Texas.html</t>
+  </si>
+  <si>
+    <t>133262620</t>
+  </si>
+  <si>
+    <t>07/02/2012</t>
+  </si>
+  <si>
+    <t>THIS HOTEL HAS BED BUGS!!!!!!!!!!!!!!!!!!!!!!!!!!!!!!!!!!!!!!!</t>
+  </si>
+  <si>
+    <t>We were booked in this hotel as a group. 2 of the 5 rooms had BED BUGS! (CONFIRMED WITH TRIPS TO THE E.R.!) We all relocated! PLEASE BE AWARE!!! Both family members had numerous bites that became quarter sized sores filled with a liquid that continuously "weep" until both were given shots in BOTH hips and antibiotics that they had to take for 10 days... RUINED our vacay!MoreShow less</t>
+  </si>
+  <si>
+    <t>Management response:Responded July 12, 2012</t>
+  </si>
+  <si>
+    <t>Responded July 12, 2012</t>
+  </si>
+  <si>
+    <t>We were booked in this hotel as a group. 2 of the 5 rooms had BED BUGS! (CONFIRMED WITH TRIPS TO THE E.R.!) We all relocated! PLEASE BE AWARE!!! Both family members had numerous bites that became quarter sized sores filled with a liquid that continuously "weep" until both were given shots in BOTH hips and antibiotics that they had to take for 10 days... RUINED our vacay!More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56723-d223191-r133041346-Extended_Stay_America_Houston_Sugar_Land-Sugar_Land_Texas.html</t>
+  </si>
+  <si>
+    <t>133041346</t>
+  </si>
+  <si>
+    <t>06/29/2012</t>
+  </si>
+  <si>
+    <t>Mr. &amp; Mrs. Arnold Smith</t>
+  </si>
+  <si>
+    <t>My husband and I have been here at Extended Stay Deluxe in Sugar Land for some time now. Monique and Nicolas are like family too me. They make sure any time I come too them for service, I get it . Velvet, Dylan, and Berta are the BEST and I'm working on Joshua with his smile. We are very pleased with our stay. This is home away from home and I will let everyone know about this location. Ray we would like to see more TV channels please. My hat goes off to your staff in Sugar Land.MoreShow less</t>
+  </si>
+  <si>
+    <t>November 2011</t>
+  </si>
+  <si>
+    <t>My husband and I have been here at Extended Stay Deluxe in Sugar Land for some time now. Monique and Nicolas are like family too me. They make sure any time I come too them for service, I get it . Velvet, Dylan, and Berta are the BEST and I'm working on Joshua with his smile. We are very pleased with our stay. This is home away from home and I will let everyone know about this location. Ray we would like to see more TV channels please. My hat goes off to your staff in Sugar Land.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56723-d223191-r129209283-Extended_Stay_America_Houston_Sugar_Land-Sugar_Land_Texas.html</t>
+  </si>
+  <si>
+    <t>129209283</t>
+  </si>
+  <si>
+    <t>05/01/2012</t>
+  </si>
+  <si>
+    <t>Monique makes your stay a pleasant one</t>
+  </si>
+  <si>
+    <t>I stay at the extended stay deluxe in sugar land almost every week.  Monique checks me in and makes sure that everything in my room is excellent.  She can be counted on for small favors like letting me put my things in the room early or saving me a room near the front of the hotel. She truley makes my visits to sugar land a pleasant experience.MoreShow less</t>
+  </si>
+  <si>
+    <t>April 2012</t>
+  </si>
+  <si>
+    <t>I stay at the extended stay deluxe in sugar land almost every week.  Monique checks me in and makes sure that everything in my room is excellent.  She can be counted on for small favors like letting me put my things in the room early or saving me a room near the front of the hotel. She truley makes my visits to sugar land a pleasant experience.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56723-d223191-r125618138-Extended_Stay_America_Houston_Sugar_Land-Sugar_Land_Texas.html</t>
+  </si>
+  <si>
+    <t>125618138</t>
+  </si>
+  <si>
+    <t>03/04/2012</t>
+  </si>
+  <si>
+    <t>It was a great week stay</t>
+  </si>
+  <si>
+    <t>For a great price my family stayed in a two bedroom suit.  The staff at the hotel was fabulous.  Every time we had a question, they were quick to help with a great attitude.  Even with a room next to a freeway there was no sound issues whatsoever.  The work out room was clean and easy to access, but could have been better equipped.  The kitchen was well stocked with pots, pans, etc.  The bedrooms had spacious closets and there were two TVs. A few issues, the printer often had technical difficulties and the breakfast was only okay (not much variety).  Also, there were plenty of washers and driers available.  I recommend this hotel for extended stays in Houston.MoreShow less</t>
+  </si>
+  <si>
+    <t>February 2012</t>
+  </si>
+  <si>
+    <t>ChristopherTM, Manager at Extended Stay America - Houston - Sugar Land, responded to this reviewResponded March 18, 2012</t>
+  </si>
+  <si>
+    <t>Responded March 18, 2012</t>
+  </si>
+  <si>
+    <t>For a great price my family stayed in a two bedroom suit.  The staff at the hotel was fabulous.  Every time we had a question, they were quick to help with a great attitude.  Even with a room next to a freeway there was no sound issues whatsoever.  The work out room was clean and easy to access, but could have been better equipped.  The kitchen was well stocked with pots, pans, etc.  The bedrooms had spacious closets and there were two TVs. A few issues, the printer often had technical difficulties and the breakfast was only okay (not much variety).  Also, there were plenty of washers and driers available.  I recommend this hotel for extended stays in Houston.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56723-d223191-r116830768-Extended_Stay_America_Houston_Sugar_Land-Sugar_Land_Texas.html</t>
+  </si>
+  <si>
+    <t>116830768</t>
+  </si>
+  <si>
+    <t>08/16/2011</t>
+  </si>
+  <si>
+    <t>Don't waste your money.</t>
+  </si>
+  <si>
+    <t>If you decide to go, make sure you look at the room CAREFULLY before renting it. The front desk staff were wonderful and seemed to know the housekeeping problems, but couldn't do much about it. The first room I got seemed OK until I went to take a shower and the last persons soap and hair was all over. The second room (which I made sure I got clean sheets and put them on myself) had blood (I think) on the pillowcases, headboard and wall, it hadn't been dusted in months and under the cushion of the (one) chair I found enough food to make a meal. GROSS! I have stayed at several of these extended stays which were very pleasant, but this one was the worst.MoreShow less</t>
+  </si>
+  <si>
+    <t>June 2011</t>
+  </si>
+  <si>
+    <t>If you decide to go, make sure you look at the room CAREFULLY before renting it. The front desk staff were wonderful and seemed to know the housekeeping problems, but couldn't do much about it. The first room I got seemed OK until I went to take a shower and the last persons soap and hair was all over. The second room (which I made sure I got clean sheets and put them on myself) had blood (I think) on the pillowcases, headboard and wall, it hadn't been dusted in months and under the cushion of the (one) chair I found enough food to make a meal. GROSS! I have stayed at several of these extended stays which were very pleasant, but this one was the worst.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56723-d223191-r1840799-Extended_Stay_America_Houston_Sugar_Land-Sugar_Land_Texas.html</t>
+  </si>
+  <si>
+    <t>1840799</t>
+  </si>
+  <si>
+    <t>04/26/2004</t>
+  </si>
+  <si>
+    <t>Drive by the Sugarland Heartside......</t>
+  </si>
+  <si>
+    <t>The Sugarland Hearthside has an economical price tag because you are getting the basics. There are no frills and provides you with a "roof over your head". I was not pleased with the team they had behind the counter. I booked my rooms online and they were very disorganized in expediting us to our rooms. The following morning we were harrassed by the clerk saying the rooms had not been paid. I showed him the online bill where my credit card was charged, and he gave it back to me without a "Thanks for staying!" comment. They were young and immature "kids" working behind the counter, and I will never stay at this Hearthside ever again.MoreShow less</t>
+  </si>
+  <si>
+    <t>The Sugarland Hearthside has an economical price tag because you are getting the basics. There are no frills and provides you with a "roof over your head". I was not pleased with the team they had behind the counter. I booked my rooms online and they were very disorganized in expediting us to our rooms. The following morning we were harrassed by the clerk saying the rooms had not been paid. I showed him the online bill where my credit card was charged, and he gave it back to me without a "Thanks for staying!" comment. They were young and immature "kids" working behind the counter, and I will never stay at this Hearthside ever again.More</t>
   </si>
 </sst>
 </file>
@@ -532,11 +2549,17 @@
       <c r="F2" t="s">
         <v>14</v>
       </c>
-      <c r="G2" t="s"/>
-      <c r="H2" t="s"/>
-      <c r="I2" t="s"/>
+      <c r="G2" t="s">
+        <v>15</v>
+      </c>
+      <c r="H2" t="s">
+        <v>16</v>
+      </c>
+      <c r="I2" t="s">
+        <v>15</v>
+      </c>
       <c r="J2" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
     </row>
   </sheetData>
@@ -558,79 +2581,5557 @@
   <sheetData>
     <row r="1">
       <c r="A1" t="s">
+        <v>18</v>
+      </c>
+      <c r="B1" t="s">
+        <v>19</v>
+      </c>
+      <c r="C1" t="s">
+        <v>20</v>
+      </c>
+      <c r="D1" t="s">
+        <v>21</v>
+      </c>
+      <c r="E1" t="s">
+        <v>22</v>
+      </c>
+      <c r="F1" t="s">
+        <v>23</v>
+      </c>
+      <c r="G1" t="s">
+        <v>24</v>
+      </c>
+      <c r="H1" t="s">
+        <v>25</v>
+      </c>
+      <c r="I1" t="s">
+        <v>26</v>
+      </c>
+      <c r="J1" t="s">
+        <v>27</v>
+      </c>
+      <c r="K1" t="s">
+        <v>28</v>
+      </c>
+      <c r="L1" t="s">
+        <v>29</v>
+      </c>
+      <c r="M1" t="s">
+        <v>30</v>
+      </c>
+      <c r="N1" t="s">
+        <v>31</v>
+      </c>
+      <c r="O1" t="s">
+        <v>32</v>
+      </c>
+      <c r="P1" t="s">
+        <v>33</v>
+      </c>
+      <c r="Q1" t="s">
+        <v>34</v>
+      </c>
+      <c r="R1" t="s">
+        <v>35</v>
+      </c>
+      <c r="S1" t="s">
+        <v>36</v>
+      </c>
+      <c r="T1" t="s">
+        <v>37</v>
+      </c>
+      <c r="U1" t="s">
+        <v>38</v>
+      </c>
+      <c r="V1" t="s">
+        <v>39</v>
+      </c>
+      <c r="W1" t="s">
+        <v>40</v>
+      </c>
+      <c r="X1" t="s">
+        <v>41</v>
+      </c>
+      <c r="Y1" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" t="n">
+        <v>42102</v>
+      </c>
+      <c r="B2" t="s"/>
+      <c r="C2" t="s"/>
+      <c r="D2" t="n">
+        <v>1</v>
+      </c>
+      <c r="E2" t="s">
+        <v>43</v>
+      </c>
+      <c r="F2" t="s">
+        <v>44</v>
+      </c>
+      <c r="G2" t="s">
+        <v>45</v>
+      </c>
+      <c r="H2" t="s">
+        <v>46</v>
+      </c>
+      <c r="I2" t="s">
+        <v>47</v>
+      </c>
+      <c r="J2" t="s">
+        <v>48</v>
+      </c>
+      <c r="K2" t="s">
+        <v>49</v>
+      </c>
+      <c r="L2" t="s">
+        <v>50</v>
+      </c>
+      <c r="M2" t="n">
+        <v>5</v>
+      </c>
+      <c r="N2" t="s">
+        <v>51</v>
+      </c>
+      <c r="O2" t="s">
+        <v>52</v>
+      </c>
+      <c r="P2" t="s"/>
+      <c r="Q2" t="s"/>
+      <c r="R2" t="s"/>
+      <c r="S2" t="s"/>
+      <c r="T2" t="s"/>
+      <c r="U2" t="s"/>
+      <c r="V2" t="n">
+        <v>0</v>
+      </c>
+      <c r="W2" t="s"/>
+      <c r="X2" t="s"/>
+      <c r="Y2" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="n">
+        <v>42102</v>
+      </c>
+      <c r="B3" t="s"/>
+      <c r="C3" t="s"/>
+      <c r="D3" t="n">
+        <v>2</v>
+      </c>
+      <c r="E3" t="s">
+        <v>43</v>
+      </c>
+      <c r="F3" t="s">
+        <v>53</v>
+      </c>
+      <c r="G3" t="s">
+        <v>45</v>
+      </c>
+      <c r="H3" t="s">
+        <v>46</v>
+      </c>
+      <c r="I3" t="s">
+        <v>54</v>
+      </c>
+      <c r="J3" t="s">
+        <v>55</v>
+      </c>
+      <c r="K3" t="s">
+        <v>56</v>
+      </c>
+      <c r="L3" t="s">
+        <v>57</v>
+      </c>
+      <c r="M3" t="n">
+        <v>4</v>
+      </c>
+      <c r="N3" t="s">
+        <v>58</v>
+      </c>
+      <c r="O3" t="s">
+        <v>59</v>
+      </c>
+      <c r="P3" t="n">
+        <v>4</v>
+      </c>
+      <c r="Q3" t="s"/>
+      <c r="R3" t="s"/>
+      <c r="S3" t="n">
+        <v>4</v>
+      </c>
+      <c r="T3" t="s"/>
+      <c r="U3" t="n">
+        <v>4</v>
+      </c>
+      <c r="V3" t="n">
+        <v>0</v>
+      </c>
+      <c r="W3" t="s">
+        <v>60</v>
+      </c>
+      <c r="X3" t="s">
+        <v>61</v>
+      </c>
+      <c r="Y3" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="n">
+        <v>42102</v>
+      </c>
+      <c r="B4" t="s"/>
+      <c r="C4" t="s"/>
+      <c r="D4" t="n">
+        <v>3</v>
+      </c>
+      <c r="E4" t="s">
+        <v>43</v>
+      </c>
+      <c r="F4" t="s">
+        <v>63</v>
+      </c>
+      <c r="G4" t="s">
+        <v>45</v>
+      </c>
+      <c r="H4" t="s">
+        <v>46</v>
+      </c>
+      <c r="I4" t="s">
+        <v>64</v>
+      </c>
+      <c r="J4" t="s">
+        <v>65</v>
+      </c>
+      <c r="K4" t="s">
+        <v>66</v>
+      </c>
+      <c r="L4" t="s">
+        <v>67</v>
+      </c>
+      <c r="M4" t="n">
+        <v>5</v>
+      </c>
+      <c r="N4" t="s">
+        <v>68</v>
+      </c>
+      <c r="O4" t="s">
+        <v>69</v>
+      </c>
+      <c r="P4" t="s"/>
+      <c r="Q4" t="s"/>
+      <c r="R4" t="s"/>
+      <c r="S4" t="s"/>
+      <c r="T4" t="s"/>
+      <c r="U4" t="s"/>
+      <c r="V4" t="n">
+        <v>0</v>
+      </c>
+      <c r="W4" t="s">
+        <v>70</v>
+      </c>
+      <c r="X4" t="s">
+        <v>71</v>
+      </c>
+      <c r="Y4" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="n">
+        <v>42102</v>
+      </c>
+      <c r="B5" t="s"/>
+      <c r="C5" t="s"/>
+      <c r="D5" t="n">
+        <v>4</v>
+      </c>
+      <c r="E5" t="s">
+        <v>43</v>
+      </c>
+      <c r="F5" t="s">
+        <v>73</v>
+      </c>
+      <c r="G5" t="s">
+        <v>45</v>
+      </c>
+      <c r="H5" t="s">
+        <v>46</v>
+      </c>
+      <c r="I5" t="s">
+        <v>74</v>
+      </c>
+      <c r="J5" t="s">
+        <v>75</v>
+      </c>
+      <c r="K5" t="s">
+        <v>76</v>
+      </c>
+      <c r="L5" t="s">
+        <v>77</v>
+      </c>
+      <c r="M5" t="n">
+        <v>3</v>
+      </c>
+      <c r="N5" t="s">
+        <v>68</v>
+      </c>
+      <c r="O5" t="s">
+        <v>52</v>
+      </c>
+      <c r="P5" t="n">
+        <v>3</v>
+      </c>
+      <c r="Q5" t="n">
+        <v>3</v>
+      </c>
+      <c r="R5" t="s"/>
+      <c r="S5" t="s"/>
+      <c r="T5" t="s"/>
+      <c r="U5" t="n">
+        <v>4</v>
+      </c>
+      <c r="V5" t="n">
+        <v>0</v>
+      </c>
+      <c r="W5" t="s">
+        <v>78</v>
+      </c>
+      <c r="X5" t="s">
+        <v>79</v>
+      </c>
+      <c r="Y5" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="n">
+        <v>42102</v>
+      </c>
+      <c r="B6" t="s"/>
+      <c r="C6" t="s"/>
+      <c r="D6" t="n">
+        <v>5</v>
+      </c>
+      <c r="E6" t="s">
+        <v>43</v>
+      </c>
+      <c r="F6" t="s">
+        <v>81</v>
+      </c>
+      <c r="G6" t="s">
+        <v>45</v>
+      </c>
+      <c r="H6" t="s">
+        <v>46</v>
+      </c>
+      <c r="I6" t="s">
+        <v>82</v>
+      </c>
+      <c r="J6" t="s">
+        <v>83</v>
+      </c>
+      <c r="K6" t="s">
+        <v>84</v>
+      </c>
+      <c r="L6" t="s">
+        <v>85</v>
+      </c>
+      <c r="M6" t="n">
+        <v>1</v>
+      </c>
+      <c r="N6" t="s">
+        <v>86</v>
+      </c>
+      <c r="O6" t="s">
+        <v>52</v>
+      </c>
+      <c r="P6" t="s"/>
+      <c r="Q6" t="s"/>
+      <c r="R6" t="s"/>
+      <c r="S6" t="s"/>
+      <c r="T6" t="s"/>
+      <c r="U6" t="s"/>
+      <c r="V6" t="n">
+        <v>0</v>
+      </c>
+      <c r="W6" t="s">
+        <v>87</v>
+      </c>
+      <c r="X6" t="s">
+        <v>88</v>
+      </c>
+      <c r="Y6" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="n">
+        <v>42102</v>
+      </c>
+      <c r="B7" t="s"/>
+      <c r="C7" t="s"/>
+      <c r="D7" t="n">
+        <v>6</v>
+      </c>
+      <c r="E7" t="s">
+        <v>43</v>
+      </c>
+      <c r="F7" t="s">
+        <v>90</v>
+      </c>
+      <c r="G7" t="s">
+        <v>45</v>
+      </c>
+      <c r="H7" t="s">
+        <v>46</v>
+      </c>
+      <c r="I7" t="s">
+        <v>91</v>
+      </c>
+      <c r="J7" t="s">
+        <v>92</v>
+      </c>
+      <c r="K7" t="s">
+        <v>93</v>
+      </c>
+      <c r="L7" t="s">
+        <v>94</v>
+      </c>
+      <c r="M7" t="n">
+        <v>5</v>
+      </c>
+      <c r="N7" t="s">
+        <v>95</v>
+      </c>
+      <c r="O7" t="s">
+        <v>59</v>
+      </c>
+      <c r="P7" t="s"/>
+      <c r="Q7" t="s"/>
+      <c r="R7" t="s"/>
+      <c r="S7" t="s"/>
+      <c r="T7" t="s"/>
+      <c r="U7" t="s"/>
+      <c r="V7" t="n">
+        <v>0</v>
+      </c>
+      <c r="W7" t="s">
+        <v>96</v>
+      </c>
+      <c r="X7" t="s">
+        <v>97</v>
+      </c>
+      <c r="Y7" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="n">
+        <v>42102</v>
+      </c>
+      <c r="B8" t="s"/>
+      <c r="C8" t="s"/>
+      <c r="D8" t="n">
+        <v>7</v>
+      </c>
+      <c r="E8" t="s">
+        <v>43</v>
+      </c>
+      <c r="F8" t="s">
+        <v>99</v>
+      </c>
+      <c r="G8" t="s">
+        <v>45</v>
+      </c>
+      <c r="H8" t="s">
+        <v>46</v>
+      </c>
+      <c r="I8" t="s">
+        <v>100</v>
+      </c>
+      <c r="J8" t="s">
+        <v>101</v>
+      </c>
+      <c r="K8" t="s">
+        <v>102</v>
+      </c>
+      <c r="L8" t="s">
+        <v>103</v>
+      </c>
+      <c r="M8" t="n">
+        <v>5</v>
+      </c>
+      <c r="N8" t="s">
+        <v>95</v>
+      </c>
+      <c r="O8" t="s">
+        <v>59</v>
+      </c>
+      <c r="P8" t="s"/>
+      <c r="Q8" t="s"/>
+      <c r="R8" t="s"/>
+      <c r="S8" t="s"/>
+      <c r="T8" t="s"/>
+      <c r="U8" t="s"/>
+      <c r="V8" t="n">
+        <v>0</v>
+      </c>
+      <c r="W8" t="s">
+        <v>104</v>
+      </c>
+      <c r="X8" t="s">
+        <v>105</v>
+      </c>
+      <c r="Y8" t="s">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="n">
+        <v>42102</v>
+      </c>
+      <c r="B9" t="s"/>
+      <c r="C9" t="s"/>
+      <c r="D9" t="n">
+        <v>8</v>
+      </c>
+      <c r="E9" t="s">
+        <v>43</v>
+      </c>
+      <c r="F9" t="s">
+        <v>107</v>
+      </c>
+      <c r="G9" t="s">
+        <v>45</v>
+      </c>
+      <c r="H9" t="s">
+        <v>46</v>
+      </c>
+      <c r="I9" t="s">
+        <v>108</v>
+      </c>
+      <c r="J9" t="s">
+        <v>109</v>
+      </c>
+      <c r="K9" t="s">
+        <v>110</v>
+      </c>
+      <c r="L9" t="s">
+        <v>111</v>
+      </c>
+      <c r="M9" t="n">
+        <v>1</v>
+      </c>
+      <c r="N9" t="s">
+        <v>112</v>
+      </c>
+      <c r="O9" t="s">
+        <v>69</v>
+      </c>
+      <c r="P9" t="n">
+        <v>1</v>
+      </c>
+      <c r="Q9" t="s"/>
+      <c r="R9" t="s"/>
+      <c r="S9" t="s"/>
+      <c r="T9" t="s"/>
+      <c r="U9" t="n">
+        <v>3</v>
+      </c>
+      <c r="V9" t="n">
+        <v>0</v>
+      </c>
+      <c r="W9" t="s">
+        <v>113</v>
+      </c>
+      <c r="X9" t="s">
+        <v>114</v>
+      </c>
+      <c r="Y9" t="s">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="n">
+        <v>42102</v>
+      </c>
+      <c r="B10" t="s"/>
+      <c r="C10" t="s"/>
+      <c r="D10" t="n">
+        <v>9</v>
+      </c>
+      <c r="E10" t="s">
+        <v>43</v>
+      </c>
+      <c r="F10" t="s">
+        <v>116</v>
+      </c>
+      <c r="G10" t="s">
+        <v>45</v>
+      </c>
+      <c r="H10" t="s">
+        <v>46</v>
+      </c>
+      <c r="I10" t="s">
+        <v>117</v>
+      </c>
+      <c r="J10" t="s">
+        <v>118</v>
+      </c>
+      <c r="K10" t="s">
+        <v>119</v>
+      </c>
+      <c r="L10" t="s">
+        <v>120</v>
+      </c>
+      <c r="M10" t="n">
+        <v>1</v>
+      </c>
+      <c r="N10" t="s">
+        <v>112</v>
+      </c>
+      <c r="O10" t="s">
+        <v>121</v>
+      </c>
+      <c r="P10" t="s"/>
+      <c r="Q10" t="s"/>
+      <c r="R10" t="s"/>
+      <c r="S10" t="s"/>
+      <c r="T10" t="s"/>
+      <c r="U10" t="s"/>
+      <c r="V10" t="n">
+        <v>0</v>
+      </c>
+      <c r="W10" t="s">
+        <v>122</v>
+      </c>
+      <c r="X10" t="s">
+        <v>123</v>
+      </c>
+      <c r="Y10" t="s">
+        <v>124</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" t="n">
+        <v>42102</v>
+      </c>
+      <c r="B11" t="s"/>
+      <c r="C11" t="s"/>
+      <c r="D11" t="n">
+        <v>10</v>
+      </c>
+      <c r="E11" t="s">
+        <v>43</v>
+      </c>
+      <c r="F11" t="s">
+        <v>125</v>
+      </c>
+      <c r="G11" t="s">
+        <v>45</v>
+      </c>
+      <c r="H11" t="s">
+        <v>46</v>
+      </c>
+      <c r="I11" t="s">
+        <v>126</v>
+      </c>
+      <c r="J11" t="s">
+        <v>127</v>
+      </c>
+      <c r="K11" t="s">
+        <v>128</v>
+      </c>
+      <c r="L11" t="s">
+        <v>129</v>
+      </c>
+      <c r="M11" t="n">
+        <v>2</v>
+      </c>
+      <c r="N11" t="s">
+        <v>130</v>
+      </c>
+      <c r="O11" t="s">
+        <v>69</v>
+      </c>
+      <c r="P11" t="s"/>
+      <c r="Q11" t="s"/>
+      <c r="R11" t="s"/>
+      <c r="S11" t="n">
+        <v>3</v>
+      </c>
+      <c r="T11" t="s"/>
+      <c r="U11" t="n">
+        <v>2</v>
+      </c>
+      <c r="V11" t="n">
+        <v>0</v>
+      </c>
+      <c r="W11" t="s">
+        <v>131</v>
+      </c>
+      <c r="X11" t="s">
+        <v>132</v>
+      </c>
+      <c r="Y11" t="s">
+        <v>133</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" t="n">
+        <v>42102</v>
+      </c>
+      <c r="B12" t="s"/>
+      <c r="C12" t="s"/>
+      <c r="D12" t="n">
+        <v>11</v>
+      </c>
+      <c r="E12" t="s">
+        <v>43</v>
+      </c>
+      <c r="F12" t="s">
+        <v>134</v>
+      </c>
+      <c r="G12" t="s">
+        <v>45</v>
+      </c>
+      <c r="H12" t="s">
+        <v>46</v>
+      </c>
+      <c r="I12" t="s">
+        <v>135</v>
+      </c>
+      <c r="J12" t="s">
+        <v>136</v>
+      </c>
+      <c r="K12" t="s">
+        <v>137</v>
+      </c>
+      <c r="L12" t="s">
+        <v>138</v>
+      </c>
+      <c r="M12" t="n">
+        <v>1</v>
+      </c>
+      <c r="N12" t="s">
+        <v>130</v>
+      </c>
+      <c r="O12" t="s">
+        <v>121</v>
+      </c>
+      <c r="P12" t="s"/>
+      <c r="Q12" t="s"/>
+      <c r="R12" t="s"/>
+      <c r="S12" t="s"/>
+      <c r="T12" t="s"/>
+      <c r="U12" t="s"/>
+      <c r="V12" t="n">
+        <v>0</v>
+      </c>
+      <c r="W12" t="s">
+        <v>139</v>
+      </c>
+      <c r="X12" t="s">
+        <v>140</v>
+      </c>
+      <c r="Y12" t="s">
+        <v>141</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" t="n">
+        <v>42102</v>
+      </c>
+      <c r="B13" t="s"/>
+      <c r="C13" t="s"/>
+      <c r="D13" t="n">
+        <v>12</v>
+      </c>
+      <c r="E13" t="s">
+        <v>43</v>
+      </c>
+      <c r="F13" t="s">
+        <v>142</v>
+      </c>
+      <c r="G13" t="s">
+        <v>45</v>
+      </c>
+      <c r="H13" t="s">
+        <v>46</v>
+      </c>
+      <c r="I13" t="s">
+        <v>143</v>
+      </c>
+      <c r="J13" t="s">
+        <v>144</v>
+      </c>
+      <c r="K13" t="s">
+        <v>145</v>
+      </c>
+      <c r="L13" t="s">
+        <v>146</v>
+      </c>
+      <c r="M13" t="n">
+        <v>1</v>
+      </c>
+      <c r="N13" t="s"/>
+      <c r="O13" t="s"/>
+      <c r="P13" t="s"/>
+      <c r="Q13" t="s"/>
+      <c r="R13" t="s"/>
+      <c r="S13" t="s"/>
+      <c r="T13" t="s"/>
+      <c r="U13" t="s"/>
+      <c r="V13" t="n">
+        <v>0</v>
+      </c>
+      <c r="W13" t="s">
+        <v>147</v>
+      </c>
+      <c r="X13" t="s">
+        <v>148</v>
+      </c>
+      <c r="Y13" t="s">
+        <v>149</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" t="n">
+        <v>42102</v>
+      </c>
+      <c r="B14" t="s"/>
+      <c r="C14" t="s"/>
+      <c r="D14" t="n">
+        <v>13</v>
+      </c>
+      <c r="E14" t="s">
+        <v>43</v>
+      </c>
+      <c r="F14" t="s">
+        <v>150</v>
+      </c>
+      <c r="G14" t="s">
+        <v>45</v>
+      </c>
+      <c r="H14" t="s">
+        <v>46</v>
+      </c>
+      <c r="I14" t="s">
+        <v>151</v>
+      </c>
+      <c r="J14" t="s">
+        <v>152</v>
+      </c>
+      <c r="K14" t="s">
+        <v>153</v>
+      </c>
+      <c r="L14" t="s">
+        <v>154</v>
+      </c>
+      <c r="M14" t="n">
+        <v>4</v>
+      </c>
+      <c r="N14" t="s">
+        <v>155</v>
+      </c>
+      <c r="O14" t="s">
+        <v>121</v>
+      </c>
+      <c r="P14" t="n">
+        <v>4</v>
+      </c>
+      <c r="Q14" t="n">
+        <v>4</v>
+      </c>
+      <c r="R14" t="n">
+        <v>5</v>
+      </c>
+      <c r="S14" t="n">
+        <v>4</v>
+      </c>
+      <c r="T14" t="s"/>
+      <c r="U14" t="n">
+        <v>3</v>
+      </c>
+      <c r="V14" t="n">
+        <v>0</v>
+      </c>
+      <c r="W14" t="s">
+        <v>156</v>
+      </c>
+      <c r="X14" t="s">
+        <v>157</v>
+      </c>
+      <c r="Y14" t="s">
+        <v>158</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" t="n">
+        <v>42102</v>
+      </c>
+      <c r="B15" t="s"/>
+      <c r="C15" t="s"/>
+      <c r="D15" t="n">
+        <v>14</v>
+      </c>
+      <c r="E15" t="s">
+        <v>43</v>
+      </c>
+      <c r="F15" t="s">
+        <v>159</v>
+      </c>
+      <c r="G15" t="s">
+        <v>45</v>
+      </c>
+      <c r="H15" t="s">
+        <v>46</v>
+      </c>
+      <c r="I15" t="s">
+        <v>160</v>
+      </c>
+      <c r="J15" t="s">
+        <v>161</v>
+      </c>
+      <c r="K15" t="s">
+        <v>162</v>
+      </c>
+      <c r="L15" t="s">
+        <v>163</v>
+      </c>
+      <c r="M15" t="n">
+        <v>1</v>
+      </c>
+      <c r="N15" t="s">
+        <v>155</v>
+      </c>
+      <c r="O15" t="s">
+        <v>121</v>
+      </c>
+      <c r="P15" t="n">
+        <v>1</v>
+      </c>
+      <c r="Q15" t="n">
+        <v>1</v>
+      </c>
+      <c r="R15" t="n">
+        <v>2</v>
+      </c>
+      <c r="S15" t="n">
+        <v>1</v>
+      </c>
+      <c r="T15" t="s"/>
+      <c r="U15" t="n">
+        <v>5</v>
+      </c>
+      <c r="V15" t="n">
+        <v>0</v>
+      </c>
+      <c r="W15" t="s">
+        <v>164</v>
+      </c>
+      <c r="X15" t="s">
+        <v>165</v>
+      </c>
+      <c r="Y15" t="s">
+        <v>166</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" t="n">
+        <v>42102</v>
+      </c>
+      <c r="B16" t="s"/>
+      <c r="C16" t="s"/>
+      <c r="D16" t="n">
+        <v>15</v>
+      </c>
+      <c r="E16" t="s">
+        <v>43</v>
+      </c>
+      <c r="F16" t="s">
+        <v>167</v>
+      </c>
+      <c r="G16" t="s">
+        <v>45</v>
+      </c>
+      <c r="H16" t="s">
+        <v>46</v>
+      </c>
+      <c r="I16" t="s">
+        <v>168</v>
+      </c>
+      <c r="J16" t="s">
+        <v>169</v>
+      </c>
+      <c r="K16" t="s">
+        <v>170</v>
+      </c>
+      <c r="L16" t="s">
+        <v>171</v>
+      </c>
+      <c r="M16" t="n">
+        <v>1</v>
+      </c>
+      <c r="N16" t="s">
+        <v>155</v>
+      </c>
+      <c r="O16" t="s">
+        <v>59</v>
+      </c>
+      <c r="P16" t="n">
+        <v>2</v>
+      </c>
+      <c r="Q16" t="n">
+        <v>2</v>
+      </c>
+      <c r="R16" t="n">
+        <v>3</v>
+      </c>
+      <c r="S16" t="n">
+        <v>2</v>
+      </c>
+      <c r="T16" t="s"/>
+      <c r="U16" t="n">
+        <v>2</v>
+      </c>
+      <c r="V16" t="n">
+        <v>0</v>
+      </c>
+      <c r="W16" t="s">
+        <v>172</v>
+      </c>
+      <c r="X16" t="s">
+        <v>173</v>
+      </c>
+      <c r="Y16" t="s">
+        <v>174</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" t="n">
+        <v>42102</v>
+      </c>
+      <c r="B17" t="s"/>
+      <c r="C17" t="s"/>
+      <c r="D17" t="n">
         <v>16</v>
       </c>
-      <c r="B1" t="s">
+      <c r="E17" t="s">
+        <v>43</v>
+      </c>
+      <c r="F17" t="s">
+        <v>175</v>
+      </c>
+      <c r="G17" t="s">
+        <v>45</v>
+      </c>
+      <c r="H17" t="s">
+        <v>46</v>
+      </c>
+      <c r="I17" t="s">
+        <v>176</v>
+      </c>
+      <c r="J17" t="s">
+        <v>177</v>
+      </c>
+      <c r="K17" t="s">
+        <v>178</v>
+      </c>
+      <c r="L17" t="s">
+        <v>179</v>
+      </c>
+      <c r="M17" t="n">
+        <v>3</v>
+      </c>
+      <c r="N17" t="s">
+        <v>180</v>
+      </c>
+      <c r="O17" t="s">
+        <v>59</v>
+      </c>
+      <c r="P17" t="n">
+        <v>2</v>
+      </c>
+      <c r="Q17" t="n">
+        <v>2</v>
+      </c>
+      <c r="R17" t="n">
+        <v>4</v>
+      </c>
+      <c r="S17" t="n">
+        <v>3</v>
+      </c>
+      <c r="T17" t="s"/>
+      <c r="U17" t="n">
+        <v>2</v>
+      </c>
+      <c r="V17" t="n">
+        <v>0</v>
+      </c>
+      <c r="W17" t="s">
+        <v>181</v>
+      </c>
+      <c r="X17" t="s">
+        <v>182</v>
+      </c>
+      <c r="Y17" t="s">
+        <v>183</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" t="n">
+        <v>42102</v>
+      </c>
+      <c r="B18" t="s"/>
+      <c r="C18" t="s"/>
+      <c r="D18" t="n">
         <v>17</v>
       </c>
-      <c r="C1" t="s">
+      <c r="E18" t="s">
+        <v>43</v>
+      </c>
+      <c r="F18" t="s">
+        <v>184</v>
+      </c>
+      <c r="G18" t="s">
+        <v>45</v>
+      </c>
+      <c r="H18" t="s">
+        <v>46</v>
+      </c>
+      <c r="I18" t="s">
+        <v>185</v>
+      </c>
+      <c r="J18" t="s">
+        <v>186</v>
+      </c>
+      <c r="K18" t="s">
+        <v>187</v>
+      </c>
+      <c r="L18" t="s">
+        <v>188</v>
+      </c>
+      <c r="M18" t="n">
+        <v>3</v>
+      </c>
+      <c r="N18" t="s">
+        <v>180</v>
+      </c>
+      <c r="O18" t="s">
+        <v>52</v>
+      </c>
+      <c r="P18" t="n">
+        <v>4</v>
+      </c>
+      <c r="Q18" t="n">
+        <v>4</v>
+      </c>
+      <c r="R18" t="n">
+        <v>4</v>
+      </c>
+      <c r="S18" t="n">
+        <v>3</v>
+      </c>
+      <c r="T18" t="s"/>
+      <c r="U18" t="n">
+        <v>4</v>
+      </c>
+      <c r="V18" t="n">
+        <v>0</v>
+      </c>
+      <c r="W18" t="s">
+        <v>189</v>
+      </c>
+      <c r="X18" t="s">
+        <v>190</v>
+      </c>
+      <c r="Y18" t="s">
+        <v>191</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" t="n">
+        <v>42102</v>
+      </c>
+      <c r="B19" t="s"/>
+      <c r="C19" t="s"/>
+      <c r="D19" t="n">
         <v>18</v>
       </c>
-      <c r="D1" t="s">
+      <c r="E19" t="s">
+        <v>43</v>
+      </c>
+      <c r="F19" t="s">
+        <v>192</v>
+      </c>
+      <c r="G19" t="s">
+        <v>45</v>
+      </c>
+      <c r="H19" t="s">
+        <v>46</v>
+      </c>
+      <c r="I19" t="s">
+        <v>193</v>
+      </c>
+      <c r="J19" t="s">
+        <v>194</v>
+      </c>
+      <c r="K19" t="s">
+        <v>195</v>
+      </c>
+      <c r="L19" t="s">
+        <v>196</v>
+      </c>
+      <c r="M19" t="n">
+        <v>1</v>
+      </c>
+      <c r="N19" t="s">
+        <v>180</v>
+      </c>
+      <c r="O19" t="s">
+        <v>52</v>
+      </c>
+      <c r="P19" t="s"/>
+      <c r="Q19" t="s"/>
+      <c r="R19" t="n">
+        <v>5</v>
+      </c>
+      <c r="S19" t="s"/>
+      <c r="T19" t="s"/>
+      <c r="U19" t="n">
+        <v>1</v>
+      </c>
+      <c r="V19" t="n">
+        <v>0</v>
+      </c>
+      <c r="W19" t="s">
+        <v>197</v>
+      </c>
+      <c r="X19" t="s">
+        <v>198</v>
+      </c>
+      <c r="Y19" t="s">
+        <v>199</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" t="n">
+        <v>42102</v>
+      </c>
+      <c r="B20" t="s"/>
+      <c r="C20" t="s"/>
+      <c r="D20" t="n">
         <v>19</v>
       </c>
-      <c r="E1" t="s">
+      <c r="E20" t="s">
+        <v>43</v>
+      </c>
+      <c r="F20" t="s">
+        <v>200</v>
+      </c>
+      <c r="G20" t="s">
+        <v>45</v>
+      </c>
+      <c r="H20" t="s">
+        <v>46</v>
+      </c>
+      <c r="I20" t="s">
+        <v>201</v>
+      </c>
+      <c r="J20" t="s">
+        <v>202</v>
+      </c>
+      <c r="K20" t="s">
+        <v>203</v>
+      </c>
+      <c r="L20" t="s">
+        <v>204</v>
+      </c>
+      <c r="M20" t="n">
+        <v>3</v>
+      </c>
+      <c r="N20" t="s">
+        <v>205</v>
+      </c>
+      <c r="O20" t="s">
+        <v>59</v>
+      </c>
+      <c r="P20" t="n">
+        <v>4</v>
+      </c>
+      <c r="Q20" t="s"/>
+      <c r="R20" t="s"/>
+      <c r="S20" t="s"/>
+      <c r="T20" t="s"/>
+      <c r="U20" t="n">
+        <v>3</v>
+      </c>
+      <c r="V20" t="n">
+        <v>0</v>
+      </c>
+      <c r="W20" t="s">
+        <v>206</v>
+      </c>
+      <c r="X20" t="s">
+        <v>207</v>
+      </c>
+      <c r="Y20" t="s">
+        <v>208</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" t="n">
+        <v>42102</v>
+      </c>
+      <c r="B21" t="s"/>
+      <c r="C21" t="s"/>
+      <c r="D21" t="n">
         <v>20</v>
       </c>
-      <c r="F1" t="s">
+      <c r="E21" t="s">
+        <v>43</v>
+      </c>
+      <c r="F21" t="s">
+        <v>209</v>
+      </c>
+      <c r="G21" t="s">
+        <v>45</v>
+      </c>
+      <c r="H21" t="s">
+        <v>46</v>
+      </c>
+      <c r="I21" t="s">
+        <v>210</v>
+      </c>
+      <c r="J21" t="s">
+        <v>202</v>
+      </c>
+      <c r="K21" t="s">
+        <v>211</v>
+      </c>
+      <c r="L21" t="s">
+        <v>212</v>
+      </c>
+      <c r="M21" t="n">
+        <v>2</v>
+      </c>
+      <c r="N21" t="s">
+        <v>205</v>
+      </c>
+      <c r="O21" t="s">
+        <v>69</v>
+      </c>
+      <c r="P21" t="n">
+        <v>2</v>
+      </c>
+      <c r="Q21" t="n">
+        <v>1</v>
+      </c>
+      <c r="R21" t="n">
+        <v>3</v>
+      </c>
+      <c r="S21" t="n">
+        <v>1</v>
+      </c>
+      <c r="T21" t="s"/>
+      <c r="U21" t="n">
+        <v>3</v>
+      </c>
+      <c r="V21" t="n">
+        <v>0</v>
+      </c>
+      <c r="W21" t="s">
+        <v>206</v>
+      </c>
+      <c r="X21" t="s">
+        <v>207</v>
+      </c>
+      <c r="Y21" t="s">
+        <v>213</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" t="n">
+        <v>42102</v>
+      </c>
+      <c r="B22" t="s"/>
+      <c r="C22" t="s"/>
+      <c r="D22" t="n">
         <v>21</v>
       </c>
-      <c r="G1" t="s">
+      <c r="E22" t="s">
+        <v>43</v>
+      </c>
+      <c r="F22" t="s">
+        <v>214</v>
+      </c>
+      <c r="G22" t="s">
+        <v>45</v>
+      </c>
+      <c r="H22" t="s">
+        <v>46</v>
+      </c>
+      <c r="I22" t="s">
+        <v>215</v>
+      </c>
+      <c r="J22" t="s">
+        <v>216</v>
+      </c>
+      <c r="K22" t="s">
+        <v>217</v>
+      </c>
+      <c r="L22" t="s">
+        <v>218</v>
+      </c>
+      <c r="M22" t="n">
+        <v>1</v>
+      </c>
+      <c r="N22" t="s">
+        <v>205</v>
+      </c>
+      <c r="O22" t="s">
+        <v>59</v>
+      </c>
+      <c r="P22" t="n">
+        <v>1</v>
+      </c>
+      <c r="Q22" t="n">
+        <v>1</v>
+      </c>
+      <c r="R22" t="n">
+        <v>4</v>
+      </c>
+      <c r="S22" t="n">
+        <v>1</v>
+      </c>
+      <c r="T22" t="s"/>
+      <c r="U22" t="n">
+        <v>1</v>
+      </c>
+      <c r="V22" t="n">
+        <v>0</v>
+      </c>
+      <c r="W22" t="s">
+        <v>219</v>
+      </c>
+      <c r="X22" t="s">
+        <v>220</v>
+      </c>
+      <c r="Y22" t="s">
+        <v>221</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" t="n">
+        <v>42102</v>
+      </c>
+      <c r="B23" t="s"/>
+      <c r="C23" t="s"/>
+      <c r="D23" t="n">
         <v>22</v>
       </c>
-      <c r="H1" t="s">
+      <c r="E23" t="s">
+        <v>43</v>
+      </c>
+      <c r="F23" t="s">
+        <v>222</v>
+      </c>
+      <c r="G23" t="s">
+        <v>45</v>
+      </c>
+      <c r="H23" t="s">
+        <v>46</v>
+      </c>
+      <c r="I23" t="s">
+        <v>223</v>
+      </c>
+      <c r="J23" t="s">
+        <v>224</v>
+      </c>
+      <c r="K23" t="s">
+        <v>225</v>
+      </c>
+      <c r="L23" t="s">
+        <v>226</v>
+      </c>
+      <c r="M23" t="n">
+        <v>2</v>
+      </c>
+      <c r="N23" t="s">
+        <v>205</v>
+      </c>
+      <c r="O23" t="s">
+        <v>227</v>
+      </c>
+      <c r="P23" t="n">
+        <v>2</v>
+      </c>
+      <c r="Q23" t="n">
+        <v>4</v>
+      </c>
+      <c r="R23" t="n">
+        <v>3</v>
+      </c>
+      <c r="S23" t="n">
+        <v>3</v>
+      </c>
+      <c r="T23" t="s"/>
+      <c r="U23" t="n">
+        <v>2</v>
+      </c>
+      <c r="V23" t="n">
+        <v>0</v>
+      </c>
+      <c r="W23" t="s">
+        <v>228</v>
+      </c>
+      <c r="X23" t="s">
+        <v>229</v>
+      </c>
+      <c r="Y23" t="s">
+        <v>230</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" t="n">
+        <v>42102</v>
+      </c>
+      <c r="B24" t="s"/>
+      <c r="C24" t="s"/>
+      <c r="D24" t="n">
         <v>23</v>
       </c>
-      <c r="I1" t="s">
+      <c r="E24" t="s">
+        <v>43</v>
+      </c>
+      <c r="F24" t="s">
+        <v>231</v>
+      </c>
+      <c r="G24" t="s">
+        <v>45</v>
+      </c>
+      <c r="H24" t="s">
+        <v>46</v>
+      </c>
+      <c r="I24" t="s">
+        <v>232</v>
+      </c>
+      <c r="J24" t="s">
+        <v>233</v>
+      </c>
+      <c r="K24" t="s">
+        <v>234</v>
+      </c>
+      <c r="L24" t="s">
+        <v>235</v>
+      </c>
+      <c r="M24" t="n">
+        <v>2</v>
+      </c>
+      <c r="N24" t="s">
+        <v>236</v>
+      </c>
+      <c r="O24" t="s">
+        <v>69</v>
+      </c>
+      <c r="P24" t="n">
+        <v>2</v>
+      </c>
+      <c r="Q24" t="s"/>
+      <c r="R24" t="s"/>
+      <c r="S24" t="s"/>
+      <c r="T24" t="s"/>
+      <c r="U24" t="n">
+        <v>3</v>
+      </c>
+      <c r="V24" t="n">
+        <v>0</v>
+      </c>
+      <c r="W24" t="s">
+        <v>237</v>
+      </c>
+      <c r="X24" t="s">
+        <v>238</v>
+      </c>
+      <c r="Y24" t="s">
+        <v>239</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" t="n">
+        <v>42102</v>
+      </c>
+      <c r="B25" t="s"/>
+      <c r="C25" t="s"/>
+      <c r="D25" t="n">
         <v>24</v>
       </c>
-      <c r="J1" t="s">
+      <c r="E25" t="s">
+        <v>43</v>
+      </c>
+      <c r="F25" t="s">
+        <v>240</v>
+      </c>
+      <c r="G25" t="s">
+        <v>45</v>
+      </c>
+      <c r="H25" t="s">
+        <v>46</v>
+      </c>
+      <c r="I25" t="s">
+        <v>241</v>
+      </c>
+      <c r="J25" t="s">
+        <v>242</v>
+      </c>
+      <c r="K25" t="s">
+        <v>243</v>
+      </c>
+      <c r="L25" t="s">
+        <v>244</v>
+      </c>
+      <c r="M25" t="n">
+        <v>1</v>
+      </c>
+      <c r="N25" t="s">
+        <v>236</v>
+      </c>
+      <c r="O25" t="s">
+        <v>121</v>
+      </c>
+      <c r="P25" t="s"/>
+      <c r="Q25" t="s"/>
+      <c r="R25" t="n">
+        <v>4</v>
+      </c>
+      <c r="S25" t="s"/>
+      <c r="T25" t="s"/>
+      <c r="U25" t="n">
+        <v>1</v>
+      </c>
+      <c r="V25" t="n">
+        <v>0</v>
+      </c>
+      <c r="W25" t="s">
+        <v>245</v>
+      </c>
+      <c r="X25" t="s">
+        <v>246</v>
+      </c>
+      <c r="Y25" t="s">
+        <v>247</v>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" t="n">
+        <v>42102</v>
+      </c>
+      <c r="B26" t="s"/>
+      <c r="C26" t="s"/>
+      <c r="D26" t="n">
         <v>25</v>
       </c>
-      <c r="K1" t="s">
+      <c r="E26" t="s">
+        <v>43</v>
+      </c>
+      <c r="F26" t="s">
+        <v>248</v>
+      </c>
+      <c r="G26" t="s">
+        <v>45</v>
+      </c>
+      <c r="H26" t="s">
+        <v>46</v>
+      </c>
+      <c r="I26" t="s">
+        <v>249</v>
+      </c>
+      <c r="J26" t="s">
+        <v>250</v>
+      </c>
+      <c r="K26" t="s">
+        <v>251</v>
+      </c>
+      <c r="L26" t="s">
+        <v>252</v>
+      </c>
+      <c r="M26" t="n">
+        <v>5</v>
+      </c>
+      <c r="N26" t="s">
+        <v>253</v>
+      </c>
+      <c r="O26" t="s">
+        <v>59</v>
+      </c>
+      <c r="P26" t="s"/>
+      <c r="Q26" t="s"/>
+      <c r="R26" t="s"/>
+      <c r="S26" t="s"/>
+      <c r="T26" t="s"/>
+      <c r="U26" t="s"/>
+      <c r="V26" t="n">
+        <v>0</v>
+      </c>
+      <c r="W26" t="s">
+        <v>254</v>
+      </c>
+      <c r="X26" t="s">
+        <v>255</v>
+      </c>
+      <c r="Y26" t="s">
+        <v>256</v>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" t="n">
+        <v>42102</v>
+      </c>
+      <c r="B27" t="s"/>
+      <c r="C27" t="s"/>
+      <c r="D27" t="n">
         <v>26</v>
       </c>
-      <c r="L1" t="s">
+      <c r="E27" t="s">
+        <v>43</v>
+      </c>
+      <c r="F27" t="s">
+        <v>257</v>
+      </c>
+      <c r="G27" t="s">
+        <v>45</v>
+      </c>
+      <c r="H27" t="s">
+        <v>46</v>
+      </c>
+      <c r="I27" t="s">
+        <v>258</v>
+      </c>
+      <c r="J27" t="s">
+        <v>259</v>
+      </c>
+      <c r="K27" t="s">
+        <v>260</v>
+      </c>
+      <c r="L27" t="s">
+        <v>261</v>
+      </c>
+      <c r="M27" t="n">
+        <v>1</v>
+      </c>
+      <c r="N27" t="s">
+        <v>253</v>
+      </c>
+      <c r="O27" t="s">
+        <v>59</v>
+      </c>
+      <c r="P27" t="n">
+        <v>3</v>
+      </c>
+      <c r="Q27" t="s"/>
+      <c r="R27" t="n">
+        <v>4</v>
+      </c>
+      <c r="S27" t="s"/>
+      <c r="T27" t="s"/>
+      <c r="U27" t="n">
+        <v>2</v>
+      </c>
+      <c r="V27" t="n">
+        <v>0</v>
+      </c>
+      <c r="W27" t="s">
+        <v>254</v>
+      </c>
+      <c r="X27" t="s">
+        <v>255</v>
+      </c>
+      <c r="Y27" t="s">
+        <v>262</v>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" t="n">
+        <v>42102</v>
+      </c>
+      <c r="B28" t="s"/>
+      <c r="C28" t="s"/>
+      <c r="D28" t="n">
         <v>27</v>
       </c>
-      <c r="M1" t="s">
+      <c r="E28" t="s">
+        <v>43</v>
+      </c>
+      <c r="F28" t="s">
+        <v>263</v>
+      </c>
+      <c r="G28" t="s">
+        <v>45</v>
+      </c>
+      <c r="H28" t="s">
+        <v>46</v>
+      </c>
+      <c r="I28" t="s">
+        <v>264</v>
+      </c>
+      <c r="J28" t="s">
+        <v>265</v>
+      </c>
+      <c r="K28" t="s">
+        <v>266</v>
+      </c>
+      <c r="L28" t="s">
+        <v>267</v>
+      </c>
+      <c r="M28" t="n">
+        <v>5</v>
+      </c>
+      <c r="N28" t="s">
+        <v>268</v>
+      </c>
+      <c r="O28" t="s">
+        <v>59</v>
+      </c>
+      <c r="P28" t="s"/>
+      <c r="Q28" t="n">
+        <v>5</v>
+      </c>
+      <c r="R28" t="s"/>
+      <c r="S28" t="n">
+        <v>5</v>
+      </c>
+      <c r="T28" t="s"/>
+      <c r="U28" t="n">
+        <v>5</v>
+      </c>
+      <c r="V28" t="n">
+        <v>0</v>
+      </c>
+      <c r="W28" t="s">
+        <v>269</v>
+      </c>
+      <c r="X28" t="s">
+        <v>270</v>
+      </c>
+      <c r="Y28" t="s">
+        <v>271</v>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" t="n">
+        <v>42102</v>
+      </c>
+      <c r="B29" t="s"/>
+      <c r="C29" t="s"/>
+      <c r="D29" t="n">
         <v>28</v>
       </c>
-      <c r="N1" t="s">
+      <c r="E29" t="s">
+        <v>43</v>
+      </c>
+      <c r="F29" t="s">
+        <v>272</v>
+      </c>
+      <c r="G29" t="s">
+        <v>45</v>
+      </c>
+      <c r="H29" t="s">
+        <v>46</v>
+      </c>
+      <c r="I29" t="s">
+        <v>273</v>
+      </c>
+      <c r="J29" t="s">
+        <v>274</v>
+      </c>
+      <c r="K29" t="s">
+        <v>275</v>
+      </c>
+      <c r="L29" t="s">
+        <v>276</v>
+      </c>
+      <c r="M29" t="n">
+        <v>5</v>
+      </c>
+      <c r="N29" t="s">
+        <v>277</v>
+      </c>
+      <c r="O29" t="s">
+        <v>59</v>
+      </c>
+      <c r="P29" t="s"/>
+      <c r="Q29" t="s"/>
+      <c r="R29" t="s"/>
+      <c r="S29" t="s"/>
+      <c r="T29" t="s"/>
+      <c r="U29" t="s"/>
+      <c r="V29" t="n">
+        <v>0</v>
+      </c>
+      <c r="W29" t="s">
+        <v>278</v>
+      </c>
+      <c r="X29" t="s">
+        <v>279</v>
+      </c>
+      <c r="Y29" t="s">
+        <v>280</v>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" t="n">
+        <v>42102</v>
+      </c>
+      <c r="B30" t="s"/>
+      <c r="C30" t="s"/>
+      <c r="D30" t="n">
         <v>29</v>
       </c>
-      <c r="O1" t="s">
+      <c r="E30" t="s">
+        <v>43</v>
+      </c>
+      <c r="F30" t="s">
+        <v>281</v>
+      </c>
+      <c r="G30" t="s">
+        <v>45</v>
+      </c>
+      <c r="H30" t="s">
+        <v>46</v>
+      </c>
+      <c r="I30" t="s">
+        <v>282</v>
+      </c>
+      <c r="J30" t="s">
+        <v>283</v>
+      </c>
+      <c r="K30" t="s">
+        <v>284</v>
+      </c>
+      <c r="L30" t="s">
+        <v>285</v>
+      </c>
+      <c r="M30" t="n">
+        <v>5</v>
+      </c>
+      <c r="N30" t="s">
+        <v>286</v>
+      </c>
+      <c r="O30" t="s">
+        <v>59</v>
+      </c>
+      <c r="P30" t="s"/>
+      <c r="Q30" t="s"/>
+      <c r="R30" t="s"/>
+      <c r="S30" t="s"/>
+      <c r="T30" t="s"/>
+      <c r="U30" t="s"/>
+      <c r="V30" t="n">
+        <v>0</v>
+      </c>
+      <c r="W30" t="s">
+        <v>287</v>
+      </c>
+      <c r="X30" t="s">
+        <v>288</v>
+      </c>
+      <c r="Y30" t="s">
+        <v>289</v>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" t="n">
+        <v>42102</v>
+      </c>
+      <c r="B31" t="s"/>
+      <c r="C31" t="s"/>
+      <c r="D31" t="n">
         <v>30</v>
       </c>
-      <c r="P1" t="s">
+      <c r="E31" t="s">
+        <v>43</v>
+      </c>
+      <c r="F31" t="s">
+        <v>290</v>
+      </c>
+      <c r="G31" t="s">
+        <v>45</v>
+      </c>
+      <c r="H31" t="s">
+        <v>46</v>
+      </c>
+      <c r="I31" t="s">
+        <v>291</v>
+      </c>
+      <c r="J31" t="s">
+        <v>292</v>
+      </c>
+      <c r="K31" t="s">
+        <v>293</v>
+      </c>
+      <c r="L31" t="s">
+        <v>294</v>
+      </c>
+      <c r="M31" t="n">
+        <v>5</v>
+      </c>
+      <c r="N31" t="s">
+        <v>295</v>
+      </c>
+      <c r="O31" t="s">
+        <v>69</v>
+      </c>
+      <c r="P31" t="s"/>
+      <c r="Q31" t="n">
+        <v>5</v>
+      </c>
+      <c r="R31" t="s"/>
+      <c r="S31" t="n">
+        <v>5</v>
+      </c>
+      <c r="T31" t="s"/>
+      <c r="U31" t="n">
+        <v>5</v>
+      </c>
+      <c r="V31" t="n">
+        <v>0</v>
+      </c>
+      <c r="W31" t="s">
+        <v>296</v>
+      </c>
+      <c r="X31" t="s">
+        <v>297</v>
+      </c>
+      <c r="Y31" t="s">
+        <v>298</v>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" t="n">
+        <v>42102</v>
+      </c>
+      <c r="B32" t="s"/>
+      <c r="C32" t="s"/>
+      <c r="D32" t="n">
         <v>31</v>
       </c>
-      <c r="Q1" t="s">
+      <c r="E32" t="s">
+        <v>43</v>
+      </c>
+      <c r="F32" t="s">
+        <v>299</v>
+      </c>
+      <c r="G32" t="s">
+        <v>45</v>
+      </c>
+      <c r="H32" t="s">
+        <v>46</v>
+      </c>
+      <c r="I32" t="s">
+        <v>300</v>
+      </c>
+      <c r="J32" t="s">
+        <v>301</v>
+      </c>
+      <c r="K32" t="s">
+        <v>302</v>
+      </c>
+      <c r="L32" t="s">
+        <v>303</v>
+      </c>
+      <c r="M32" t="n">
+        <v>5</v>
+      </c>
+      <c r="N32" t="s">
+        <v>304</v>
+      </c>
+      <c r="O32" t="s">
+        <v>121</v>
+      </c>
+      <c r="P32" t="s"/>
+      <c r="Q32" t="s"/>
+      <c r="R32" t="s"/>
+      <c r="S32" t="s"/>
+      <c r="T32" t="s"/>
+      <c r="U32" t="s"/>
+      <c r="V32" t="n">
+        <v>0</v>
+      </c>
+      <c r="W32" t="s"/>
+      <c r="X32" t="s"/>
+      <c r="Y32" t="s">
+        <v>303</v>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" t="n">
+        <v>42102</v>
+      </c>
+      <c r="B33" t="s"/>
+      <c r="C33" t="s"/>
+      <c r="D33" t="n">
         <v>32</v>
       </c>
-      <c r="R1" t="s">
+      <c r="E33" t="s">
+        <v>43</v>
+      </c>
+      <c r="F33" t="s">
+        <v>305</v>
+      </c>
+      <c r="G33" t="s">
+        <v>45</v>
+      </c>
+      <c r="H33" t="s">
+        <v>46</v>
+      </c>
+      <c r="I33" t="s">
+        <v>306</v>
+      </c>
+      <c r="J33" t="s">
+        <v>307</v>
+      </c>
+      <c r="K33" t="s">
+        <v>308</v>
+      </c>
+      <c r="L33" t="s">
+        <v>309</v>
+      </c>
+      <c r="M33" t="n">
+        <v>5</v>
+      </c>
+      <c r="N33" t="s">
+        <v>310</v>
+      </c>
+      <c r="O33" t="s">
+        <v>69</v>
+      </c>
+      <c r="P33" t="s"/>
+      <c r="Q33" t="n">
+        <v>5</v>
+      </c>
+      <c r="R33" t="s"/>
+      <c r="S33" t="s"/>
+      <c r="T33" t="s"/>
+      <c r="U33" t="n">
+        <v>5</v>
+      </c>
+      <c r="V33" t="n">
+        <v>0</v>
+      </c>
+      <c r="W33" t="s"/>
+      <c r="X33" t="s"/>
+      <c r="Y33" t="s">
+        <v>311</v>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34" t="n">
+        <v>42102</v>
+      </c>
+      <c r="B34" t="s"/>
+      <c r="C34" t="s"/>
+      <c r="D34" t="n">
         <v>33</v>
       </c>
-      <c r="S1" t="s">
+      <c r="E34" t="s">
+        <v>43</v>
+      </c>
+      <c r="F34" t="s">
+        <v>312</v>
+      </c>
+      <c r="G34" t="s">
+        <v>45</v>
+      </c>
+      <c r="H34" t="s">
+        <v>46</v>
+      </c>
+      <c r="I34" t="s">
+        <v>313</v>
+      </c>
+      <c r="J34" t="s">
+        <v>314</v>
+      </c>
+      <c r="K34" t="s">
+        <v>315</v>
+      </c>
+      <c r="L34" t="s">
+        <v>316</v>
+      </c>
+      <c r="M34" t="n">
+        <v>2</v>
+      </c>
+      <c r="N34" t="s">
+        <v>317</v>
+      </c>
+      <c r="O34" t="s">
+        <v>52</v>
+      </c>
+      <c r="P34" t="s"/>
+      <c r="Q34" t="s"/>
+      <c r="R34" t="s"/>
+      <c r="S34" t="n">
+        <v>3</v>
+      </c>
+      <c r="T34" t="s"/>
+      <c r="U34" t="n">
+        <v>2</v>
+      </c>
+      <c r="V34" t="n">
+        <v>0</v>
+      </c>
+      <c r="W34" t="s">
+        <v>318</v>
+      </c>
+      <c r="X34" t="s">
+        <v>319</v>
+      </c>
+      <c r="Y34" t="s">
+        <v>320</v>
+      </c>
+    </row>
+    <row r="35">
+      <c r="A35" t="n">
+        <v>42102</v>
+      </c>
+      <c r="B35" t="s"/>
+      <c r="C35" t="s"/>
+      <c r="D35" t="n">
         <v>34</v>
       </c>
-      <c r="T1" t="s">
+      <c r="E35" t="s">
+        <v>43</v>
+      </c>
+      <c r="F35" t="s">
+        <v>321</v>
+      </c>
+      <c r="G35" t="s">
+        <v>45</v>
+      </c>
+      <c r="H35" t="s">
+        <v>46</v>
+      </c>
+      <c r="I35" t="s">
+        <v>322</v>
+      </c>
+      <c r="J35" t="s">
+        <v>323</v>
+      </c>
+      <c r="K35" t="s">
+        <v>324</v>
+      </c>
+      <c r="L35" t="s">
+        <v>325</v>
+      </c>
+      <c r="M35" t="n">
+        <v>4</v>
+      </c>
+      <c r="N35" t="s">
+        <v>326</v>
+      </c>
+      <c r="O35" t="s">
+        <v>69</v>
+      </c>
+      <c r="P35" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q35" t="s"/>
+      <c r="R35" t="s"/>
+      <c r="S35" t="n">
+        <v>5</v>
+      </c>
+      <c r="T35" t="s"/>
+      <c r="U35" t="n">
+        <v>5</v>
+      </c>
+      <c r="V35" t="n">
+        <v>0</v>
+      </c>
+      <c r="W35" t="s">
+        <v>327</v>
+      </c>
+      <c r="X35" t="s">
+        <v>328</v>
+      </c>
+      <c r="Y35" t="s">
+        <v>329</v>
+      </c>
+    </row>
+    <row r="36">
+      <c r="A36" t="n">
+        <v>42102</v>
+      </c>
+      <c r="B36" t="s"/>
+      <c r="C36" t="s"/>
+      <c r="D36" t="n">
         <v>35</v>
       </c>
-      <c r="U1" t="s">
+      <c r="E36" t="s">
+        <v>43</v>
+      </c>
+      <c r="F36" t="s">
+        <v>330</v>
+      </c>
+      <c r="G36" t="s">
+        <v>45</v>
+      </c>
+      <c r="H36" t="s">
+        <v>46</v>
+      </c>
+      <c r="I36" t="s">
+        <v>331</v>
+      </c>
+      <c r="J36" t="s">
+        <v>332</v>
+      </c>
+      <c r="K36" t="s">
+        <v>333</v>
+      </c>
+      <c r="L36" t="s">
+        <v>334</v>
+      </c>
+      <c r="M36" t="n">
+        <v>1</v>
+      </c>
+      <c r="N36" t="s">
+        <v>335</v>
+      </c>
+      <c r="O36" t="s">
+        <v>59</v>
+      </c>
+      <c r="P36" t="s"/>
+      <c r="Q36" t="n">
+        <v>1</v>
+      </c>
+      <c r="R36" t="n">
+        <v>1</v>
+      </c>
+      <c r="S36" t="s"/>
+      <c r="T36" t="s"/>
+      <c r="U36" t="n">
+        <v>1</v>
+      </c>
+      <c r="V36" t="n">
+        <v>0</v>
+      </c>
+      <c r="W36" t="s"/>
+      <c r="X36" t="s"/>
+      <c r="Y36" t="s">
+        <v>336</v>
+      </c>
+    </row>
+    <row r="37">
+      <c r="A37" t="n">
+        <v>42102</v>
+      </c>
+      <c r="B37" t="s"/>
+      <c r="C37" t="s"/>
+      <c r="D37" t="n">
         <v>36</v>
       </c>
-      <c r="V1" t="s">
+      <c r="E37" t="s">
+        <v>43</v>
+      </c>
+      <c r="F37" t="s">
+        <v>337</v>
+      </c>
+      <c r="G37" t="s">
+        <v>45</v>
+      </c>
+      <c r="H37" t="s">
+        <v>46</v>
+      </c>
+      <c r="I37" t="s">
+        <v>338</v>
+      </c>
+      <c r="J37" t="s">
+        <v>339</v>
+      </c>
+      <c r="K37" t="s">
+        <v>340</v>
+      </c>
+      <c r="L37" t="s">
+        <v>341</v>
+      </c>
+      <c r="M37" t="n">
+        <v>3</v>
+      </c>
+      <c r="N37" t="s">
+        <v>342</v>
+      </c>
+      <c r="O37" t="s">
+        <v>59</v>
+      </c>
+      <c r="P37" t="n">
+        <v>3</v>
+      </c>
+      <c r="Q37" t="s"/>
+      <c r="R37" t="s"/>
+      <c r="S37" t="s"/>
+      <c r="T37" t="s"/>
+      <c r="U37" t="n">
+        <v>3</v>
+      </c>
+      <c r="V37" t="n">
+        <v>0</v>
+      </c>
+      <c r="W37" t="s">
+        <v>343</v>
+      </c>
+      <c r="X37" t="s">
+        <v>344</v>
+      </c>
+      <c r="Y37" t="s">
+        <v>345</v>
+      </c>
+    </row>
+    <row r="38">
+      <c r="A38" t="n">
+        <v>42102</v>
+      </c>
+      <c r="B38" t="s"/>
+      <c r="C38" t="s"/>
+      <c r="D38" t="n">
         <v>37</v>
       </c>
-      <c r="W1" t="s">
+      <c r="E38" t="s">
+        <v>43</v>
+      </c>
+      <c r="F38" t="s">
+        <v>346</v>
+      </c>
+      <c r="G38" t="s">
+        <v>45</v>
+      </c>
+      <c r="H38" t="s">
+        <v>46</v>
+      </c>
+      <c r="I38" t="s">
+        <v>347</v>
+      </c>
+      <c r="J38" t="s">
+        <v>348</v>
+      </c>
+      <c r="K38" t="s">
+        <v>349</v>
+      </c>
+      <c r="L38" t="s">
+        <v>350</v>
+      </c>
+      <c r="M38" t="n">
+        <v>1</v>
+      </c>
+      <c r="N38" t="s">
+        <v>351</v>
+      </c>
+      <c r="O38" t="s">
+        <v>69</v>
+      </c>
+      <c r="P38" t="n">
+        <v>1</v>
+      </c>
+      <c r="Q38" t="s"/>
+      <c r="R38" t="s"/>
+      <c r="S38" t="s"/>
+      <c r="T38" t="s"/>
+      <c r="U38" t="n">
+        <v>2</v>
+      </c>
+      <c r="V38" t="n">
+        <v>0</v>
+      </c>
+      <c r="W38" t="s"/>
+      <c r="X38" t="s"/>
+      <c r="Y38" t="s">
+        <v>352</v>
+      </c>
+    </row>
+    <row r="39">
+      <c r="A39" t="n">
+        <v>42102</v>
+      </c>
+      <c r="B39" t="s"/>
+      <c r="C39" t="s"/>
+      <c r="D39" t="n">
         <v>38</v>
       </c>
-      <c r="X1" t="s">
+      <c r="E39" t="s">
+        <v>43</v>
+      </c>
+      <c r="F39" t="s">
+        <v>353</v>
+      </c>
+      <c r="G39" t="s">
+        <v>45</v>
+      </c>
+      <c r="H39" t="s">
+        <v>46</v>
+      </c>
+      <c r="I39" t="s">
+        <v>354</v>
+      </c>
+      <c r="J39" t="s">
+        <v>355</v>
+      </c>
+      <c r="K39" t="s">
+        <v>356</v>
+      </c>
+      <c r="L39" t="s">
+        <v>357</v>
+      </c>
+      <c r="M39" t="n">
+        <v>5</v>
+      </c>
+      <c r="N39" t="s">
+        <v>358</v>
+      </c>
+      <c r="O39" t="s">
+        <v>69</v>
+      </c>
+      <c r="P39" t="s"/>
+      <c r="Q39" t="n">
+        <v>5</v>
+      </c>
+      <c r="R39" t="s"/>
+      <c r="S39" t="s"/>
+      <c r="T39" t="s"/>
+      <c r="U39" t="n">
+        <v>5</v>
+      </c>
+      <c r="V39" t="n">
+        <v>0</v>
+      </c>
+      <c r="W39" t="s"/>
+      <c r="X39" t="s"/>
+      <c r="Y39" t="s">
+        <v>357</v>
+      </c>
+    </row>
+    <row r="40">
+      <c r="A40" t="n">
+        <v>42102</v>
+      </c>
+      <c r="B40" t="s"/>
+      <c r="C40" t="s"/>
+      <c r="D40" t="n">
         <v>39</v>
       </c>
-      <c r="Y1" t="s">
+      <c r="E40" t="s">
+        <v>43</v>
+      </c>
+      <c r="F40" t="s">
+        <v>359</v>
+      </c>
+      <c r="G40" t="s">
+        <v>45</v>
+      </c>
+      <c r="H40" t="s">
+        <v>46</v>
+      </c>
+      <c r="I40" t="s">
+        <v>360</v>
+      </c>
+      <c r="J40" t="s">
+        <v>361</v>
+      </c>
+      <c r="K40" t="s">
+        <v>362</v>
+      </c>
+      <c r="L40" t="s">
+        <v>363</v>
+      </c>
+      <c r="M40" t="n">
+        <v>5</v>
+      </c>
+      <c r="N40" t="s">
+        <v>358</v>
+      </c>
+      <c r="O40" t="s">
+        <v>59</v>
+      </c>
+      <c r="P40" t="s"/>
+      <c r="Q40" t="s"/>
+      <c r="R40" t="s"/>
+      <c r="S40" t="s"/>
+      <c r="T40" t="s"/>
+      <c r="U40" t="s"/>
+      <c r="V40" t="n">
+        <v>0</v>
+      </c>
+      <c r="W40" t="s">
+        <v>364</v>
+      </c>
+      <c r="X40" t="s">
+        <v>365</v>
+      </c>
+      <c r="Y40" t="s">
+        <v>366</v>
+      </c>
+    </row>
+    <row r="41">
+      <c r="A41" t="n">
+        <v>42102</v>
+      </c>
+      <c r="B41" t="s"/>
+      <c r="C41" t="s"/>
+      <c r="D41" t="n">
         <v>40</v>
+      </c>
+      <c r="E41" t="s">
+        <v>43</v>
+      </c>
+      <c r="F41" t="s">
+        <v>367</v>
+      </c>
+      <c r="G41" t="s">
+        <v>45</v>
+      </c>
+      <c r="H41" t="s">
+        <v>46</v>
+      </c>
+      <c r="I41" t="s">
+        <v>368</v>
+      </c>
+      <c r="J41" t="s">
+        <v>369</v>
+      </c>
+      <c r="K41" t="s">
+        <v>370</v>
+      </c>
+      <c r="L41" t="s">
+        <v>371</v>
+      </c>
+      <c r="M41" t="n">
+        <v>5</v>
+      </c>
+      <c r="N41" t="s">
+        <v>358</v>
+      </c>
+      <c r="O41" t="s">
+        <v>121</v>
+      </c>
+      <c r="P41" t="s"/>
+      <c r="Q41" t="s"/>
+      <c r="R41" t="n">
+        <v>5</v>
+      </c>
+      <c r="S41" t="n">
+        <v>5</v>
+      </c>
+      <c r="T41" t="s"/>
+      <c r="U41" t="n">
+        <v>4</v>
+      </c>
+      <c r="V41" t="n">
+        <v>0</v>
+      </c>
+      <c r="W41" t="s">
+        <v>364</v>
+      </c>
+      <c r="X41" t="s">
+        <v>365</v>
+      </c>
+      <c r="Y41" t="s">
+        <v>372</v>
+      </c>
+    </row>
+    <row r="42">
+      <c r="A42" t="n">
+        <v>42102</v>
+      </c>
+      <c r="B42" t="s"/>
+      <c r="C42" t="s"/>
+      <c r="D42" t="n">
+        <v>41</v>
+      </c>
+      <c r="E42" t="s">
+        <v>43</v>
+      </c>
+      <c r="F42" t="s">
+        <v>373</v>
+      </c>
+      <c r="G42" t="s">
+        <v>45</v>
+      </c>
+      <c r="H42" t="s">
+        <v>46</v>
+      </c>
+      <c r="I42" t="s">
+        <v>374</v>
+      </c>
+      <c r="J42" t="s">
+        <v>375</v>
+      </c>
+      <c r="K42" t="s">
+        <v>376</v>
+      </c>
+      <c r="L42" t="s">
+        <v>377</v>
+      </c>
+      <c r="M42" t="n">
+        <v>5</v>
+      </c>
+      <c r="N42" t="s">
+        <v>378</v>
+      </c>
+      <c r="O42" t="s">
+        <v>52</v>
+      </c>
+      <c r="P42" t="s"/>
+      <c r="Q42" t="s"/>
+      <c r="R42" t="s"/>
+      <c r="S42" t="n">
+        <v>5</v>
+      </c>
+      <c r="T42" t="s"/>
+      <c r="U42" t="n">
+        <v>5</v>
+      </c>
+      <c r="V42" t="n">
+        <v>0</v>
+      </c>
+      <c r="W42" t="s">
+        <v>379</v>
+      </c>
+      <c r="X42" t="s">
+        <v>380</v>
+      </c>
+      <c r="Y42" t="s">
+        <v>381</v>
+      </c>
+    </row>
+    <row r="43">
+      <c r="A43" t="n">
+        <v>42102</v>
+      </c>
+      <c r="B43" t="s"/>
+      <c r="C43" t="s"/>
+      <c r="D43" t="n">
+        <v>42</v>
+      </c>
+      <c r="E43" t="s">
+        <v>43</v>
+      </c>
+      <c r="F43" t="s">
+        <v>382</v>
+      </c>
+      <c r="G43" t="s">
+        <v>45</v>
+      </c>
+      <c r="H43" t="s">
+        <v>46</v>
+      </c>
+      <c r="I43" t="s">
+        <v>383</v>
+      </c>
+      <c r="J43" t="s">
+        <v>384</v>
+      </c>
+      <c r="K43" t="s">
+        <v>385</v>
+      </c>
+      <c r="L43" t="s">
+        <v>386</v>
+      </c>
+      <c r="M43" t="n">
+        <v>1</v>
+      </c>
+      <c r="N43" t="s"/>
+      <c r="O43" t="s"/>
+      <c r="P43" t="s"/>
+      <c r="Q43" t="n">
+        <v>1</v>
+      </c>
+      <c r="R43" t="n">
+        <v>3</v>
+      </c>
+      <c r="S43" t="n">
+        <v>1</v>
+      </c>
+      <c r="T43" t="s"/>
+      <c r="U43" t="n">
+        <v>1</v>
+      </c>
+      <c r="V43" t="n">
+        <v>0</v>
+      </c>
+      <c r="W43" t="s"/>
+      <c r="X43" t="s"/>
+      <c r="Y43" t="s">
+        <v>387</v>
+      </c>
+    </row>
+    <row r="44">
+      <c r="A44" t="n">
+        <v>42102</v>
+      </c>
+      <c r="B44" t="s"/>
+      <c r="C44" t="s"/>
+      <c r="D44" t="n">
+        <v>43</v>
+      </c>
+      <c r="E44" t="s">
+        <v>43</v>
+      </c>
+      <c r="F44" t="s">
+        <v>388</v>
+      </c>
+      <c r="G44" t="s">
+        <v>45</v>
+      </c>
+      <c r="H44" t="s">
+        <v>46</v>
+      </c>
+      <c r="I44" t="s">
+        <v>389</v>
+      </c>
+      <c r="J44" t="s">
+        <v>390</v>
+      </c>
+      <c r="K44" t="s">
+        <v>391</v>
+      </c>
+      <c r="L44" t="s">
+        <v>392</v>
+      </c>
+      <c r="M44" t="n">
+        <v>1</v>
+      </c>
+      <c r="N44" t="s">
+        <v>351</v>
+      </c>
+      <c r="O44" t="s">
+        <v>69</v>
+      </c>
+      <c r="P44" t="n">
+        <v>1</v>
+      </c>
+      <c r="Q44" t="n">
+        <v>3</v>
+      </c>
+      <c r="R44" t="n">
+        <v>1</v>
+      </c>
+      <c r="S44" t="n">
+        <v>2</v>
+      </c>
+      <c r="T44" t="s"/>
+      <c r="U44" t="n">
+        <v>3</v>
+      </c>
+      <c r="V44" t="n">
+        <v>0</v>
+      </c>
+      <c r="W44" t="s">
+        <v>393</v>
+      </c>
+      <c r="X44" t="s">
+        <v>394</v>
+      </c>
+      <c r="Y44" t="s">
+        <v>395</v>
+      </c>
+    </row>
+    <row r="45">
+      <c r="A45" t="n">
+        <v>42102</v>
+      </c>
+      <c r="B45" t="s"/>
+      <c r="C45" t="s"/>
+      <c r="D45" t="n">
+        <v>44</v>
+      </c>
+      <c r="E45" t="s">
+        <v>43</v>
+      </c>
+      <c r="F45" t="s">
+        <v>396</v>
+      </c>
+      <c r="G45" t="s">
+        <v>45</v>
+      </c>
+      <c r="H45" t="s">
+        <v>46</v>
+      </c>
+      <c r="I45" t="s">
+        <v>397</v>
+      </c>
+      <c r="J45" t="s">
+        <v>398</v>
+      </c>
+      <c r="K45" t="s">
+        <v>399</v>
+      </c>
+      <c r="L45" t="s">
+        <v>400</v>
+      </c>
+      <c r="M45" t="n">
+        <v>5</v>
+      </c>
+      <c r="N45" t="s">
+        <v>401</v>
+      </c>
+      <c r="O45" t="s">
+        <v>69</v>
+      </c>
+      <c r="P45" t="n">
+        <v>4</v>
+      </c>
+      <c r="Q45" t="n">
+        <v>5</v>
+      </c>
+      <c r="R45" t="n">
+        <v>4</v>
+      </c>
+      <c r="S45" t="n">
+        <v>5</v>
+      </c>
+      <c r="T45" t="s"/>
+      <c r="U45" t="n">
+        <v>5</v>
+      </c>
+      <c r="V45" t="n">
+        <v>0</v>
+      </c>
+      <c r="W45" t="s">
+        <v>402</v>
+      </c>
+      <c r="X45" t="s">
+        <v>403</v>
+      </c>
+      <c r="Y45" t="s">
+        <v>404</v>
+      </c>
+    </row>
+    <row r="46">
+      <c r="A46" t="n">
+        <v>42102</v>
+      </c>
+      <c r="B46" t="s"/>
+      <c r="C46" t="s"/>
+      <c r="D46" t="n">
+        <v>45</v>
+      </c>
+      <c r="E46" t="s">
+        <v>43</v>
+      </c>
+      <c r="F46" t="s">
+        <v>405</v>
+      </c>
+      <c r="G46" t="s">
+        <v>45</v>
+      </c>
+      <c r="H46" t="s">
+        <v>46</v>
+      </c>
+      <c r="I46" t="s">
+        <v>406</v>
+      </c>
+      <c r="J46" t="s">
+        <v>407</v>
+      </c>
+      <c r="K46" t="s">
+        <v>408</v>
+      </c>
+      <c r="L46" t="s">
+        <v>409</v>
+      </c>
+      <c r="M46" t="n">
+        <v>1</v>
+      </c>
+      <c r="N46" t="s">
+        <v>401</v>
+      </c>
+      <c r="O46" t="s">
+        <v>69</v>
+      </c>
+      <c r="P46" t="n">
+        <v>2</v>
+      </c>
+      <c r="Q46" t="n">
+        <v>2</v>
+      </c>
+      <c r="R46" t="n">
+        <v>3</v>
+      </c>
+      <c r="S46" t="n">
+        <v>1</v>
+      </c>
+      <c r="T46" t="s"/>
+      <c r="U46" t="n">
+        <v>3</v>
+      </c>
+      <c r="V46" t="n">
+        <v>0</v>
+      </c>
+      <c r="W46" t="s">
+        <v>410</v>
+      </c>
+      <c r="X46" t="s">
+        <v>411</v>
+      </c>
+      <c r="Y46" t="s">
+        <v>412</v>
+      </c>
+    </row>
+    <row r="47">
+      <c r="A47" t="n">
+        <v>42102</v>
+      </c>
+      <c r="B47" t="s"/>
+      <c r="C47" t="s"/>
+      <c r="D47" t="n">
+        <v>46</v>
+      </c>
+      <c r="E47" t="s">
+        <v>43</v>
+      </c>
+      <c r="F47" t="s">
+        <v>413</v>
+      </c>
+      <c r="G47" t="s">
+        <v>45</v>
+      </c>
+      <c r="H47" t="s">
+        <v>46</v>
+      </c>
+      <c r="I47" t="s">
+        <v>414</v>
+      </c>
+      <c r="J47" t="s">
+        <v>415</v>
+      </c>
+      <c r="K47" t="s">
+        <v>416</v>
+      </c>
+      <c r="L47" t="s">
+        <v>417</v>
+      </c>
+      <c r="M47" t="n">
+        <v>4</v>
+      </c>
+      <c r="N47" t="s">
+        <v>418</v>
+      </c>
+      <c r="O47" t="s">
+        <v>69</v>
+      </c>
+      <c r="P47" t="n">
+        <v>2</v>
+      </c>
+      <c r="Q47" t="n">
+        <v>4</v>
+      </c>
+      <c r="R47" t="n">
+        <v>5</v>
+      </c>
+      <c r="S47" t="n">
+        <v>4</v>
+      </c>
+      <c r="T47" t="s"/>
+      <c r="U47" t="n">
+        <v>4</v>
+      </c>
+      <c r="V47" t="n">
+        <v>0</v>
+      </c>
+      <c r="W47" t="s"/>
+      <c r="X47" t="s"/>
+      <c r="Y47" t="s">
+        <v>417</v>
+      </c>
+    </row>
+    <row r="48">
+      <c r="A48" t="n">
+        <v>42102</v>
+      </c>
+      <c r="B48" t="s"/>
+      <c r="C48" t="s"/>
+      <c r="D48" t="n">
+        <v>47</v>
+      </c>
+      <c r="E48" t="s">
+        <v>43</v>
+      </c>
+      <c r="F48" t="s">
+        <v>419</v>
+      </c>
+      <c r="G48" t="s">
+        <v>45</v>
+      </c>
+      <c r="H48" t="s">
+        <v>46</v>
+      </c>
+      <c r="I48" t="s">
+        <v>420</v>
+      </c>
+      <c r="J48" t="s">
+        <v>421</v>
+      </c>
+      <c r="K48" t="s">
+        <v>422</v>
+      </c>
+      <c r="L48" t="s">
+        <v>423</v>
+      </c>
+      <c r="M48" t="n">
+        <v>5</v>
+      </c>
+      <c r="N48" t="s">
+        <v>418</v>
+      </c>
+      <c r="O48" t="s">
+        <v>52</v>
+      </c>
+      <c r="P48" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q48" t="n">
+        <v>5</v>
+      </c>
+      <c r="R48" t="n">
+        <v>5</v>
+      </c>
+      <c r="S48" t="n">
+        <v>5</v>
+      </c>
+      <c r="T48" t="s"/>
+      <c r="U48" t="n">
+        <v>5</v>
+      </c>
+      <c r="V48" t="n">
+        <v>0</v>
+      </c>
+      <c r="W48" t="s">
+        <v>424</v>
+      </c>
+      <c r="X48" t="s">
+        <v>425</v>
+      </c>
+      <c r="Y48" t="s">
+        <v>426</v>
+      </c>
+    </row>
+    <row r="49">
+      <c r="A49" t="n">
+        <v>42102</v>
+      </c>
+      <c r="B49" t="s"/>
+      <c r="C49" t="s"/>
+      <c r="D49" t="n">
+        <v>48</v>
+      </c>
+      <c r="E49" t="s">
+        <v>43</v>
+      </c>
+      <c r="F49" t="s">
+        <v>427</v>
+      </c>
+      <c r="G49" t="s">
+        <v>45</v>
+      </c>
+      <c r="H49" t="s">
+        <v>46</v>
+      </c>
+      <c r="I49" t="s">
+        <v>428</v>
+      </c>
+      <c r="J49" t="s">
+        <v>429</v>
+      </c>
+      <c r="K49" t="s">
+        <v>430</v>
+      </c>
+      <c r="L49" t="s">
+        <v>431</v>
+      </c>
+      <c r="M49" t="n">
+        <v>1</v>
+      </c>
+      <c r="N49" t="s">
+        <v>418</v>
+      </c>
+      <c r="O49" t="s">
+        <v>121</v>
+      </c>
+      <c r="P49" t="n">
+        <v>1</v>
+      </c>
+      <c r="Q49" t="n">
+        <v>2</v>
+      </c>
+      <c r="R49" t="n">
+        <v>2</v>
+      </c>
+      <c r="S49" t="n">
+        <v>1</v>
+      </c>
+      <c r="T49" t="s"/>
+      <c r="U49" t="n">
+        <v>1</v>
+      </c>
+      <c r="V49" t="n">
+        <v>0</v>
+      </c>
+      <c r="W49" t="s">
+        <v>432</v>
+      </c>
+      <c r="X49" t="s">
+        <v>433</v>
+      </c>
+      <c r="Y49" t="s">
+        <v>434</v>
+      </c>
+    </row>
+    <row r="50">
+      <c r="A50" t="n">
+        <v>42102</v>
+      </c>
+      <c r="B50" t="s"/>
+      <c r="C50" t="s"/>
+      <c r="D50" t="n">
+        <v>49</v>
+      </c>
+      <c r="E50" t="s">
+        <v>43</v>
+      </c>
+      <c r="F50" t="s">
+        <v>435</v>
+      </c>
+      <c r="G50" t="s">
+        <v>45</v>
+      </c>
+      <c r="H50" t="s">
+        <v>46</v>
+      </c>
+      <c r="I50" t="s">
+        <v>436</v>
+      </c>
+      <c r="J50" t="s">
+        <v>437</v>
+      </c>
+      <c r="K50" t="s">
+        <v>438</v>
+      </c>
+      <c r="L50" t="s">
+        <v>439</v>
+      </c>
+      <c r="M50" t="n">
+        <v>4</v>
+      </c>
+      <c r="N50" t="s">
+        <v>440</v>
+      </c>
+      <c r="O50" t="s">
+        <v>69</v>
+      </c>
+      <c r="P50" t="n">
+        <v>4</v>
+      </c>
+      <c r="Q50" t="n">
+        <v>3</v>
+      </c>
+      <c r="R50" t="n">
+        <v>5</v>
+      </c>
+      <c r="S50" t="n">
+        <v>4</v>
+      </c>
+      <c r="T50" t="s"/>
+      <c r="U50" t="n">
+        <v>5</v>
+      </c>
+      <c r="V50" t="n">
+        <v>0</v>
+      </c>
+      <c r="W50" t="s"/>
+      <c r="X50" t="s"/>
+      <c r="Y50" t="s">
+        <v>439</v>
+      </c>
+    </row>
+    <row r="51">
+      <c r="A51" t="n">
+        <v>42102</v>
+      </c>
+      <c r="B51" t="s"/>
+      <c r="C51" t="s"/>
+      <c r="D51" t="n">
+        <v>50</v>
+      </c>
+      <c r="E51" t="s">
+        <v>43</v>
+      </c>
+      <c r="F51" t="s">
+        <v>441</v>
+      </c>
+      <c r="G51" t="s">
+        <v>45</v>
+      </c>
+      <c r="H51" t="s">
+        <v>46</v>
+      </c>
+      <c r="I51" t="s">
+        <v>442</v>
+      </c>
+      <c r="J51" t="s">
+        <v>443</v>
+      </c>
+      <c r="K51" t="s">
+        <v>444</v>
+      </c>
+      <c r="L51" t="s">
+        <v>445</v>
+      </c>
+      <c r="M51" t="n">
+        <v>4</v>
+      </c>
+      <c r="N51" t="s">
+        <v>446</v>
+      </c>
+      <c r="O51" t="s">
+        <v>69</v>
+      </c>
+      <c r="P51" t="n">
+        <v>4</v>
+      </c>
+      <c r="Q51" t="n">
+        <v>3</v>
+      </c>
+      <c r="R51" t="n">
+        <v>4</v>
+      </c>
+      <c r="S51" t="n">
+        <v>3</v>
+      </c>
+      <c r="T51" t="s"/>
+      <c r="U51" t="n">
+        <v>5</v>
+      </c>
+      <c r="V51" t="n">
+        <v>0</v>
+      </c>
+      <c r="W51" t="s">
+        <v>447</v>
+      </c>
+      <c r="X51" t="s">
+        <v>448</v>
+      </c>
+      <c r="Y51" t="s">
+        <v>449</v>
+      </c>
+    </row>
+    <row r="52">
+      <c r="A52" t="n">
+        <v>42102</v>
+      </c>
+      <c r="B52" t="s"/>
+      <c r="C52" t="s"/>
+      <c r="D52" t="n">
+        <v>51</v>
+      </c>
+      <c r="E52" t="s">
+        <v>43</v>
+      </c>
+      <c r="F52" t="s">
+        <v>450</v>
+      </c>
+      <c r="G52" t="s">
+        <v>45</v>
+      </c>
+      <c r="H52" t="s">
+        <v>46</v>
+      </c>
+      <c r="I52" t="s">
+        <v>451</v>
+      </c>
+      <c r="J52" t="s">
+        <v>452</v>
+      </c>
+      <c r="K52" t="s">
+        <v>453</v>
+      </c>
+      <c r="L52" t="s">
+        <v>454</v>
+      </c>
+      <c r="M52" t="n">
+        <v>2</v>
+      </c>
+      <c r="N52" t="s">
+        <v>455</v>
+      </c>
+      <c r="O52" t="s">
+        <v>69</v>
+      </c>
+      <c r="P52" t="n">
+        <v>2</v>
+      </c>
+      <c r="Q52" t="n">
+        <v>3</v>
+      </c>
+      <c r="R52" t="n">
+        <v>2</v>
+      </c>
+      <c r="S52" t="n">
+        <v>1</v>
+      </c>
+      <c r="T52" t="s"/>
+      <c r="U52" t="n">
+        <v>3</v>
+      </c>
+      <c r="V52" t="n">
+        <v>0</v>
+      </c>
+      <c r="W52" t="s">
+        <v>447</v>
+      </c>
+      <c r="X52" t="s">
+        <v>448</v>
+      </c>
+      <c r="Y52" t="s">
+        <v>456</v>
+      </c>
+    </row>
+    <row r="53">
+      <c r="A53" t="n">
+        <v>42102</v>
+      </c>
+      <c r="B53" t="s"/>
+      <c r="C53" t="s"/>
+      <c r="D53" t="n">
+        <v>52</v>
+      </c>
+      <c r="E53" t="s">
+        <v>43</v>
+      </c>
+      <c r="F53" t="s">
+        <v>457</v>
+      </c>
+      <c r="G53" t="s">
+        <v>45</v>
+      </c>
+      <c r="H53" t="s">
+        <v>46</v>
+      </c>
+      <c r="I53" t="s">
+        <v>458</v>
+      </c>
+      <c r="J53" t="s">
+        <v>459</v>
+      </c>
+      <c r="K53" t="s">
+        <v>460</v>
+      </c>
+      <c r="L53" t="s">
+        <v>461</v>
+      </c>
+      <c r="M53" t="n">
+        <v>3</v>
+      </c>
+      <c r="N53" t="s"/>
+      <c r="O53" t="s"/>
+      <c r="P53" t="n">
+        <v>3</v>
+      </c>
+      <c r="Q53" t="n">
+        <v>2</v>
+      </c>
+      <c r="R53" t="n">
+        <v>3</v>
+      </c>
+      <c r="S53" t="n">
+        <v>2</v>
+      </c>
+      <c r="T53" t="s"/>
+      <c r="U53" t="n">
+        <v>3</v>
+      </c>
+      <c r="V53" t="n">
+        <v>0</v>
+      </c>
+      <c r="W53" t="s">
+        <v>462</v>
+      </c>
+      <c r="X53" t="s">
+        <v>463</v>
+      </c>
+      <c r="Y53" t="s">
+        <v>464</v>
+      </c>
+    </row>
+    <row r="54">
+      <c r="A54" t="n">
+        <v>42102</v>
+      </c>
+      <c r="B54" t="s"/>
+      <c r="C54" t="s"/>
+      <c r="D54" t="n">
+        <v>53</v>
+      </c>
+      <c r="E54" t="s">
+        <v>43</v>
+      </c>
+      <c r="F54" t="s">
+        <v>465</v>
+      </c>
+      <c r="G54" t="s">
+        <v>45</v>
+      </c>
+      <c r="H54" t="s">
+        <v>46</v>
+      </c>
+      <c r="I54" t="s">
+        <v>466</v>
+      </c>
+      <c r="J54" t="s">
+        <v>467</v>
+      </c>
+      <c r="K54" t="s">
+        <v>468</v>
+      </c>
+      <c r="L54" t="s">
+        <v>469</v>
+      </c>
+      <c r="M54" t="n">
+        <v>1</v>
+      </c>
+      <c r="N54" t="s">
+        <v>470</v>
+      </c>
+      <c r="O54" t="s">
+        <v>59</v>
+      </c>
+      <c r="P54" t="n">
+        <v>1</v>
+      </c>
+      <c r="Q54" t="n">
+        <v>1</v>
+      </c>
+      <c r="R54" t="n">
+        <v>3</v>
+      </c>
+      <c r="S54" t="n">
+        <v>1</v>
+      </c>
+      <c r="T54" t="s"/>
+      <c r="U54" t="n">
+        <v>3</v>
+      </c>
+      <c r="V54" t="n">
+        <v>0</v>
+      </c>
+      <c r="W54" t="s">
+        <v>471</v>
+      </c>
+      <c r="X54" t="s">
+        <v>472</v>
+      </c>
+      <c r="Y54" t="s">
+        <v>473</v>
+      </c>
+    </row>
+    <row r="55">
+      <c r="A55" t="n">
+        <v>42102</v>
+      </c>
+      <c r="B55" t="s"/>
+      <c r="C55" t="s"/>
+      <c r="D55" t="n">
+        <v>54</v>
+      </c>
+      <c r="E55" t="s">
+        <v>43</v>
+      </c>
+      <c r="F55" t="s">
+        <v>474</v>
+      </c>
+      <c r="G55" t="s">
+        <v>45</v>
+      </c>
+      <c r="H55" t="s">
+        <v>46</v>
+      </c>
+      <c r="I55" t="s">
+        <v>475</v>
+      </c>
+      <c r="J55" t="s">
+        <v>476</v>
+      </c>
+      <c r="K55" t="s">
+        <v>477</v>
+      </c>
+      <c r="L55" t="s">
+        <v>478</v>
+      </c>
+      <c r="M55" t="n">
+        <v>3</v>
+      </c>
+      <c r="N55" t="s">
+        <v>455</v>
+      </c>
+      <c r="O55" t="s">
+        <v>52</v>
+      </c>
+      <c r="P55" t="n">
+        <v>4</v>
+      </c>
+      <c r="Q55" t="n">
+        <v>3</v>
+      </c>
+      <c r="R55" t="n">
+        <v>3</v>
+      </c>
+      <c r="S55" t="n">
+        <v>4</v>
+      </c>
+      <c r="T55" t="s"/>
+      <c r="U55" t="n">
+        <v>4</v>
+      </c>
+      <c r="V55" t="n">
+        <v>0</v>
+      </c>
+      <c r="W55" t="s">
+        <v>479</v>
+      </c>
+      <c r="X55" t="s">
+        <v>480</v>
+      </c>
+      <c r="Y55" t="s">
+        <v>481</v>
+      </c>
+    </row>
+    <row r="56">
+      <c r="A56" t="n">
+        <v>42102</v>
+      </c>
+      <c r="B56" t="s"/>
+      <c r="C56" t="s"/>
+      <c r="D56" t="n">
+        <v>55</v>
+      </c>
+      <c r="E56" t="s">
+        <v>43</v>
+      </c>
+      <c r="F56" t="s">
+        <v>482</v>
+      </c>
+      <c r="G56" t="s">
+        <v>45</v>
+      </c>
+      <c r="H56" t="s">
+        <v>46</v>
+      </c>
+      <c r="I56" t="s">
+        <v>483</v>
+      </c>
+      <c r="J56" t="s">
+        <v>484</v>
+      </c>
+      <c r="K56" t="s">
+        <v>485</v>
+      </c>
+      <c r="L56" t="s">
+        <v>486</v>
+      </c>
+      <c r="M56" t="n">
+        <v>2</v>
+      </c>
+      <c r="N56" t="s">
+        <v>487</v>
+      </c>
+      <c r="O56" t="s">
+        <v>59</v>
+      </c>
+      <c r="P56" t="n">
+        <v>2</v>
+      </c>
+      <c r="Q56" t="n">
+        <v>2</v>
+      </c>
+      <c r="R56" t="n">
+        <v>2</v>
+      </c>
+      <c r="S56" t="n">
+        <v>2</v>
+      </c>
+      <c r="T56" t="s"/>
+      <c r="U56" t="n">
+        <v>2</v>
+      </c>
+      <c r="V56" t="n">
+        <v>0</v>
+      </c>
+      <c r="W56" t="s"/>
+      <c r="X56" t="s"/>
+      <c r="Y56" t="s">
+        <v>488</v>
+      </c>
+    </row>
+    <row r="57">
+      <c r="A57" t="n">
+        <v>42102</v>
+      </c>
+      <c r="B57" t="s"/>
+      <c r="C57" t="s"/>
+      <c r="D57" t="n">
+        <v>56</v>
+      </c>
+      <c r="E57" t="s">
+        <v>43</v>
+      </c>
+      <c r="F57" t="s">
+        <v>489</v>
+      </c>
+      <c r="G57" t="s">
+        <v>45</v>
+      </c>
+      <c r="H57" t="s">
+        <v>46</v>
+      </c>
+      <c r="I57" t="s">
+        <v>490</v>
+      </c>
+      <c r="J57" t="s">
+        <v>491</v>
+      </c>
+      <c r="K57" t="s">
+        <v>492</v>
+      </c>
+      <c r="L57" t="s">
+        <v>493</v>
+      </c>
+      <c r="M57" t="n">
+        <v>2</v>
+      </c>
+      <c r="N57" t="s">
+        <v>487</v>
+      </c>
+      <c r="O57" t="s">
+        <v>59</v>
+      </c>
+      <c r="P57" t="n">
+        <v>3</v>
+      </c>
+      <c r="Q57" t="n">
+        <v>2</v>
+      </c>
+      <c r="R57" t="n">
+        <v>1</v>
+      </c>
+      <c r="S57" t="n">
+        <v>2</v>
+      </c>
+      <c r="T57" t="s"/>
+      <c r="U57" t="n">
+        <v>1</v>
+      </c>
+      <c r="V57" t="n">
+        <v>0</v>
+      </c>
+      <c r="W57" t="s">
+        <v>494</v>
+      </c>
+      <c r="X57" t="s">
+        <v>495</v>
+      </c>
+      <c r="Y57" t="s">
+        <v>496</v>
+      </c>
+    </row>
+    <row r="58">
+      <c r="A58" t="n">
+        <v>42102</v>
+      </c>
+      <c r="B58" t="s"/>
+      <c r="C58" t="s"/>
+      <c r="D58" t="n">
+        <v>57</v>
+      </c>
+      <c r="E58" t="s">
+        <v>43</v>
+      </c>
+      <c r="F58" t="s">
+        <v>497</v>
+      </c>
+      <c r="G58" t="s">
+        <v>45</v>
+      </c>
+      <c r="H58" t="s">
+        <v>46</v>
+      </c>
+      <c r="I58" t="s">
+        <v>498</v>
+      </c>
+      <c r="J58" t="s">
+        <v>499</v>
+      </c>
+      <c r="K58" t="s">
+        <v>500</v>
+      </c>
+      <c r="L58" t="s">
+        <v>501</v>
+      </c>
+      <c r="M58" t="n">
+        <v>3</v>
+      </c>
+      <c r="N58" t="s">
+        <v>487</v>
+      </c>
+      <c r="O58" t="s">
+        <v>69</v>
+      </c>
+      <c r="P58" t="n">
+        <v>3</v>
+      </c>
+      <c r="Q58" t="n">
+        <v>3</v>
+      </c>
+      <c r="R58" t="n">
+        <v>3</v>
+      </c>
+      <c r="S58" t="n">
+        <v>2</v>
+      </c>
+      <c r="T58" t="s"/>
+      <c r="U58" t="n">
+        <v>3</v>
+      </c>
+      <c r="V58" t="n">
+        <v>0</v>
+      </c>
+      <c r="W58" t="s">
+        <v>502</v>
+      </c>
+      <c r="X58" t="s">
+        <v>503</v>
+      </c>
+      <c r="Y58" t="s">
+        <v>504</v>
+      </c>
+    </row>
+    <row r="59">
+      <c r="A59" t="n">
+        <v>42102</v>
+      </c>
+      <c r="B59" t="s"/>
+      <c r="C59" t="s"/>
+      <c r="D59" t="n">
+        <v>58</v>
+      </c>
+      <c r="E59" t="s">
+        <v>43</v>
+      </c>
+      <c r="F59" t="s">
+        <v>505</v>
+      </c>
+      <c r="G59" t="s">
+        <v>45</v>
+      </c>
+      <c r="H59" t="s">
+        <v>46</v>
+      </c>
+      <c r="I59" t="s">
+        <v>506</v>
+      </c>
+      <c r="J59" t="s">
+        <v>507</v>
+      </c>
+      <c r="K59" t="s">
+        <v>508</v>
+      </c>
+      <c r="L59" t="s">
+        <v>509</v>
+      </c>
+      <c r="M59" t="n">
+        <v>1</v>
+      </c>
+      <c r="N59" t="s">
+        <v>510</v>
+      </c>
+      <c r="O59" t="s">
+        <v>121</v>
+      </c>
+      <c r="P59" t="n">
+        <v>1</v>
+      </c>
+      <c r="Q59" t="n">
+        <v>1</v>
+      </c>
+      <c r="R59" t="n">
+        <v>5</v>
+      </c>
+      <c r="S59" t="n">
+        <v>1</v>
+      </c>
+      <c r="T59" t="s"/>
+      <c r="U59" t="n">
+        <v>1</v>
+      </c>
+      <c r="V59" t="n">
+        <v>0</v>
+      </c>
+      <c r="W59" t="s">
+        <v>511</v>
+      </c>
+      <c r="X59" t="s">
+        <v>512</v>
+      </c>
+      <c r="Y59" t="s">
+        <v>513</v>
+      </c>
+    </row>
+    <row r="60">
+      <c r="A60" t="n">
+        <v>42102</v>
+      </c>
+      <c r="B60" t="s"/>
+      <c r="C60" t="s"/>
+      <c r="D60" t="n">
+        <v>59</v>
+      </c>
+      <c r="E60" t="s">
+        <v>43</v>
+      </c>
+      <c r="F60" t="s">
+        <v>514</v>
+      </c>
+      <c r="G60" t="s">
+        <v>45</v>
+      </c>
+      <c r="H60" t="s">
+        <v>46</v>
+      </c>
+      <c r="I60" t="s">
+        <v>515</v>
+      </c>
+      <c r="J60" t="s">
+        <v>516</v>
+      </c>
+      <c r="K60" t="s">
+        <v>517</v>
+      </c>
+      <c r="L60" t="s">
+        <v>518</v>
+      </c>
+      <c r="M60" t="n">
+        <v>3</v>
+      </c>
+      <c r="N60" t="s">
+        <v>510</v>
+      </c>
+      <c r="O60" t="s">
+        <v>52</v>
+      </c>
+      <c r="P60" t="s"/>
+      <c r="Q60" t="s"/>
+      <c r="R60" t="s"/>
+      <c r="S60" t="s"/>
+      <c r="T60" t="s"/>
+      <c r="U60" t="s"/>
+      <c r="V60" t="n">
+        <v>0</v>
+      </c>
+      <c r="W60" t="s">
+        <v>519</v>
+      </c>
+      <c r="X60" t="s">
+        <v>520</v>
+      </c>
+      <c r="Y60" t="s">
+        <v>521</v>
+      </c>
+    </row>
+    <row r="61">
+      <c r="A61" t="n">
+        <v>42102</v>
+      </c>
+      <c r="B61" t="s"/>
+      <c r="C61" t="s"/>
+      <c r="D61" t="n">
+        <v>60</v>
+      </c>
+      <c r="E61" t="s">
+        <v>43</v>
+      </c>
+      <c r="F61" t="s">
+        <v>522</v>
+      </c>
+      <c r="G61" t="s">
+        <v>45</v>
+      </c>
+      <c r="H61" t="s">
+        <v>46</v>
+      </c>
+      <c r="I61" t="s">
+        <v>523</v>
+      </c>
+      <c r="J61" t="s">
+        <v>524</v>
+      </c>
+      <c r="K61" t="s">
+        <v>525</v>
+      </c>
+      <c r="L61" t="s">
+        <v>526</v>
+      </c>
+      <c r="M61" t="n">
+        <v>5</v>
+      </c>
+      <c r="N61" t="s">
+        <v>510</v>
+      </c>
+      <c r="O61" t="s">
+        <v>69</v>
+      </c>
+      <c r="P61" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q61" t="n">
+        <v>5</v>
+      </c>
+      <c r="R61" t="n">
+        <v>5</v>
+      </c>
+      <c r="S61" t="n">
+        <v>5</v>
+      </c>
+      <c r="T61" t="s"/>
+      <c r="U61" t="n">
+        <v>5</v>
+      </c>
+      <c r="V61" t="n">
+        <v>0</v>
+      </c>
+      <c r="W61" t="s">
+        <v>527</v>
+      </c>
+      <c r="X61" t="s">
+        <v>528</v>
+      </c>
+      <c r="Y61" t="s">
+        <v>529</v>
+      </c>
+    </row>
+    <row r="62">
+      <c r="A62" t="n">
+        <v>42102</v>
+      </c>
+      <c r="B62" t="s"/>
+      <c r="C62" t="s"/>
+      <c r="D62" t="n">
+        <v>61</v>
+      </c>
+      <c r="E62" t="s">
+        <v>43</v>
+      </c>
+      <c r="F62" t="s">
+        <v>530</v>
+      </c>
+      <c r="G62" t="s">
+        <v>45</v>
+      </c>
+      <c r="H62" t="s">
+        <v>46</v>
+      </c>
+      <c r="I62" t="s">
+        <v>531</v>
+      </c>
+      <c r="J62" t="s">
+        <v>532</v>
+      </c>
+      <c r="K62" t="s">
+        <v>533</v>
+      </c>
+      <c r="L62" t="s">
+        <v>534</v>
+      </c>
+      <c r="M62" t="n">
+        <v>5</v>
+      </c>
+      <c r="N62" t="s"/>
+      <c r="O62" t="s"/>
+      <c r="P62" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q62" t="n">
+        <v>5</v>
+      </c>
+      <c r="R62" t="n">
+        <v>5</v>
+      </c>
+      <c r="S62" t="n">
+        <v>5</v>
+      </c>
+      <c r="T62" t="s"/>
+      <c r="U62" t="n">
+        <v>5</v>
+      </c>
+      <c r="V62" t="n">
+        <v>0</v>
+      </c>
+      <c r="W62" t="s">
+        <v>535</v>
+      </c>
+      <c r="X62" t="s">
+        <v>536</v>
+      </c>
+      <c r="Y62" t="s">
+        <v>537</v>
+      </c>
+    </row>
+    <row r="63">
+      <c r="A63" t="n">
+        <v>42102</v>
+      </c>
+      <c r="B63" t="s"/>
+      <c r="C63" t="s"/>
+      <c r="D63" t="n">
+        <v>62</v>
+      </c>
+      <c r="E63" t="s">
+        <v>43</v>
+      </c>
+      <c r="F63" t="s">
+        <v>538</v>
+      </c>
+      <c r="G63" t="s">
+        <v>45</v>
+      </c>
+      <c r="H63" t="s">
+        <v>46</v>
+      </c>
+      <c r="I63" t="s">
+        <v>539</v>
+      </c>
+      <c r="J63" t="s">
+        <v>540</v>
+      </c>
+      <c r="K63" t="s">
+        <v>541</v>
+      </c>
+      <c r="L63" t="s">
+        <v>542</v>
+      </c>
+      <c r="M63" t="n">
+        <v>5</v>
+      </c>
+      <c r="N63" t="s"/>
+      <c r="O63" t="s"/>
+      <c r="P63" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q63" t="n">
+        <v>5</v>
+      </c>
+      <c r="R63" t="n">
+        <v>5</v>
+      </c>
+      <c r="S63" t="n">
+        <v>5</v>
+      </c>
+      <c r="T63" t="s"/>
+      <c r="U63" t="n">
+        <v>5</v>
+      </c>
+      <c r="V63" t="n">
+        <v>0</v>
+      </c>
+      <c r="W63" t="s">
+        <v>543</v>
+      </c>
+      <c r="X63" t="s">
+        <v>544</v>
+      </c>
+      <c r="Y63" t="s">
+        <v>545</v>
+      </c>
+    </row>
+    <row r="64">
+      <c r="A64" t="n">
+        <v>42102</v>
+      </c>
+      <c r="B64" t="s"/>
+      <c r="C64" t="s"/>
+      <c r="D64" t="n">
+        <v>63</v>
+      </c>
+      <c r="E64" t="s">
+        <v>43</v>
+      </c>
+      <c r="F64" t="s">
+        <v>546</v>
+      </c>
+      <c r="G64" t="s">
+        <v>45</v>
+      </c>
+      <c r="H64" t="s">
+        <v>46</v>
+      </c>
+      <c r="I64" t="s">
+        <v>547</v>
+      </c>
+      <c r="J64" t="s">
+        <v>540</v>
+      </c>
+      <c r="K64" t="s">
+        <v>548</v>
+      </c>
+      <c r="L64" t="s">
+        <v>549</v>
+      </c>
+      <c r="M64" t="n">
+        <v>5</v>
+      </c>
+      <c r="N64" t="s">
+        <v>550</v>
+      </c>
+      <c r="O64" t="s">
+        <v>69</v>
+      </c>
+      <c r="P64" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q64" t="n">
+        <v>5</v>
+      </c>
+      <c r="R64" t="n">
+        <v>5</v>
+      </c>
+      <c r="S64" t="n">
+        <v>5</v>
+      </c>
+      <c r="T64" t="s"/>
+      <c r="U64" t="n">
+        <v>5</v>
+      </c>
+      <c r="V64" t="n">
+        <v>0</v>
+      </c>
+      <c r="W64" t="s">
+        <v>535</v>
+      </c>
+      <c r="X64" t="s">
+        <v>536</v>
+      </c>
+      <c r="Y64" t="s">
+        <v>551</v>
+      </c>
+    </row>
+    <row r="65">
+      <c r="A65" t="n">
+        <v>42102</v>
+      </c>
+      <c r="B65" t="s"/>
+      <c r="C65" t="s"/>
+      <c r="D65" t="n">
+        <v>64</v>
+      </c>
+      <c r="E65" t="s">
+        <v>43</v>
+      </c>
+      <c r="F65" t="s">
+        <v>552</v>
+      </c>
+      <c r="G65" t="s">
+        <v>45</v>
+      </c>
+      <c r="H65" t="s">
+        <v>46</v>
+      </c>
+      <c r="I65" t="s">
+        <v>553</v>
+      </c>
+      <c r="J65" t="s">
+        <v>554</v>
+      </c>
+      <c r="K65" t="s">
+        <v>555</v>
+      </c>
+      <c r="L65" t="s">
+        <v>556</v>
+      </c>
+      <c r="M65" t="n">
+        <v>5</v>
+      </c>
+      <c r="N65" t="s">
+        <v>557</v>
+      </c>
+      <c r="O65" t="s">
+        <v>52</v>
+      </c>
+      <c r="P65" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q65" t="n">
+        <v>5</v>
+      </c>
+      <c r="R65" t="n">
+        <v>5</v>
+      </c>
+      <c r="S65" t="n">
+        <v>5</v>
+      </c>
+      <c r="T65" t="s"/>
+      <c r="U65" t="n">
+        <v>5</v>
+      </c>
+      <c r="V65" t="n">
+        <v>0</v>
+      </c>
+      <c r="W65" t="s">
+        <v>558</v>
+      </c>
+      <c r="X65" t="s">
+        <v>559</v>
+      </c>
+      <c r="Y65" t="s">
+        <v>560</v>
+      </c>
+    </row>
+    <row r="66">
+      <c r="A66" t="n">
+        <v>42102</v>
+      </c>
+      <c r="B66" t="s"/>
+      <c r="C66" t="s"/>
+      <c r="D66" t="n">
+        <v>65</v>
+      </c>
+      <c r="E66" t="s">
+        <v>43</v>
+      </c>
+      <c r="F66" t="s">
+        <v>561</v>
+      </c>
+      <c r="G66" t="s">
+        <v>45</v>
+      </c>
+      <c r="H66" t="s">
+        <v>46</v>
+      </c>
+      <c r="I66" t="s">
+        <v>562</v>
+      </c>
+      <c r="J66" t="s">
+        <v>563</v>
+      </c>
+      <c r="K66" t="s">
+        <v>564</v>
+      </c>
+      <c r="L66" t="s">
+        <v>565</v>
+      </c>
+      <c r="M66" t="n">
+        <v>5</v>
+      </c>
+      <c r="N66" t="s">
+        <v>566</v>
+      </c>
+      <c r="O66" t="s">
+        <v>69</v>
+      </c>
+      <c r="P66" t="n">
+        <v>3</v>
+      </c>
+      <c r="Q66" t="n">
+        <v>3</v>
+      </c>
+      <c r="R66" t="n">
+        <v>3</v>
+      </c>
+      <c r="S66" t="n">
+        <v>3</v>
+      </c>
+      <c r="T66" t="s"/>
+      <c r="U66" t="n">
+        <v>4</v>
+      </c>
+      <c r="V66" t="n">
+        <v>0</v>
+      </c>
+      <c r="W66" t="s">
+        <v>567</v>
+      </c>
+      <c r="X66" t="s">
+        <v>568</v>
+      </c>
+      <c r="Y66" t="s">
+        <v>569</v>
+      </c>
+    </row>
+    <row r="67">
+      <c r="A67" t="n">
+        <v>42102</v>
+      </c>
+      <c r="B67" t="s"/>
+      <c r="C67" t="s"/>
+      <c r="D67" t="n">
+        <v>66</v>
+      </c>
+      <c r="E67" t="s">
+        <v>43</v>
+      </c>
+      <c r="F67" t="s">
+        <v>570</v>
+      </c>
+      <c r="G67" t="s">
+        <v>45</v>
+      </c>
+      <c r="H67" t="s">
+        <v>46</v>
+      </c>
+      <c r="I67" t="s">
+        <v>571</v>
+      </c>
+      <c r="J67" t="s">
+        <v>572</v>
+      </c>
+      <c r="K67" t="s">
+        <v>573</v>
+      </c>
+      <c r="L67" t="s">
+        <v>574</v>
+      </c>
+      <c r="M67" t="n">
+        <v>5</v>
+      </c>
+      <c r="N67" t="s">
+        <v>566</v>
+      </c>
+      <c r="O67" t="s">
+        <v>69</v>
+      </c>
+      <c r="P67" t="n">
+        <v>4</v>
+      </c>
+      <c r="Q67" t="n">
+        <v>5</v>
+      </c>
+      <c r="R67" t="n">
+        <v>4</v>
+      </c>
+      <c r="S67" t="n">
+        <v>5</v>
+      </c>
+      <c r="T67" t="s"/>
+      <c r="U67" t="n">
+        <v>5</v>
+      </c>
+      <c r="V67" t="n">
+        <v>0</v>
+      </c>
+      <c r="W67" t="s">
+        <v>575</v>
+      </c>
+      <c r="X67" t="s">
+        <v>576</v>
+      </c>
+      <c r="Y67" t="s">
+        <v>577</v>
+      </c>
+    </row>
+    <row r="68">
+      <c r="A68" t="n">
+        <v>42102</v>
+      </c>
+      <c r="B68" t="s"/>
+      <c r="C68" t="s"/>
+      <c r="D68" t="n">
+        <v>67</v>
+      </c>
+      <c r="E68" t="s">
+        <v>43</v>
+      </c>
+      <c r="F68" t="s">
+        <v>578</v>
+      </c>
+      <c r="G68" t="s">
+        <v>45</v>
+      </c>
+      <c r="H68" t="s">
+        <v>46</v>
+      </c>
+      <c r="I68" t="s">
+        <v>579</v>
+      </c>
+      <c r="J68" t="s">
+        <v>580</v>
+      </c>
+      <c r="K68" t="s">
+        <v>581</v>
+      </c>
+      <c r="L68" t="s">
+        <v>582</v>
+      </c>
+      <c r="M68" t="n">
+        <v>5</v>
+      </c>
+      <c r="N68" t="s">
+        <v>583</v>
+      </c>
+      <c r="O68" t="s">
+        <v>59</v>
+      </c>
+      <c r="P68" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q68" t="n">
+        <v>5</v>
+      </c>
+      <c r="R68" t="n">
+        <v>5</v>
+      </c>
+      <c r="S68" t="n">
+        <v>5</v>
+      </c>
+      <c r="T68" t="s"/>
+      <c r="U68" t="n">
+        <v>5</v>
+      </c>
+      <c r="V68" t="n">
+        <v>0</v>
+      </c>
+      <c r="W68" t="s">
+        <v>584</v>
+      </c>
+      <c r="X68" t="s">
+        <v>585</v>
+      </c>
+      <c r="Y68" t="s">
+        <v>586</v>
+      </c>
+    </row>
+    <row r="69">
+      <c r="A69" t="n">
+        <v>42102</v>
+      </c>
+      <c r="B69" t="s"/>
+      <c r="C69" t="s"/>
+      <c r="D69" t="n">
+        <v>68</v>
+      </c>
+      <c r="E69" t="s">
+        <v>43</v>
+      </c>
+      <c r="F69" t="s">
+        <v>587</v>
+      </c>
+      <c r="G69" t="s">
+        <v>45</v>
+      </c>
+      <c r="H69" t="s">
+        <v>46</v>
+      </c>
+      <c r="I69" t="s">
+        <v>588</v>
+      </c>
+      <c r="J69" t="s">
+        <v>589</v>
+      </c>
+      <c r="K69" t="s">
+        <v>590</v>
+      </c>
+      <c r="L69" t="s">
+        <v>591</v>
+      </c>
+      <c r="M69" t="n">
+        <v>4</v>
+      </c>
+      <c r="N69" t="s">
+        <v>592</v>
+      </c>
+      <c r="O69" t="s">
+        <v>69</v>
+      </c>
+      <c r="P69" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q69" t="n">
+        <v>4</v>
+      </c>
+      <c r="R69" t="n">
+        <v>5</v>
+      </c>
+      <c r="S69" t="n">
+        <v>5</v>
+      </c>
+      <c r="T69" t="s"/>
+      <c r="U69" t="n">
+        <v>5</v>
+      </c>
+      <c r="V69" t="n">
+        <v>0</v>
+      </c>
+      <c r="W69" t="s">
+        <v>593</v>
+      </c>
+      <c r="X69" t="s">
+        <v>594</v>
+      </c>
+      <c r="Y69" t="s">
+        <v>595</v>
+      </c>
+    </row>
+    <row r="70">
+      <c r="A70" t="n">
+        <v>42102</v>
+      </c>
+      <c r="B70" t="s"/>
+      <c r="C70" t="s"/>
+      <c r="D70" t="n">
+        <v>69</v>
+      </c>
+      <c r="E70" t="s">
+        <v>43</v>
+      </c>
+      <c r="F70" t="s">
+        <v>596</v>
+      </c>
+      <c r="G70" t="s">
+        <v>45</v>
+      </c>
+      <c r="H70" t="s">
+        <v>46</v>
+      </c>
+      <c r="I70" t="s">
+        <v>597</v>
+      </c>
+      <c r="J70" t="s">
+        <v>598</v>
+      </c>
+      <c r="K70" t="s">
+        <v>599</v>
+      </c>
+      <c r="L70" t="s">
+        <v>600</v>
+      </c>
+      <c r="M70" t="n">
+        <v>5</v>
+      </c>
+      <c r="N70" t="s">
+        <v>557</v>
+      </c>
+      <c r="O70" t="s">
+        <v>69</v>
+      </c>
+      <c r="P70" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q70" t="n">
+        <v>5</v>
+      </c>
+      <c r="R70" t="n">
+        <v>5</v>
+      </c>
+      <c r="S70" t="n">
+        <v>5</v>
+      </c>
+      <c r="T70" t="s"/>
+      <c r="U70" t="n">
+        <v>5</v>
+      </c>
+      <c r="V70" t="n">
+        <v>0</v>
+      </c>
+      <c r="W70" t="s">
+        <v>601</v>
+      </c>
+      <c r="X70" t="s">
+        <v>602</v>
+      </c>
+      <c r="Y70" t="s">
+        <v>603</v>
+      </c>
+    </row>
+    <row r="71">
+      <c r="A71" t="n">
+        <v>42102</v>
+      </c>
+      <c r="B71" t="s"/>
+      <c r="C71" t="s"/>
+      <c r="D71" t="n">
+        <v>70</v>
+      </c>
+      <c r="E71" t="s">
+        <v>43</v>
+      </c>
+      <c r="F71" t="s">
+        <v>604</v>
+      </c>
+      <c r="G71" t="s">
+        <v>45</v>
+      </c>
+      <c r="H71" t="s">
+        <v>46</v>
+      </c>
+      <c r="I71" t="s">
+        <v>605</v>
+      </c>
+      <c r="J71" t="s">
+        <v>606</v>
+      </c>
+      <c r="K71" t="s">
+        <v>607</v>
+      </c>
+      <c r="L71" t="s">
+        <v>608</v>
+      </c>
+      <c r="M71" t="n">
+        <v>5</v>
+      </c>
+      <c r="N71" t="s">
+        <v>609</v>
+      </c>
+      <c r="O71" t="s">
+        <v>59</v>
+      </c>
+      <c r="P71" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q71" t="n">
+        <v>5</v>
+      </c>
+      <c r="R71" t="n">
+        <v>5</v>
+      </c>
+      <c r="S71" t="n">
+        <v>5</v>
+      </c>
+      <c r="T71" t="s"/>
+      <c r="U71" t="n">
+        <v>5</v>
+      </c>
+      <c r="V71" t="n">
+        <v>0</v>
+      </c>
+      <c r="W71" t="s">
+        <v>610</v>
+      </c>
+      <c r="X71" t="s">
+        <v>611</v>
+      </c>
+      <c r="Y71" t="s">
+        <v>612</v>
+      </c>
+    </row>
+    <row r="72">
+      <c r="A72" t="n">
+        <v>42102</v>
+      </c>
+      <c r="B72" t="s"/>
+      <c r="C72" t="s"/>
+      <c r="D72" t="n">
+        <v>71</v>
+      </c>
+      <c r="E72" t="s">
+        <v>43</v>
+      </c>
+      <c r="F72" t="s">
+        <v>613</v>
+      </c>
+      <c r="G72" t="s">
+        <v>45</v>
+      </c>
+      <c r="H72" t="s">
+        <v>46</v>
+      </c>
+      <c r="I72" t="s">
+        <v>614</v>
+      </c>
+      <c r="J72" t="s">
+        <v>606</v>
+      </c>
+      <c r="K72" t="s">
+        <v>615</v>
+      </c>
+      <c r="L72" t="s">
+        <v>616</v>
+      </c>
+      <c r="M72" t="n">
+        <v>5</v>
+      </c>
+      <c r="N72" t="s"/>
+      <c r="O72" t="s"/>
+      <c r="P72" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q72" t="n">
+        <v>5</v>
+      </c>
+      <c r="R72" t="n">
+        <v>5</v>
+      </c>
+      <c r="S72" t="n">
+        <v>5</v>
+      </c>
+      <c r="T72" t="s"/>
+      <c r="U72" t="n">
+        <v>5</v>
+      </c>
+      <c r="V72" t="n">
+        <v>0</v>
+      </c>
+      <c r="W72" t="s">
+        <v>610</v>
+      </c>
+      <c r="X72" t="s">
+        <v>611</v>
+      </c>
+      <c r="Y72" t="s">
+        <v>617</v>
+      </c>
+    </row>
+    <row r="73">
+      <c r="A73" t="n">
+        <v>42102</v>
+      </c>
+      <c r="B73" t="s"/>
+      <c r="C73" t="s"/>
+      <c r="D73" t="n">
+        <v>72</v>
+      </c>
+      <c r="E73" t="s">
+        <v>43</v>
+      </c>
+      <c r="F73" t="s">
+        <v>618</v>
+      </c>
+      <c r="G73" t="s">
+        <v>45</v>
+      </c>
+      <c r="H73" t="s">
+        <v>46</v>
+      </c>
+      <c r="I73" t="s">
+        <v>619</v>
+      </c>
+      <c r="J73" t="s">
+        <v>620</v>
+      </c>
+      <c r="K73" t="s">
+        <v>621</v>
+      </c>
+      <c r="L73" t="s">
+        <v>622</v>
+      </c>
+      <c r="M73" t="n">
+        <v>5</v>
+      </c>
+      <c r="N73" t="s">
+        <v>557</v>
+      </c>
+      <c r="O73" t="s">
+        <v>69</v>
+      </c>
+      <c r="P73" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q73" t="n">
+        <v>5</v>
+      </c>
+      <c r="R73" t="n">
+        <v>5</v>
+      </c>
+      <c r="S73" t="n">
+        <v>5</v>
+      </c>
+      <c r="T73" t="s"/>
+      <c r="U73" t="n">
+        <v>5</v>
+      </c>
+      <c r="V73" t="n">
+        <v>0</v>
+      </c>
+      <c r="W73" t="s">
+        <v>623</v>
+      </c>
+      <c r="X73" t="s">
+        <v>624</v>
+      </c>
+      <c r="Y73" t="s">
+        <v>625</v>
+      </c>
+    </row>
+    <row r="74">
+      <c r="A74" t="n">
+        <v>42102</v>
+      </c>
+      <c r="B74" t="s"/>
+      <c r="C74" t="s"/>
+      <c r="D74" t="n">
+        <v>73</v>
+      </c>
+      <c r="E74" t="s">
+        <v>43</v>
+      </c>
+      <c r="F74" t="s">
+        <v>626</v>
+      </c>
+      <c r="G74" t="s">
+        <v>45</v>
+      </c>
+      <c r="H74" t="s">
+        <v>46</v>
+      </c>
+      <c r="I74" t="s">
+        <v>627</v>
+      </c>
+      <c r="J74" t="s">
+        <v>628</v>
+      </c>
+      <c r="K74" t="s">
+        <v>629</v>
+      </c>
+      <c r="L74" t="s">
+        <v>630</v>
+      </c>
+      <c r="M74" t="n">
+        <v>4</v>
+      </c>
+      <c r="N74" t="s">
+        <v>631</v>
+      </c>
+      <c r="O74" t="s">
+        <v>69</v>
+      </c>
+      <c r="P74" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q74" t="n">
+        <v>4</v>
+      </c>
+      <c r="R74" t="n">
+        <v>5</v>
+      </c>
+      <c r="S74" t="n">
+        <v>3</v>
+      </c>
+      <c r="T74" t="s"/>
+      <c r="U74" t="n">
+        <v>4</v>
+      </c>
+      <c r="V74" t="n">
+        <v>0</v>
+      </c>
+      <c r="W74" t="s">
+        <v>632</v>
+      </c>
+      <c r="X74" t="s">
+        <v>633</v>
+      </c>
+      <c r="Y74" t="s">
+        <v>634</v>
+      </c>
+    </row>
+    <row r="75">
+      <c r="A75" t="n">
+        <v>42102</v>
+      </c>
+      <c r="B75" t="s"/>
+      <c r="C75" t="s"/>
+      <c r="D75" t="n">
+        <v>74</v>
+      </c>
+      <c r="E75" t="s">
+        <v>43</v>
+      </c>
+      <c r="F75" t="s">
+        <v>635</v>
+      </c>
+      <c r="G75" t="s">
+        <v>45</v>
+      </c>
+      <c r="H75" t="s">
+        <v>46</v>
+      </c>
+      <c r="I75" t="s">
+        <v>636</v>
+      </c>
+      <c r="J75" t="s">
+        <v>637</v>
+      </c>
+      <c r="K75" t="s">
+        <v>638</v>
+      </c>
+      <c r="L75" t="s">
+        <v>639</v>
+      </c>
+      <c r="M75" t="n">
+        <v>5</v>
+      </c>
+      <c r="N75" t="s"/>
+      <c r="O75" t="s"/>
+      <c r="P75" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q75" t="n">
+        <v>5</v>
+      </c>
+      <c r="R75" t="n">
+        <v>5</v>
+      </c>
+      <c r="S75" t="n">
+        <v>5</v>
+      </c>
+      <c r="T75" t="s"/>
+      <c r="U75" t="n">
+        <v>5</v>
+      </c>
+      <c r="V75" t="n">
+        <v>0</v>
+      </c>
+      <c r="W75" t="s">
+        <v>640</v>
+      </c>
+      <c r="X75" t="s">
+        <v>641</v>
+      </c>
+      <c r="Y75" t="s">
+        <v>642</v>
+      </c>
+    </row>
+    <row r="76">
+      <c r="A76" t="n">
+        <v>42102</v>
+      </c>
+      <c r="B76" t="s"/>
+      <c r="C76" t="s"/>
+      <c r="D76" t="n">
+        <v>75</v>
+      </c>
+      <c r="E76" t="s">
+        <v>43</v>
+      </c>
+      <c r="F76" t="s">
+        <v>643</v>
+      </c>
+      <c r="G76" t="s">
+        <v>45</v>
+      </c>
+      <c r="H76" t="s">
+        <v>46</v>
+      </c>
+      <c r="I76" t="s">
+        <v>644</v>
+      </c>
+      <c r="J76" t="s">
+        <v>645</v>
+      </c>
+      <c r="K76" t="s">
+        <v>646</v>
+      </c>
+      <c r="L76" t="s">
+        <v>647</v>
+      </c>
+      <c r="M76" t="n">
+        <v>4</v>
+      </c>
+      <c r="N76" t="s">
+        <v>648</v>
+      </c>
+      <c r="O76" t="s">
+        <v>59</v>
+      </c>
+      <c r="P76" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q76" t="n">
+        <v>4</v>
+      </c>
+      <c r="R76" t="n">
+        <v>5</v>
+      </c>
+      <c r="S76" t="n">
+        <v>4</v>
+      </c>
+      <c r="T76" t="s"/>
+      <c r="U76" t="n">
+        <v>5</v>
+      </c>
+      <c r="V76" t="n">
+        <v>0</v>
+      </c>
+      <c r="W76" t="s">
+        <v>649</v>
+      </c>
+      <c r="X76" t="s">
+        <v>650</v>
+      </c>
+      <c r="Y76" t="s">
+        <v>651</v>
+      </c>
+    </row>
+    <row r="77">
+      <c r="A77" t="n">
+        <v>42102</v>
+      </c>
+      <c r="B77" t="s"/>
+      <c r="C77" t="s"/>
+      <c r="D77" t="n">
+        <v>76</v>
+      </c>
+      <c r="E77" t="s">
+        <v>43</v>
+      </c>
+      <c r="F77" t="s">
+        <v>652</v>
+      </c>
+      <c r="G77" t="s">
+        <v>45</v>
+      </c>
+      <c r="H77" t="s">
+        <v>46</v>
+      </c>
+      <c r="I77" t="s">
+        <v>653</v>
+      </c>
+      <c r="J77" t="s">
+        <v>654</v>
+      </c>
+      <c r="K77" t="s">
+        <v>655</v>
+      </c>
+      <c r="L77" t="s">
+        <v>656</v>
+      </c>
+      <c r="M77" t="n">
+        <v>4</v>
+      </c>
+      <c r="N77" t="s"/>
+      <c r="O77" t="s"/>
+      <c r="P77" t="n">
+        <v>4</v>
+      </c>
+      <c r="Q77" t="n">
+        <v>4</v>
+      </c>
+      <c r="R77" t="n">
+        <v>5</v>
+      </c>
+      <c r="S77" t="n">
+        <v>4</v>
+      </c>
+      <c r="T77" t="s"/>
+      <c r="U77" t="n">
+        <v>4</v>
+      </c>
+      <c r="V77" t="n">
+        <v>0</v>
+      </c>
+      <c r="W77" t="s">
+        <v>657</v>
+      </c>
+      <c r="X77" t="s">
+        <v>658</v>
+      </c>
+      <c r="Y77" t="s">
+        <v>659</v>
+      </c>
+    </row>
+    <row r="78">
+      <c r="A78" t="n">
+        <v>42102</v>
+      </c>
+      <c r="B78" t="s"/>
+      <c r="C78" t="s"/>
+      <c r="D78" t="n">
+        <v>77</v>
+      </c>
+      <c r="E78" t="s">
+        <v>43</v>
+      </c>
+      <c r="F78" t="s">
+        <v>660</v>
+      </c>
+      <c r="G78" t="s">
+        <v>45</v>
+      </c>
+      <c r="H78" t="s">
+        <v>46</v>
+      </c>
+      <c r="I78" t="s">
+        <v>661</v>
+      </c>
+      <c r="J78" t="s">
+        <v>662</v>
+      </c>
+      <c r="K78" t="s">
+        <v>663</v>
+      </c>
+      <c r="L78" t="s">
+        <v>664</v>
+      </c>
+      <c r="M78" t="n">
+        <v>1</v>
+      </c>
+      <c r="N78" t="s">
+        <v>648</v>
+      </c>
+      <c r="O78" t="s">
+        <v>59</v>
+      </c>
+      <c r="P78" t="n">
+        <v>1</v>
+      </c>
+      <c r="Q78" t="n">
+        <v>1</v>
+      </c>
+      <c r="R78" t="n">
+        <v>4</v>
+      </c>
+      <c r="S78" t="n">
+        <v>1</v>
+      </c>
+      <c r="T78" t="s"/>
+      <c r="U78" t="n">
+        <v>1</v>
+      </c>
+      <c r="V78" t="n">
+        <v>0</v>
+      </c>
+      <c r="W78" t="s">
+        <v>665</v>
+      </c>
+      <c r="X78" t="s">
+        <v>666</v>
+      </c>
+      <c r="Y78" t="s">
+        <v>667</v>
+      </c>
+    </row>
+    <row r="79">
+      <c r="A79" t="n">
+        <v>42102</v>
+      </c>
+      <c r="B79" t="s"/>
+      <c r="C79" t="s"/>
+      <c r="D79" t="n">
+        <v>78</v>
+      </c>
+      <c r="E79" t="s">
+        <v>43</v>
+      </c>
+      <c r="F79" t="s">
+        <v>668</v>
+      </c>
+      <c r="G79" t="s">
+        <v>45</v>
+      </c>
+      <c r="H79" t="s">
+        <v>46</v>
+      </c>
+      <c r="I79" t="s">
+        <v>669</v>
+      </c>
+      <c r="J79" t="s">
+        <v>670</v>
+      </c>
+      <c r="K79" t="s">
+        <v>671</v>
+      </c>
+      <c r="L79" t="s">
+        <v>672</v>
+      </c>
+      <c r="M79" t="n">
+        <v>4</v>
+      </c>
+      <c r="N79" t="s">
+        <v>673</v>
+      </c>
+      <c r="O79" t="s">
+        <v>121</v>
+      </c>
+      <c r="P79" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q79" t="n">
+        <v>5</v>
+      </c>
+      <c r="R79" t="n">
+        <v>5</v>
+      </c>
+      <c r="S79" t="n">
+        <v>3</v>
+      </c>
+      <c r="T79" t="s"/>
+      <c r="U79" t="n">
+        <v>5</v>
+      </c>
+      <c r="V79" t="n">
+        <v>0</v>
+      </c>
+      <c r="W79" t="s">
+        <v>665</v>
+      </c>
+      <c r="X79" t="s">
+        <v>666</v>
+      </c>
+      <c r="Y79" t="s">
+        <v>674</v>
+      </c>
+    </row>
+    <row r="80">
+      <c r="A80" t="n">
+        <v>42102</v>
+      </c>
+      <c r="B80" t="s"/>
+      <c r="C80" t="s"/>
+      <c r="D80" t="n">
+        <v>79</v>
+      </c>
+      <c r="E80" t="s">
+        <v>43</v>
+      </c>
+      <c r="F80" t="s">
+        <v>675</v>
+      </c>
+      <c r="G80" t="s">
+        <v>45</v>
+      </c>
+      <c r="H80" t="s">
+        <v>46</v>
+      </c>
+      <c r="I80" t="s">
+        <v>676</v>
+      </c>
+      <c r="J80" t="s">
+        <v>677</v>
+      </c>
+      <c r="K80" t="s">
+        <v>678</v>
+      </c>
+      <c r="L80" t="s">
+        <v>679</v>
+      </c>
+      <c r="M80" t="n">
+        <v>5</v>
+      </c>
+      <c r="N80" t="s">
+        <v>680</v>
+      </c>
+      <c r="O80" t="s">
+        <v>69</v>
+      </c>
+      <c r="P80" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q80" t="n">
+        <v>5</v>
+      </c>
+      <c r="R80" t="n">
+        <v>5</v>
+      </c>
+      <c r="S80" t="n">
+        <v>5</v>
+      </c>
+      <c r="T80" t="s"/>
+      <c r="U80" t="n">
+        <v>5</v>
+      </c>
+      <c r="V80" t="n">
+        <v>0</v>
+      </c>
+      <c r="W80" t="s">
+        <v>665</v>
+      </c>
+      <c r="X80" t="s">
+        <v>666</v>
+      </c>
+      <c r="Y80" t="s">
+        <v>681</v>
+      </c>
+    </row>
+    <row r="81">
+      <c r="A81" t="n">
+        <v>42102</v>
+      </c>
+      <c r="B81" t="s"/>
+      <c r="C81" t="s"/>
+      <c r="D81" t="n">
+        <v>80</v>
+      </c>
+      <c r="E81" t="s">
+        <v>43</v>
+      </c>
+      <c r="F81" t="s">
+        <v>682</v>
+      </c>
+      <c r="G81" t="s">
+        <v>45</v>
+      </c>
+      <c r="H81" t="s">
+        <v>46</v>
+      </c>
+      <c r="I81" t="s">
+        <v>683</v>
+      </c>
+      <c r="J81" t="s">
+        <v>684</v>
+      </c>
+      <c r="K81" t="s">
+        <v>685</v>
+      </c>
+      <c r="L81" t="s">
+        <v>686</v>
+      </c>
+      <c r="M81" t="n">
+        <v>4</v>
+      </c>
+      <c r="N81" t="s">
+        <v>687</v>
+      </c>
+      <c r="O81" t="s">
+        <v>69</v>
+      </c>
+      <c r="P81" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q81" t="n">
+        <v>4</v>
+      </c>
+      <c r="R81" t="n">
+        <v>5</v>
+      </c>
+      <c r="S81" t="n">
+        <v>4</v>
+      </c>
+      <c r="T81" t="s"/>
+      <c r="U81" t="n">
+        <v>5</v>
+      </c>
+      <c r="V81" t="n">
+        <v>0</v>
+      </c>
+      <c r="W81" t="s">
+        <v>688</v>
+      </c>
+      <c r="X81" t="s">
+        <v>689</v>
+      </c>
+      <c r="Y81" t="s">
+        <v>690</v>
+      </c>
+    </row>
+    <row r="82">
+      <c r="A82" t="n">
+        <v>42102</v>
+      </c>
+      <c r="B82" t="s"/>
+      <c r="C82" t="s"/>
+      <c r="D82" t="n">
+        <v>81</v>
+      </c>
+      <c r="E82" t="s">
+        <v>43</v>
+      </c>
+      <c r="F82" t="s">
+        <v>691</v>
+      </c>
+      <c r="G82" t="s">
+        <v>45</v>
+      </c>
+      <c r="H82" t="s">
+        <v>46</v>
+      </c>
+      <c r="I82" t="s">
+        <v>692</v>
+      </c>
+      <c r="J82" t="s">
+        <v>693</v>
+      </c>
+      <c r="K82" t="s">
+        <v>694</v>
+      </c>
+      <c r="L82" t="s">
+        <v>695</v>
+      </c>
+      <c r="M82" t="n">
+        <v>1</v>
+      </c>
+      <c r="N82" t="s">
+        <v>696</v>
+      </c>
+      <c r="O82" t="s">
+        <v>69</v>
+      </c>
+      <c r="P82" t="n">
+        <v>3</v>
+      </c>
+      <c r="Q82" t="s"/>
+      <c r="R82" t="s"/>
+      <c r="S82" t="n">
+        <v>1</v>
+      </c>
+      <c r="T82" t="s"/>
+      <c r="U82" t="n">
+        <v>3</v>
+      </c>
+      <c r="V82" t="n">
+        <v>0</v>
+      </c>
+      <c r="W82" t="s"/>
+      <c r="X82" t="s"/>
+      <c r="Y82" t="s">
+        <v>697</v>
+      </c>
+    </row>
+    <row r="83">
+      <c r="A83" t="n">
+        <v>42102</v>
+      </c>
+      <c r="B83" t="s"/>
+      <c r="C83" t="s"/>
+      <c r="D83" t="n">
+        <v>82</v>
+      </c>
+      <c r="E83" t="s">
+        <v>43</v>
+      </c>
+      <c r="F83" t="s">
+        <v>698</v>
+      </c>
+      <c r="G83" t="s">
+        <v>45</v>
+      </c>
+      <c r="H83" t="s">
+        <v>46</v>
+      </c>
+      <c r="I83" t="s">
+        <v>699</v>
+      </c>
+      <c r="J83" t="s">
+        <v>700</v>
+      </c>
+      <c r="K83" t="s">
+        <v>701</v>
+      </c>
+      <c r="L83" t="s">
+        <v>702</v>
+      </c>
+      <c r="M83" t="n">
+        <v>2</v>
+      </c>
+      <c r="N83" t="s"/>
+      <c r="O83" t="s"/>
+      <c r="P83" t="s"/>
+      <c r="Q83" t="s"/>
+      <c r="R83" t="s"/>
+      <c r="S83" t="s"/>
+      <c r="T83" t="s"/>
+      <c r="U83" t="s"/>
+      <c r="V83" t="n">
+        <v>0</v>
+      </c>
+      <c r="W83" t="s"/>
+      <c r="X83" t="s"/>
+      <c r="Y83" t="s">
+        <v>703</v>
       </c>
     </row>
   </sheetData>
